--- a/JupyterNotebooks/AvgHW/SA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.000190164046541</v>
+      </c>
+      <c r="D3">
+        <v>0.9995062117198541</v>
+      </c>
+      <c r="E3">
         <v>1.000507294373556</v>
-      </c>
-      <c r="D3">
-        <v>0.9992407345992009</v>
-      </c>
-      <c r="E3">
-        <v>1.000189189473774</v>
       </c>
       <c r="F3">
         <v>1.000507294373556</v>
       </c>
       <c r="G3">
+        <v>1.000281766724171</v>
+      </c>
+      <c r="H3">
         <v>0.9998368147826828</v>
       </c>
-      <c r="H3">
-        <v>1.000281766724171</v>
-      </c>
       <c r="I3">
+        <v>0.9992407345992009</v>
+      </c>
+      <c r="J3">
+        <v>1.000189189473774</v>
+      </c>
+      <c r="K3">
         <v>1.000507294373556</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>0.9998477433652503</v>
+      </c>
+      <c r="M3">
         <v>0.9992407345992009</v>
-      </c>
-      <c r="K3">
-        <v>0.9998477433652503</v>
-      </c>
-      <c r="L3">
-        <v>1.000190164046541</v>
-      </c>
-      <c r="M3">
-        <v>0.9995062117198541</v>
       </c>
       <c r="N3">
         <v>1.000507294373556</v>
@@ -764,7 +716,7 @@
         <v>0.9999499898856288</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000367064769578</v>
+      </c>
+      <c r="D4">
+        <v>0.9990467108982723</v>
+      </c>
+      <c r="E4">
         <v>1.000979163666776</v>
-      </c>
-      <c r="D4">
-        <v>0.9985341548215636</v>
-      </c>
-      <c r="E4">
-        <v>1.000365376137603</v>
       </c>
       <c r="F4">
         <v>1.000979163666776</v>
       </c>
       <c r="G4">
+        <v>1.000543993459376</v>
+      </c>
+      <c r="H4">
         <v>0.9996849614694614</v>
       </c>
-      <c r="H4">
-        <v>1.000543993459376</v>
-      </c>
       <c r="I4">
+        <v>0.9985341548215636</v>
+      </c>
+      <c r="J4">
+        <v>1.000365376137603</v>
+      </c>
+      <c r="K4">
         <v>1.000979163666776</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>0.9997061332537691</v>
+      </c>
+      <c r="M4">
         <v>0.9985341548215636</v>
-      </c>
-      <c r="K4">
-        <v>0.9997061332537691</v>
-      </c>
-      <c r="L4">
-        <v>1.000367064769578</v>
-      </c>
-      <c r="M4">
-        <v>0.9990467108982723</v>
       </c>
       <c r="N4">
         <v>1.000979163666776</v>
@@ -835,7 +787,7 @@
         <v>0.9999034448095498</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.00070349552123</v>
+      </c>
+      <c r="D5">
+        <v>0.9981731908385509</v>
+      </c>
+      <c r="E5">
         <v>1.001876652508524</v>
-      </c>
-      <c r="D5">
-        <v>0.9971910065046162</v>
-      </c>
-      <c r="E5">
-        <v>1.000700007438577</v>
       </c>
       <c r="F5">
         <v>1.001876652508524</v>
       </c>
       <c r="G5">
+        <v>1.001042438174013</v>
+      </c>
+      <c r="H5">
         <v>0.9993962789006329</v>
       </c>
-      <c r="H5">
-        <v>1.001042438174013</v>
-      </c>
       <c r="I5">
+        <v>0.9971910065046162</v>
+      </c>
+      <c r="J5">
+        <v>1.000700007438577</v>
+      </c>
+      <c r="K5">
         <v>1.001876652508524</v>
       </c>
-      <c r="J5">
+      <c r="L5">
+        <v>0.999436759891572</v>
+      </c>
+      <c r="M5">
         <v>0.9971910065046162</v>
-      </c>
-      <c r="K5">
-        <v>0.9994367598915721</v>
-      </c>
-      <c r="L5">
-        <v>1.00070349552123</v>
-      </c>
-      <c r="M5">
-        <v>0.9981731908385509</v>
       </c>
       <c r="N5">
         <v>1.001876652508524</v>
@@ -906,7 +858,7 @@
         <v>0.9998149787222145</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.001031817470992</v>
+      </c>
+      <c r="D6">
+        <v>0.9973206583617984</v>
+      </c>
+      <c r="E6">
         <v>1.002752501011043</v>
-      </c>
-      <c r="D6">
-        <v>0.9958801280345555</v>
-      </c>
-      <c r="E6">
-        <v>1.001026643152907</v>
       </c>
       <c r="F6">
         <v>1.002752501011043</v>
       </c>
       <c r="G6">
+        <v>1.00152890726893</v>
+      </c>
+      <c r="H6">
         <v>0.9991145363226115</v>
       </c>
-      <c r="H6">
-        <v>1.00152890726893</v>
-      </c>
       <c r="I6">
+        <v>0.9958801280345555</v>
+      </c>
+      <c r="J6">
+        <v>1.001026643152907</v>
+      </c>
+      <c r="K6">
         <v>1.002752501011043</v>
       </c>
-      <c r="J6">
+      <c r="L6">
+        <v>0.9991738940188201</v>
+      </c>
+      <c r="M6">
         <v>0.9958801280345555</v>
-      </c>
-      <c r="K6">
-        <v>0.9991738940188201</v>
-      </c>
-      <c r="L6">
-        <v>1.001031817470992</v>
-      </c>
-      <c r="M6">
-        <v>0.9973206583617983</v>
       </c>
       <c r="N6">
         <v>1.002752501011043</v>
@@ -974,10 +926,10 @@
         <v>1.000305261906432</v>
       </c>
       <c r="W6">
-        <v>0.9997286357052071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9997286357052072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000015705630565</v>
+      </c>
+      <c r="D7">
+        <v>0.9999591506801707</v>
+      </c>
+      <c r="E7">
         <v>1.000041886099422</v>
-      </c>
-      <c r="D7">
-        <v>0.9999371767471266</v>
-      </c>
-      <c r="E7">
-        <v>1.000015705090777</v>
       </c>
       <c r="F7">
         <v>1.000041886099422</v>
       </c>
       <c r="G7">
+        <v>1.000023319476913</v>
+      </c>
+      <c r="H7">
         <v>0.9999865013255136</v>
       </c>
-      <c r="H7">
-        <v>1.000023319476913</v>
-      </c>
       <c r="I7">
+        <v>0.9999371767471266</v>
+      </c>
+      <c r="J7">
+        <v>1.000015705090777</v>
+      </c>
+      <c r="K7">
         <v>1.000041886099422</v>
       </c>
-      <c r="J7">
+      <c r="L7">
+        <v>0.9999874326492888</v>
+      </c>
+      <c r="M7">
         <v>0.9999371767471266</v>
-      </c>
-      <c r="K7">
-        <v>0.9999874326492886</v>
-      </c>
-      <c r="L7">
-        <v>1.000015705630565</v>
-      </c>
-      <c r="M7">
-        <v>0.9999591506801705</v>
       </c>
       <c r="N7">
         <v>1.000041886099422</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999958597124721</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000045419157403</v>
+      </c>
+      <c r="D8">
+        <v>0.9998819774282477</v>
+      </c>
+      <c r="E8">
         <v>1.000121147105605</v>
-      </c>
-      <c r="D8">
-        <v>0.9998185082829001</v>
-      </c>
-      <c r="E8">
-        <v>1.000045288693385</v>
       </c>
       <c r="F8">
         <v>1.000121147105605</v>
       </c>
       <c r="G8">
+        <v>1.000067359448469</v>
+      </c>
+      <c r="H8">
         <v>0.9999609974202935</v>
       </c>
-      <c r="H8">
-        <v>1.000067359448469</v>
-      </c>
       <c r="I8">
+        <v>0.9998185082829002</v>
+      </c>
+      <c r="J8">
+        <v>1.000045288693385</v>
+      </c>
+      <c r="K8">
         <v>1.000121147105605</v>
       </c>
-      <c r="J8">
-        <v>0.9998185082829001</v>
-      </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.9999636454828502</v>
       </c>
-      <c r="L8">
-        <v>1.000045419157403</v>
-      </c>
       <c r="M8">
-        <v>0.9998819774282477</v>
+        <v>0.9998185082829002</v>
       </c>
       <c r="N8">
         <v>1.000121147105605</v>
@@ -1095,31 +1047,31 @@
         <v>1.000045288693385</v>
       </c>
       <c r="P8">
-        <v>0.9999318984881425</v>
+        <v>0.9999318984881427</v>
       </c>
       <c r="Q8">
         <v>1.000003143056839</v>
       </c>
       <c r="R8">
-        <v>0.99999498136063</v>
+        <v>0.9999949813606301</v>
       </c>
       <c r="S8">
-        <v>0.9999415981321929</v>
+        <v>0.999941598132193</v>
       </c>
       <c r="T8">
-        <v>0.99999498136063</v>
+        <v>0.9999949813606301</v>
       </c>
       <c r="U8">
-        <v>0.9999864853755459</v>
+        <v>0.999986485375546</v>
       </c>
       <c r="V8">
         <v>1.000013417721558</v>
       </c>
       <c r="W8">
-        <v>0.9999880428773942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999880428773943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000067655310338</v>
+      </c>
+      <c r="D9">
+        <v>0.999824376877037</v>
+      </c>
+      <c r="E9">
         <v>1.000180496734476</v>
-      </c>
-      <c r="D9">
-        <v>0.9997299680572654</v>
-      </c>
-      <c r="E9">
-        <v>1.000067241545266</v>
       </c>
       <c r="F9">
         <v>1.000180496734476</v>
       </c>
       <c r="G9">
-        <v>0.9999419615957175</v>
+        <v>1.000100205572139</v>
       </c>
       <c r="H9">
-        <v>1.000100205572139</v>
+        <v>0.9999419615957172</v>
       </c>
       <c r="I9">
+        <v>0.9997299680572654</v>
+      </c>
+      <c r="J9">
+        <v>1.000067241545266</v>
+      </c>
+      <c r="K9">
         <v>1.000180496734476</v>
       </c>
-      <c r="J9">
+      <c r="L9">
+        <v>0.9999458210236845</v>
+      </c>
+      <c r="M9">
         <v>0.9997299680572654</v>
-      </c>
-      <c r="K9">
-        <v>0.9999458210236845</v>
-      </c>
-      <c r="L9">
-        <v>1.000067655310338</v>
-      </c>
-      <c r="M9">
-        <v>0.999824376877037</v>
       </c>
       <c r="N9">
         <v>1.000180496734476</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999822158394904</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000141934929933</v>
+      </c>
+      <c r="D10">
+        <v>0.9996314254754954</v>
+      </c>
+      <c r="E10">
         <v>1.000378628943166</v>
-      </c>
-      <c r="D10">
-        <v>0.9994332640114657</v>
-      </c>
-      <c r="E10">
-        <v>1.00014123233177</v>
       </c>
       <c r="F10">
         <v>1.000378628943166</v>
       </c>
       <c r="G10">
+        <v>1.000210320941566</v>
+      </c>
+      <c r="H10">
         <v>0.9998781959514252</v>
       </c>
-      <c r="H10">
-        <v>1.000210320941566</v>
-      </c>
       <c r="I10">
+        <v>0.9994332640114657</v>
+      </c>
+      <c r="J10">
+        <v>1.00014123233177</v>
+      </c>
+      <c r="K10">
         <v>1.000378628943166</v>
       </c>
-      <c r="J10">
+      <c r="L10">
+        <v>0.9998863612997447</v>
+      </c>
+      <c r="M10">
         <v>0.9994332640114657</v>
-      </c>
-      <c r="K10">
-        <v>0.9998863612997447</v>
-      </c>
-      <c r="L10">
-        <v>1.000141934929933</v>
-      </c>
-      <c r="M10">
-        <v>0.9996314254754955</v>
       </c>
       <c r="N10">
         <v>1.000378628943166</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999626704855709</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000247061694684</v>
+      </c>
+      <c r="D11">
+        <v>0.9993592412874727</v>
+      </c>
+      <c r="E11">
         <v>1.000659259918545</v>
-      </c>
-      <c r="D11">
-        <v>0.9990149099437322</v>
-      </c>
-      <c r="E11">
-        <v>1.000244848110354</v>
       </c>
       <c r="F11">
         <v>1.000659259918545</v>
       </c>
       <c r="G11">
+        <v>1.000365504263768</v>
+      </c>
+      <c r="H11">
         <v>0.9997882445481432</v>
       </c>
-      <c r="H11">
-        <v>1.000365504263768</v>
-      </c>
       <c r="I11">
+        <v>0.9990149099437322</v>
+      </c>
+      <c r="J11">
+        <v>1.000244848110354</v>
+      </c>
+      <c r="K11">
         <v>1.000659259918545</v>
       </c>
-      <c r="J11">
+      <c r="L11">
+        <v>0.9998020664008396</v>
+      </c>
+      <c r="M11">
         <v>0.9990149099437322</v>
-      </c>
-      <c r="K11">
-        <v>0.9998020664008396</v>
-      </c>
-      <c r="L11">
-        <v>1.000247061694684</v>
-      </c>
-      <c r="M11">
-        <v>0.9993592412874727</v>
       </c>
       <c r="N11">
         <v>1.000659259918545</v>
@@ -1332,7 +1284,7 @@
         <v>0.9999351420209424</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9973054280763327</v>
+      </c>
+      <c r="D12">
+        <v>1.007123267942297</v>
+      </c>
+      <c r="E12">
         <v>0.9928413187873748</v>
-      </c>
-      <c r="D12">
-        <v>1.010979529425347</v>
-      </c>
-      <c r="E12">
-        <v>0.9971645612932503</v>
       </c>
       <c r="F12">
         <v>0.9928413187873748</v>
       </c>
       <c r="G12">
+        <v>0.9959149913235962</v>
+      </c>
+      <c r="H12">
         <v>1.00235379528043</v>
       </c>
-      <c r="H12">
-        <v>0.9959149913235965</v>
-      </c>
       <c r="I12">
+        <v>1.010979529425347</v>
+      </c>
+      <c r="J12">
+        <v>0.9971645612932503</v>
+      </c>
+      <c r="K12">
         <v>0.9928413187873748</v>
       </c>
-      <c r="J12">
+      <c r="L12">
+        <v>1.002137952542266</v>
+      </c>
+      <c r="M12">
         <v>1.010979529425347</v>
-      </c>
-      <c r="K12">
-        <v>1.002137952542266</v>
-      </c>
-      <c r="L12">
-        <v>0.9973054280763327</v>
-      </c>
-      <c r="M12">
-        <v>1.007123267942297</v>
       </c>
       <c r="N12">
         <v>0.9928413187873748</v>
@@ -1403,7 +1355,7 @@
         <v>1.000727605583862</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9992786145997365</v>
+      </c>
+      <c r="D13">
+        <v>1.001827912097495</v>
+      </c>
+      <c r="E13">
         <v>0.9980650584177511</v>
-      </c>
-      <c r="D13">
-        <v>1.002801176900511</v>
-      </c>
-      <c r="E13">
-        <v>0.9993376701442581</v>
       </c>
       <c r="F13">
         <v>0.9980650584177511</v>
       </c>
       <c r="G13">
+        <v>0.9989642143494265</v>
+      </c>
+      <c r="H13">
         <v>1.000604184714418</v>
       </c>
-      <c r="H13">
-        <v>0.9989642143494265</v>
-      </c>
       <c r="I13">
+        <v>1.002801176900511</v>
+      </c>
+      <c r="J13">
+        <v>0.9993376701442581</v>
+      </c>
+      <c r="K13">
         <v>0.9980650584177511</v>
       </c>
-      <c r="J13">
+      <c r="L13">
+        <v>1.000584531810621</v>
+      </c>
+      <c r="M13">
         <v>1.002801176900511</v>
-      </c>
-      <c r="K13">
-        <v>1.000584531810621</v>
-      </c>
-      <c r="L13">
-        <v>0.9992786145997365</v>
-      </c>
-      <c r="M13">
-        <v>1.001827912097495</v>
       </c>
       <c r="N13">
         <v>0.9980650584177511</v>
@@ -1453,7 +1405,7 @@
         <v>1.001069423522384</v>
       </c>
       <c r="Q13">
-        <v>0.9999709274293382</v>
+        <v>0.999970927429338</v>
       </c>
       <c r="R13">
         <v>1.000067968487507</v>
@@ -1474,7 +1426,7 @@
         <v>1.000182920379277</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9998881334792086</v>
+      </c>
+      <c r="D14">
+        <v>0.999947871075815</v>
+      </c>
+      <c r="E14">
         <v>0.9996217743911039</v>
-      </c>
-      <c r="D14">
-        <v>0.9998480095447992</v>
-      </c>
-      <c r="E14">
-        <v>1.00030775561002</v>
       </c>
       <c r="F14">
         <v>0.9996217743911039</v>
       </c>
       <c r="G14">
-        <v>0.9999835556674525</v>
+        <v>1.000084735305746</v>
       </c>
       <c r="H14">
-        <v>1.000084735305746</v>
+        <v>0.9999835556674523</v>
       </c>
       <c r="I14">
+        <v>0.9998480095447992</v>
+      </c>
+      <c r="J14">
+        <v>1.00030775561002</v>
+      </c>
+      <c r="K14">
         <v>0.9996217743911039</v>
       </c>
-      <c r="J14">
+      <c r="L14">
+        <v>1.000142239604065</v>
+      </c>
+      <c r="M14">
         <v>0.9998480095447992</v>
-      </c>
-      <c r="K14">
-        <v>1.000142239604065</v>
-      </c>
-      <c r="L14">
-        <v>0.9998881334792086</v>
-      </c>
-      <c r="M14">
-        <v>0.999947871075815</v>
       </c>
       <c r="N14">
         <v>0.9996217743911039</v>
@@ -1545,7 +1497,7 @@
         <v>0.9999780093347763</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.000044389827413</v>
+      </c>
+      <c r="D15">
+        <v>1.00002577130476</v>
+      </c>
+      <c r="E15">
         <v>1.000151296071821</v>
-      </c>
-      <c r="D15">
-        <v>1.000069220677154</v>
-      </c>
-      <c r="E15">
-        <v>0.9998716417450872</v>
       </c>
       <c r="F15">
         <v>1.000151296071821</v>
       </c>
       <c r="G15">
+        <v>0.9999626540115703</v>
+      </c>
+      <c r="H15">
         <v>1.000008197021452</v>
       </c>
-      <c r="H15">
-        <v>0.9999626540115703</v>
-      </c>
       <c r="I15">
+        <v>1.000069220677154</v>
+      </c>
+      <c r="J15">
+        <v>0.9998716417450872</v>
+      </c>
+      <c r="K15">
         <v>1.000151296071821</v>
       </c>
-      <c r="J15">
+      <c r="L15">
+        <v>0.9999427651000732</v>
+      </c>
+      <c r="M15">
         <v>1.000069220677154</v>
-      </c>
-      <c r="K15">
-        <v>0.9999427651000732</v>
-      </c>
-      <c r="L15">
-        <v>1.000044389827413</v>
-      </c>
-      <c r="M15">
-        <v>1.00002577130476</v>
       </c>
       <c r="N15">
         <v>1.000151296071821</v>
@@ -1616,7 +1568,7 @@
         <v>1.000009491969916</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000002869360695</v>
+        <v>1.003710178974809</v>
       </c>
       <c r="D16">
-        <v>0.9999973009300651</v>
+        <v>0.9903649279932639</v>
       </c>
       <c r="E16">
-        <v>1.000000074520581</v>
+        <v>1.00989719179721</v>
       </c>
       <c r="F16">
-        <v>1.000002869360695</v>
+        <v>1.00989719179721</v>
       </c>
       <c r="G16">
-        <v>0.9999993845155015</v>
+        <v>1.005498173641016</v>
       </c>
       <c r="H16">
-        <v>1.000000938855194</v>
+        <v>0.9968158254843673</v>
       </c>
       <c r="I16">
-        <v>1.000002869360695</v>
+        <v>0.9851845262739937</v>
       </c>
       <c r="J16">
-        <v>0.9999973009300651</v>
+        <v>1.003692501842284</v>
       </c>
       <c r="K16">
-        <v>0.9999990737380077</v>
+        <v>1.00989719179721</v>
       </c>
       <c r="L16">
-        <v>1.000001007966133</v>
+        <v>0.9970296262266747</v>
       </c>
       <c r="M16">
-        <v>0.9999981399092654</v>
+        <v>0.9851845262739937</v>
       </c>
       <c r="N16">
-        <v>1.000002869360695</v>
+        <v>1.00989719179721</v>
       </c>
       <c r="O16">
-        <v>1.000000074520581</v>
+        <v>1.003692501842284</v>
       </c>
       <c r="P16">
-        <v>0.9999986877253229</v>
+        <v>0.9944385140581389</v>
       </c>
       <c r="Q16">
-        <v>0.9999997295180411</v>
+        <v>1.000254163663326</v>
       </c>
       <c r="R16">
-        <v>1.00000008160378</v>
+        <v>0.9995914066378292</v>
       </c>
       <c r="S16">
-        <v>0.9999989199887157</v>
+        <v>0.995230951200215</v>
       </c>
       <c r="T16">
-        <v>1.00000008160378</v>
+        <v>0.9995914066378292</v>
       </c>
       <c r="U16">
-        <v>0.9999999073317104</v>
+        <v>0.9988975113494637</v>
       </c>
       <c r="V16">
-        <v>1.000000499737507</v>
+        <v>1.001097447439013</v>
       </c>
       <c r="W16">
-        <v>0.9999998487244303</v>
+        <v>0.9990241190292022</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000042985670611</v>
+        <v>1.0030391141202</v>
       </c>
       <c r="D17">
-        <v>0.9999328260297407</v>
+        <v>0.9921033113097633</v>
       </c>
       <c r="E17">
-        <v>1.00001780607479</v>
+        <v>1.008106063596377</v>
       </c>
       <c r="F17">
-        <v>1.000042985670611</v>
+        <v>1.008106063596377</v>
       </c>
       <c r="G17">
-        <v>0.9999856273246448</v>
+        <v>1.00450687514542</v>
       </c>
       <c r="H17">
-        <v>1.000025040584003</v>
+        <v>0.9973903325633703</v>
       </c>
       <c r="I17">
-        <v>1.000042985670611</v>
+        <v>0.987856664581819</v>
       </c>
       <c r="J17">
-        <v>0.9999328260297407</v>
+        <v>1.00302992512924</v>
       </c>
       <c r="K17">
-        <v>0.9999872107644049</v>
+        <v>1.008106063596377</v>
       </c>
       <c r="L17">
-        <v>1.000016230722798</v>
+        <v>0.9975675475325023</v>
       </c>
       <c r="M17">
-        <v>0.999956497400459</v>
+        <v>0.987856664581819</v>
       </c>
       <c r="N17">
-        <v>1.000042985670611</v>
+        <v>1.008106063596377</v>
       </c>
       <c r="O17">
-        <v>1.00001780607479</v>
+        <v>1.00302992512924</v>
       </c>
       <c r="P17">
-        <v>0.9999753160522651</v>
+        <v>0.9954432948555296</v>
       </c>
       <c r="Q17">
-        <v>1.000001716699717</v>
+        <v>1.000210128846305</v>
       </c>
       <c r="R17">
-        <v>0.9999978725917137</v>
+        <v>0.9996642177691454</v>
       </c>
       <c r="S17">
-        <v>0.9999787531430583</v>
+        <v>0.9960923074248099</v>
       </c>
       <c r="T17">
-        <v>0.9999978725917137</v>
+        <v>0.9996642177691454</v>
       </c>
       <c r="U17">
-        <v>0.9999948112749465</v>
+        <v>0.9990957464677016</v>
       </c>
       <c r="V17">
-        <v>1.000004446154079</v>
+        <v>1.000897809893437</v>
       </c>
       <c r="W17">
-        <v>0.9999955280714314</v>
+        <v>0.9991999792473365</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000158648305115</v>
+        <v>1.001698151487739</v>
       </c>
       <c r="D18">
-        <v>0.9997676116160201</v>
+        <v>0.9955774261267732</v>
       </c>
       <c r="E18">
-        <v>1.00005600736579</v>
+        <v>1.004527001295115</v>
       </c>
       <c r="F18">
-        <v>1.000158648305115</v>
+        <v>1.004527001295115</v>
       </c>
       <c r="G18">
-        <v>0.9999499374974489</v>
+        <v>1.002525733253667</v>
       </c>
       <c r="H18">
-        <v>1.000086041507136</v>
+        <v>0.9985384703114856</v>
       </c>
       <c r="I18">
-        <v>1.000158648305115</v>
+        <v>0.9931969419456941</v>
       </c>
       <c r="J18">
-        <v>0.9997676116160201</v>
+        <v>1.001705476547318</v>
       </c>
       <c r="K18">
-        <v>0.9999521810756146</v>
+        <v>1.004527001295115</v>
       </c>
       <c r="L18">
-        <v>1.000059259411459</v>
+        <v>0.998642399166884</v>
       </c>
       <c r="M18">
-        <v>0.9998485389896534</v>
+        <v>0.9931969419456941</v>
       </c>
       <c r="N18">
-        <v>1.000158648305115</v>
+        <v>1.004527001295115</v>
       </c>
       <c r="O18">
-        <v>1.00005600736579</v>
+        <v>1.001705476547318</v>
       </c>
       <c r="P18">
-        <v>0.9999118094909051</v>
+        <v>0.9974512092465062</v>
       </c>
       <c r="Q18">
-        <v>1.00000297243162</v>
+        <v>1.000121973429402</v>
       </c>
       <c r="R18">
-        <v>0.9999940890956417</v>
+        <v>0.9998098065960425</v>
       </c>
       <c r="S18">
-        <v>0.9999245188264196</v>
+        <v>0.9978136296014993</v>
       </c>
       <c r="T18">
-        <v>0.9999940890956417</v>
+        <v>0.9998098065960425</v>
       </c>
       <c r="U18">
-        <v>0.9999830511960935</v>
+        <v>0.9994919725249033</v>
       </c>
       <c r="V18">
-        <v>1.000018170617898</v>
+        <v>1.000498978278946</v>
       </c>
       <c r="W18">
-        <v>0.9999847782210296</v>
+        <v>0.9995514500168345</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1789,351 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001855455242453</v>
+      </c>
+      <c r="D19">
+        <v>0.99516242092624</v>
+      </c>
+      <c r="E19">
+        <v>1.004945114949504</v>
+      </c>
+      <c r="F19">
+        <v>1.004945114949504</v>
+      </c>
+      <c r="G19">
+        <v>1.002763590972535</v>
+      </c>
+      <c r="H19">
+        <v>0.9984013344614192</v>
+      </c>
+      <c r="I19">
+        <v>0.9925574407594068</v>
+      </c>
+      <c r="J19">
+        <v>1.001869975697526</v>
+      </c>
+      <c r="K19">
+        <v>1.004945114949504</v>
+      </c>
+      <c r="L19">
+        <v>0.9985174609092377</v>
+      </c>
+      <c r="M19">
+        <v>0.9925574407594068</v>
+      </c>
+      <c r="N19">
+        <v>1.004945114949504</v>
+      </c>
+      <c r="O19">
+        <v>1.001869975697526</v>
+      </c>
+      <c r="P19">
+        <v>0.9972137082284662</v>
+      </c>
+      <c r="Q19">
+        <v>1.000135655079472</v>
+      </c>
+      <c r="R19">
+        <v>0.9997908438021456</v>
+      </c>
+      <c r="S19">
+        <v>0.9976095836394506</v>
+      </c>
+      <c r="T19">
+        <v>0.9997908438021456</v>
+      </c>
+      <c r="U19">
+        <v>0.999443466466964</v>
+      </c>
+      <c r="V19">
+        <v>1.000543796163472</v>
+      </c>
+      <c r="W19">
+        <v>0.9995090992397903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000001007966133</v>
+      </c>
+      <c r="D20">
+        <v>0.9999981399092654</v>
+      </c>
+      <c r="E20">
+        <v>1.000002869360695</v>
+      </c>
+      <c r="F20">
+        <v>1.000002869360695</v>
+      </c>
+      <c r="G20">
+        <v>1.000000938855194</v>
+      </c>
+      <c r="H20">
+        <v>0.9999993845155015</v>
+      </c>
+      <c r="I20">
+        <v>0.9999973009300651</v>
+      </c>
+      <c r="J20">
+        <v>1.000000074520581</v>
+      </c>
+      <c r="K20">
+        <v>1.000002869360695</v>
+      </c>
+      <c r="L20">
+        <v>0.9999990737380077</v>
+      </c>
+      <c r="M20">
+        <v>0.9999973009300651</v>
+      </c>
+      <c r="N20">
+        <v>1.000002869360695</v>
+      </c>
+      <c r="O20">
+        <v>1.000000074520581</v>
+      </c>
+      <c r="P20">
+        <v>0.9999986877253229</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999997295180411</v>
+      </c>
+      <c r="R20">
+        <v>1.00000008160378</v>
+      </c>
+      <c r="S20">
+        <v>0.9999989199887157</v>
+      </c>
+      <c r="T20">
+        <v>1.00000008160378</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999073317106</v>
+      </c>
+      <c r="V20">
+        <v>1.000000499737508</v>
+      </c>
+      <c r="W20">
+        <v>0.9999998487244303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000016230722798</v>
+      </c>
+      <c r="D21">
+        <v>0.9999564974004589</v>
+      </c>
+      <c r="E21">
+        <v>1.000042985670611</v>
+      </c>
+      <c r="F21">
+        <v>1.000042985670611</v>
+      </c>
+      <c r="G21">
+        <v>1.000025040584003</v>
+      </c>
+      <c r="H21">
+        <v>0.9999856273246446</v>
+      </c>
+      <c r="I21">
+        <v>0.9999328260297407</v>
+      </c>
+      <c r="J21">
+        <v>1.00001780607479</v>
+      </c>
+      <c r="K21">
+        <v>1.000042985670611</v>
+      </c>
+      <c r="L21">
+        <v>0.9999872107644048</v>
+      </c>
+      <c r="M21">
+        <v>0.9999328260297407</v>
+      </c>
+      <c r="N21">
+        <v>1.000042985670611</v>
+      </c>
+      <c r="O21">
+        <v>1.00001780607479</v>
+      </c>
+      <c r="P21">
+        <v>0.9999753160522651</v>
+      </c>
+      <c r="Q21">
+        <v>1.000001716699717</v>
+      </c>
+      <c r="R21">
+        <v>0.9999978725917137</v>
+      </c>
+      <c r="S21">
+        <v>0.9999787531430583</v>
+      </c>
+      <c r="T21">
+        <v>0.9999978725917137</v>
+      </c>
+      <c r="U21">
+        <v>0.9999948112749464</v>
+      </c>
+      <c r="V21">
+        <v>1.000004446154079</v>
+      </c>
+      <c r="W21">
+        <v>0.9999955280714313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000059259411459</v>
+      </c>
+      <c r="D22">
+        <v>0.9998485389896533</v>
+      </c>
+      <c r="E22">
+        <v>1.000158648305115</v>
+      </c>
+      <c r="F22">
+        <v>1.000158648305115</v>
+      </c>
+      <c r="G22">
+        <v>1.000086041507136</v>
+      </c>
+      <c r="H22">
+        <v>0.9999499374974489</v>
+      </c>
+      <c r="I22">
+        <v>0.9997676116160201</v>
+      </c>
+      <c r="J22">
+        <v>1.00005600736579</v>
+      </c>
+      <c r="K22">
+        <v>1.000158648305115</v>
+      </c>
+      <c r="L22">
+        <v>0.9999521810756146</v>
+      </c>
+      <c r="M22">
+        <v>0.9997676116160201</v>
+      </c>
+      <c r="N22">
+        <v>1.000158648305115</v>
+      </c>
+      <c r="O22">
+        <v>1.00005600736579</v>
+      </c>
+      <c r="P22">
+        <v>0.9999118094909051</v>
+      </c>
+      <c r="Q22">
+        <v>1.00000297243162</v>
+      </c>
+      <c r="R22">
+        <v>0.9999940890956417</v>
+      </c>
+      <c r="S22">
+        <v>0.9999245188264196</v>
+      </c>
+      <c r="T22">
+        <v>0.9999940890956417</v>
+      </c>
+      <c r="U22">
+        <v>0.9999830511960935</v>
+      </c>
+      <c r="V22">
+        <v>1.000018170617898</v>
+      </c>
+      <c r="W22">
+        <v>0.9999847782210296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000140120010094</v>
+      </c>
+      <c r="D23">
+        <v>0.9996462051330958</v>
+      </c>
+      <c r="E23">
         <v>1.000376132086991</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.000376132086991</v>
+      </c>
+      <c r="G23">
+        <v>1.000200269611722</v>
+      </c>
+      <c r="H23">
+        <v>0.9998830549075081</v>
+      </c>
+      <c r="I23">
         <v>0.9994580956503684</v>
       </c>
-      <c r="E19">
+      <c r="J23">
         <v>1.000127119264194</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.000376132086991</v>
       </c>
-      <c r="G19">
-        <v>0.9998830549075085</v>
-      </c>
-      <c r="H19">
-        <v>1.000200269611722</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
+        <v>0.9998862652832301</v>
+      </c>
+      <c r="M23">
+        <v>0.9994580956503684</v>
+      </c>
+      <c r="N23">
         <v>1.000376132086991</v>
       </c>
-      <c r="J19">
-        <v>0.9994580956503684</v>
-      </c>
-      <c r="K19">
-        <v>0.9998862652832301</v>
-      </c>
-      <c r="L19">
-        <v>1.000140120010094</v>
-      </c>
-      <c r="M19">
-        <v>0.9996462051330958</v>
-      </c>
-      <c r="N19">
-        <v>1.000376132086991</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000127119264194</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9997926074572809</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000005087085851</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999871156671842</v>
       </c>
-      <c r="S19">
-        <v>0.9998227566073568</v>
-      </c>
-      <c r="T19">
+      <c r="S23">
+        <v>0.9998227566073566</v>
+      </c>
+      <c r="T23">
         <v>0.9999871156671843</v>
       </c>
-      <c r="U19">
-        <v>0.9999611004772654</v>
-      </c>
-      <c r="V19">
+      <c r="U23">
+        <v>0.9999611004772653</v>
+      </c>
+      <c r="V23">
         <v>1.000044106799211</v>
       </c>
-      <c r="W19">
-        <v>0.9999646577434004</v>
+      <c r="W23">
+        <v>0.9999646577434003</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000190164046541</v>
+        <v>1.002057130230545</v>
       </c>
       <c r="D3">
-        <v>0.9995062117198541</v>
+        <v>0.9946419040273796</v>
       </c>
       <c r="E3">
-        <v>1.000507294373556</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="F3">
-        <v>1.000507294373556</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="G3">
-        <v>1.000281766724171</v>
+        <v>1.003060106635445</v>
       </c>
       <c r="H3">
-        <v>0.9998368147826828</v>
+        <v>0.99822930803314</v>
       </c>
       <c r="I3">
-        <v>0.9992407345992009</v>
+        <v>0.9917577392147009</v>
       </c>
       <c r="J3">
-        <v>1.000189189473774</v>
+        <v>1.00206675329251</v>
       </c>
       <c r="K3">
-        <v>1.000507294373556</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="L3">
-        <v>0.9998477433652503</v>
+        <v>0.9983555050720483</v>
       </c>
       <c r="M3">
-        <v>0.9992407345992009</v>
+        <v>0.9917577392147009</v>
       </c>
       <c r="N3">
-        <v>1.000507294373556</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="O3">
-        <v>1.000189189473774</v>
+        <v>1.00206675329251</v>
       </c>
       <c r="P3">
-        <v>0.9997149620364874</v>
+        <v>0.9969122462536055</v>
       </c>
       <c r="Q3">
-        <v>1.000013002128228</v>
+        <v>1.000148030662825</v>
       </c>
       <c r="R3">
-        <v>0.9999790728155104</v>
+        <v>0.999769445026418</v>
       </c>
       <c r="S3">
-        <v>0.9997555796185525</v>
+        <v>0.9973512668467838</v>
       </c>
       <c r="T3">
-        <v>0.9999790728155104</v>
+        <v>0.999769445026418</v>
       </c>
       <c r="U3">
-        <v>0.9999435083073035</v>
+        <v>0.9993844107780985</v>
       </c>
       <c r="V3">
-        <v>1.000056265520554</v>
+        <v>1.000604297136887</v>
       </c>
       <c r="W3">
-        <v>0.9999499898856288</v>
+        <v>0.9994565361347265</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000367064769578</v>
+        <v>1.001852273313458</v>
       </c>
       <c r="D4">
-        <v>0.9990467108982723</v>
+        <v>0.9951752394371968</v>
       </c>
       <c r="E4">
-        <v>1.000979163666776</v>
+        <v>1.004937685322404</v>
       </c>
       <c r="F4">
-        <v>1.000979163666776</v>
+        <v>1.004937685322404</v>
       </c>
       <c r="G4">
-        <v>1.000543993459376</v>
+        <v>1.002755547737602</v>
       </c>
       <c r="H4">
-        <v>0.9996849614694614</v>
+        <v>0.9984055602944466</v>
       </c>
       <c r="I4">
-        <v>0.9985341548215636</v>
+        <v>0.9925781086787235</v>
       </c>
       <c r="J4">
-        <v>1.000365376137603</v>
+        <v>1.001861235685803</v>
       </c>
       <c r="K4">
-        <v>1.000979163666776</v>
+        <v>1.004937685322404</v>
       </c>
       <c r="L4">
-        <v>0.9997061332537691</v>
+        <v>0.9985193071263508</v>
       </c>
       <c r="M4">
-        <v>0.9985341548215636</v>
+        <v>0.9925781086787235</v>
       </c>
       <c r="N4">
-        <v>1.000979163666776</v>
+        <v>1.004937685322404</v>
       </c>
       <c r="O4">
-        <v>1.000365376137603</v>
+        <v>1.001861235685803</v>
       </c>
       <c r="P4">
-        <v>0.9994497654795833</v>
+        <v>0.9972196721822632</v>
       </c>
       <c r="Q4">
-        <v>1.000025168803532</v>
+        <v>1.000133397990125</v>
       </c>
       <c r="R4">
-        <v>0.9999595648753141</v>
+        <v>0.9997923432289767</v>
       </c>
       <c r="S4">
-        <v>0.9995281641428759</v>
+        <v>0.9976149682196577</v>
       </c>
       <c r="T4">
-        <v>0.9999595648753141</v>
+        <v>0.9997923432289767</v>
       </c>
       <c r="U4">
-        <v>0.999890914023851</v>
+        <v>0.9994456474953441</v>
       </c>
       <c r="V4">
-        <v>1.000108563952436</v>
+        <v>1.000544055060756</v>
       </c>
       <c r="W4">
-        <v>0.9999034448095498</v>
+        <v>0.9995106196994981</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00070349552123</v>
+        <v>1.002450624851752</v>
       </c>
       <c r="D5">
-        <v>0.9981731908385509</v>
+        <v>0.9936176618598378</v>
       </c>
       <c r="E5">
-        <v>1.001876652508524</v>
+        <v>1.006532947412399</v>
       </c>
       <c r="F5">
-        <v>1.001876652508524</v>
+        <v>1.006532947412399</v>
       </c>
       <c r="G5">
-        <v>1.001042438174013</v>
+        <v>1.003644968571429</v>
       </c>
       <c r="H5">
-        <v>0.9993962789006329</v>
+        <v>0.9978908276549862</v>
       </c>
       <c r="I5">
-        <v>0.9971910065046162</v>
+        <v>0.9901823042048529</v>
       </c>
       <c r="J5">
-        <v>1.000700007438577</v>
+        <v>1.002461281832884</v>
       </c>
       <c r="K5">
-        <v>1.001876652508524</v>
+        <v>1.006532947412399</v>
       </c>
       <c r="L5">
-        <v>0.999436759891572</v>
+        <v>0.9980408431536398</v>
       </c>
       <c r="M5">
-        <v>0.9971910065046162</v>
+        <v>0.9901823042048529</v>
       </c>
       <c r="N5">
-        <v>1.001876652508524</v>
+        <v>1.006532947412399</v>
       </c>
       <c r="O5">
-        <v>1.000700007438577</v>
+        <v>1.002461281832884</v>
       </c>
       <c r="P5">
-        <v>0.9989455069715969</v>
+        <v>0.9963217930188684</v>
       </c>
       <c r="Q5">
-        <v>1.000048143169605</v>
+        <v>1.000176054743935</v>
       </c>
       <c r="R5">
-        <v>0.9999225554839059</v>
+        <v>0.9997255111500453</v>
       </c>
       <c r="S5">
-        <v>0.9990957642812756</v>
+        <v>0.996844804564241</v>
       </c>
       <c r="T5">
-        <v>0.9999225554839059</v>
+        <v>0.9997255111500453</v>
       </c>
       <c r="U5">
-        <v>0.9997909863380876</v>
+        <v>0.9992668402762805</v>
       </c>
       <c r="V5">
-        <v>1.000208119572175</v>
+        <v>1.000720061703504</v>
       </c>
       <c r="W5">
-        <v>0.9998149787222145</v>
+        <v>0.9993526824427226</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001031817470992</v>
+        <v>1.002823303806818</v>
       </c>
       <c r="D6">
-        <v>0.9973206583617984</v>
+        <v>0.9926478004545468</v>
       </c>
       <c r="E6">
-        <v>1.002752501011043</v>
+        <v>1.007526630909091</v>
       </c>
       <c r="F6">
-        <v>1.002752501011043</v>
+        <v>1.007526630909091</v>
       </c>
       <c r="G6">
-        <v>1.00152890726893</v>
+        <v>1.004198734943181</v>
       </c>
       <c r="H6">
-        <v>0.9991145363226115</v>
+        <v>0.9975703086363648</v>
       </c>
       <c r="I6">
-        <v>0.9958801280345555</v>
+        <v>0.9886905598863632</v>
       </c>
       <c r="J6">
-        <v>1.001026643152907</v>
+        <v>1.002834661477273</v>
       </c>
       <c r="K6">
-        <v>1.002752501011043</v>
+        <v>1.007526630909091</v>
       </c>
       <c r="L6">
-        <v>0.9991738940188201</v>
+        <v>0.9977427850568171</v>
       </c>
       <c r="M6">
-        <v>0.9958801280345555</v>
+        <v>0.9886905598863632</v>
       </c>
       <c r="N6">
-        <v>1.002752501011043</v>
+        <v>1.007526630909091</v>
       </c>
       <c r="O6">
-        <v>1.001026643152907</v>
+        <v>1.002834661477273</v>
       </c>
       <c r="P6">
-        <v>0.9984533855937314</v>
+        <v>0.995762610681818</v>
       </c>
       <c r="Q6">
-        <v>1.00007058973776</v>
+        <v>1.000202485056819</v>
       </c>
       <c r="R6">
-        <v>0.9998864240661686</v>
+        <v>0.9996839507575755</v>
       </c>
       <c r="S6">
-        <v>0.9986737691700247</v>
+        <v>0.996365176666667</v>
       </c>
       <c r="T6">
-        <v>0.9998864240661686</v>
+        <v>0.9996839507575758</v>
       </c>
       <c r="U6">
-        <v>0.9996934521302794</v>
+        <v>0.9991555402272729</v>
       </c>
       <c r="V6">
-        <v>1.000305261906432</v>
+        <v>1.000829758363637</v>
       </c>
       <c r="W6">
-        <v>0.9997286357052072</v>
+        <v>0.9992543481463069</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000015705630565</v>
+        <v>1.006571694866255</v>
       </c>
       <c r="D7">
-        <v>0.9999591506801707</v>
+        <v>0.9828731615134214</v>
       </c>
       <c r="E7">
-        <v>1.000041886099422</v>
+        <v>1.017516317202992</v>
       </c>
       <c r="F7">
-        <v>1.000041886099422</v>
+        <v>1.017516317202992</v>
       </c>
       <c r="G7">
-        <v>1.000023319476913</v>
+        <v>1.009783031698978</v>
       </c>
       <c r="H7">
-        <v>0.9999865013255136</v>
+        <v>0.994340105147635</v>
       </c>
       <c r="I7">
-        <v>0.9999371767471266</v>
+        <v>0.9736520261729879</v>
       </c>
       <c r="J7">
-        <v>1.000015705090777</v>
+        <v>1.006614557755334</v>
       </c>
       <c r="K7">
-        <v>1.000041886099422</v>
+        <v>1.017516317202992</v>
       </c>
       <c r="L7">
-        <v>0.9999874326492888</v>
+        <v>0.9947480439042412</v>
       </c>
       <c r="M7">
-        <v>0.9999371767471266</v>
+        <v>0.9736520261729879</v>
       </c>
       <c r="N7">
-        <v>1.000041886099422</v>
+        <v>1.017516317202992</v>
       </c>
       <c r="O7">
-        <v>1.000015705090777</v>
+        <v>1.006614557755334</v>
       </c>
       <c r="P7">
-        <v>0.9999764409189518</v>
+        <v>0.990133291964161</v>
       </c>
       <c r="Q7">
-        <v>1.000001103208145</v>
+        <v>1.000477331451485</v>
       </c>
       <c r="R7">
-        <v>0.9999982559791084</v>
+        <v>0.9992609670437712</v>
       </c>
       <c r="S7">
-        <v>0.9999797943878056</v>
+        <v>0.991535563025319</v>
       </c>
       <c r="T7">
-        <v>0.9999982559791084</v>
+        <v>0.9992609670437713</v>
       </c>
       <c r="U7">
-        <v>0.9999953173157097</v>
+        <v>0.9980307515697373</v>
       </c>
       <c r="V7">
-        <v>1.000004631072452</v>
+        <v>1.001927864696388</v>
       </c>
       <c r="W7">
-        <v>0.9999958597124721</v>
+        <v>0.9982623672827304</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000045419157403</v>
+        <v>1.006615573883606</v>
       </c>
       <c r="D8">
-        <v>0.9998819774282477</v>
+        <v>0.9827595679155985</v>
       </c>
       <c r="E8">
-        <v>1.000121147105605</v>
+        <v>1.017633450664078</v>
       </c>
       <c r="F8">
-        <v>1.000121147105605</v>
+        <v>1.017633450664078</v>
       </c>
       <c r="G8">
-        <v>1.000067359448469</v>
+        <v>1.009847795806792</v>
       </c>
       <c r="H8">
-        <v>0.9999609974202935</v>
+        <v>0.9943025642519978</v>
       </c>
       <c r="I8">
-        <v>0.9998185082829002</v>
+        <v>0.9734774325401313</v>
       </c>
       <c r="J8">
-        <v>1.000045288693385</v>
+        <v>1.006657791091178</v>
       </c>
       <c r="K8">
-        <v>1.000121147105605</v>
+        <v>1.017633450664078</v>
       </c>
       <c r="L8">
-        <v>0.9999636454828502</v>
+        <v>0.9947128595708778</v>
       </c>
       <c r="M8">
-        <v>0.9998185082829002</v>
+        <v>0.9734774325401313</v>
       </c>
       <c r="N8">
-        <v>1.000121147105605</v>
+        <v>1.017633450664078</v>
       </c>
       <c r="O8">
-        <v>1.000045288693385</v>
+        <v>1.006657791091178</v>
       </c>
       <c r="P8">
-        <v>0.9999318984881427</v>
+        <v>0.9900676118156548</v>
       </c>
       <c r="Q8">
-        <v>1.000003143056839</v>
+        <v>1.000480177671588</v>
       </c>
       <c r="R8">
-        <v>0.9999949813606301</v>
+        <v>0.9992562247651294</v>
       </c>
       <c r="S8">
-        <v>0.999941598132193</v>
+        <v>0.9914792626277692</v>
       </c>
       <c r="T8">
-        <v>0.9999949813606301</v>
+        <v>0.9992562247651294</v>
       </c>
       <c r="U8">
-        <v>0.999986485375546</v>
+        <v>0.9980178096368465</v>
       </c>
       <c r="V8">
-        <v>1.000013417721558</v>
+        <v>1.001940937842293</v>
       </c>
       <c r="W8">
-        <v>0.9999880428773943</v>
+        <v>0.9982508794655325</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000067655310338</v>
+        <v>1.006643239750362</v>
       </c>
       <c r="D9">
-        <v>0.999824376877037</v>
+        <v>0.9826869565356299</v>
       </c>
       <c r="E9">
-        <v>1.000180496734476</v>
+        <v>1.01770707271679</v>
       </c>
       <c r="F9">
-        <v>1.000180496734476</v>
+        <v>1.01770707271679</v>
       </c>
       <c r="G9">
-        <v>1.000100205572139</v>
+        <v>1.009889353889026</v>
       </c>
       <c r="H9">
-        <v>0.9999419615957172</v>
+        <v>0.9942785695925755</v>
       </c>
       <c r="I9">
-        <v>0.9997299680572654</v>
+        <v>0.9733656203751152</v>
       </c>
       <c r="J9">
-        <v>1.000067241545266</v>
+        <v>1.006686261238468</v>
       </c>
       <c r="K9">
-        <v>1.000180496734476</v>
+        <v>1.01770707271679</v>
       </c>
       <c r="L9">
-        <v>0.9999458210236845</v>
+        <v>0.9946908280443157</v>
       </c>
       <c r="M9">
-        <v>0.9997299680572654</v>
+        <v>0.9733656203751152</v>
       </c>
       <c r="N9">
-        <v>1.000180496734476</v>
+        <v>1.01770707271679</v>
       </c>
       <c r="O9">
-        <v>1.000067241545266</v>
+        <v>1.006686261238468</v>
       </c>
       <c r="P9">
-        <v>0.9998986048012659</v>
+        <v>0.9900259408067915</v>
       </c>
       <c r="Q9">
-        <v>1.000004601570492</v>
+        <v>1.000482415415522</v>
       </c>
       <c r="R9">
-        <v>0.9999925687790027</v>
+        <v>0.999252984776791</v>
       </c>
       <c r="S9">
-        <v>0.9999130570660831</v>
+        <v>0.9914434837353863</v>
       </c>
       <c r="T9">
-        <v>0.9999925687790027</v>
+        <v>0.9992529847767911</v>
       </c>
       <c r="U9">
-        <v>0.9999799169831813</v>
+        <v>0.9980093809807373</v>
       </c>
       <c r="V9">
-        <v>1.00002003293344</v>
+        <v>1.001948919327948</v>
       </c>
       <c r="W9">
-        <v>0.9999822158394904</v>
+        <v>0.9982434877677853</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000141934929933</v>
+        <v>1.006796431996183</v>
       </c>
       <c r="D10">
-        <v>0.9996314254754954</v>
+        <v>0.9822912114463773</v>
       </c>
       <c r="E10">
-        <v>1.000378628943166</v>
+        <v>1.018116210151533</v>
       </c>
       <c r="F10">
-        <v>1.000378628943166</v>
+        <v>1.018116210151533</v>
       </c>
       <c r="G10">
-        <v>1.000210320941566</v>
+        <v>1.010114848391906</v>
       </c>
       <c r="H10">
-        <v>0.9998781959514252</v>
+        <v>0.9941477801318784</v>
       </c>
       <c r="I10">
-        <v>0.9994332640114657</v>
+        <v>0.9727575356882651</v>
       </c>
       <c r="J10">
-        <v>1.00014123233177</v>
+        <v>1.006836174354106</v>
       </c>
       <c r="K10">
-        <v>1.000378628943166</v>
+        <v>1.018116210151533</v>
       </c>
       <c r="L10">
-        <v>0.9998863612997447</v>
+        <v>0.9945678618946707</v>
       </c>
       <c r="M10">
-        <v>0.9994332640114657</v>
+        <v>0.9727575356882651</v>
       </c>
       <c r="N10">
-        <v>1.000378628943166</v>
+        <v>1.018116210151533</v>
       </c>
       <c r="O10">
-        <v>1.00014123233177</v>
+        <v>1.006836174354106</v>
       </c>
       <c r="P10">
-        <v>0.9997872481716181</v>
+        <v>0.9897968550211858</v>
       </c>
       <c r="Q10">
-        <v>1.000009714141598</v>
+        <v>1.000491977242992</v>
       </c>
       <c r="R10">
-        <v>0.9999843750954676</v>
+        <v>0.9992366400646349</v>
       </c>
       <c r="S10">
-        <v>0.9998175640982204</v>
+        <v>0.9912471633914167</v>
       </c>
       <c r="T10">
-        <v>0.9999843750954676</v>
+        <v>0.9992366400646349</v>
       </c>
       <c r="U10">
-        <v>0.999957830309457</v>
+        <v>0.9979644250814458</v>
       </c>
       <c r="V10">
-        <v>1.000041990036199</v>
+        <v>1.001994782095463</v>
       </c>
       <c r="W10">
-        <v>0.9999626704855709</v>
+        <v>0.9982035067568651</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000247061694684</v>
+        <v>1.000229047966455</v>
       </c>
       <c r="D11">
-        <v>0.9993592412874727</v>
+        <v>0.9994064973825414</v>
       </c>
       <c r="E11">
-        <v>1.000659259918545</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="F11">
-        <v>1.000659259918545</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="G11">
-        <v>1.000365504263768</v>
+        <v>1.000338465389755</v>
       </c>
       <c r="H11">
-        <v>0.9997882445481432</v>
+        <v>0.9998038587445589</v>
       </c>
       <c r="I11">
-        <v>0.9990149099437322</v>
+        <v>0.9990876723903394</v>
       </c>
       <c r="J11">
-        <v>1.000244848110354</v>
+        <v>1.000226343475984</v>
       </c>
       <c r="K11">
-        <v>1.000659259918545</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="L11">
-        <v>0.9998020664008396</v>
+        <v>0.9998164192298304</v>
       </c>
       <c r="M11">
-        <v>0.9990149099437322</v>
+        <v>0.9990876723903394</v>
       </c>
       <c r="N11">
-        <v>1.000659259918545</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="O11">
-        <v>1.000244848110354</v>
+        <v>1.000226343475984</v>
       </c>
       <c r="P11">
-        <v>0.9996298790270429</v>
+        <v>0.9996570079331619</v>
       </c>
       <c r="Q11">
-        <v>1.000016546329249</v>
+        <v>1.000015101110272</v>
       </c>
       <c r="R11">
-        <v>0.9999730059908769</v>
+        <v>0.9999751093445672</v>
       </c>
       <c r="S11">
-        <v>0.9996826675340763</v>
+        <v>0.9997059582036276</v>
       </c>
       <c r="T11">
-        <v>0.9999730059908769</v>
+        <v>0.9999751093445672</v>
       </c>
       <c r="U11">
-        <v>0.9999268156301935</v>
+        <v>0.9999322966945652</v>
       </c>
       <c r="V11">
-        <v>1.000073304487864</v>
+        <v>1.000068099789128</v>
       </c>
       <c r="W11">
-        <v>0.9999351420209424</v>
+        <v>0.9999399520933554</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9973054280763327</v>
+        <v>1.000130438621599</v>
       </c>
       <c r="D12">
-        <v>1.007123267942297</v>
+        <v>0.9996605377802438</v>
       </c>
       <c r="E12">
-        <v>0.9928413187873748</v>
+        <v>1.00034779106891</v>
       </c>
       <c r="F12">
-        <v>0.9928413187873748</v>
+        <v>1.00034779106891</v>
       </c>
       <c r="G12">
-        <v>0.9959149913235962</v>
+        <v>1.000193826265466</v>
       </c>
       <c r="H12">
-        <v>1.00235379528043</v>
+        <v>0.9998878179161561</v>
       </c>
       <c r="I12">
-        <v>1.010979529425347</v>
+        <v>0.9994778729327367</v>
       </c>
       <c r="J12">
-        <v>0.9971645612932503</v>
+        <v>1.000130698420487</v>
       </c>
       <c r="K12">
-        <v>0.9928413187873748</v>
+        <v>1.00034779106891</v>
       </c>
       <c r="L12">
-        <v>1.002137952542266</v>
+        <v>0.9998956790030665</v>
       </c>
       <c r="M12">
-        <v>1.010979529425347</v>
+        <v>0.9994778729327367</v>
       </c>
       <c r="N12">
-        <v>0.9928413187873748</v>
+        <v>1.00034779106891</v>
       </c>
       <c r="O12">
-        <v>0.9971645612932503</v>
+        <v>1.000130698420487</v>
       </c>
       <c r="P12">
-        <v>1.004072045359299</v>
+        <v>0.9998042856766118</v>
       </c>
       <c r="Q12">
-        <v>0.9997591782868402</v>
+        <v>1.000009258168322</v>
       </c>
       <c r="R12">
-        <v>1.000328469835324</v>
+        <v>0.999985454140711</v>
       </c>
       <c r="S12">
-        <v>1.003499295333009</v>
+        <v>0.99983212975646</v>
       </c>
       <c r="T12">
-        <v>1.000328469835324</v>
+        <v>0.999985454140711</v>
       </c>
       <c r="U12">
-        <v>1.000834801196601</v>
+        <v>0.9999610450845724</v>
       </c>
       <c r="V12">
-        <v>0.9992361047147554</v>
+        <v>1.00003839428144</v>
       </c>
       <c r="W12">
-        <v>1.000727605583862</v>
+        <v>0.999965582751083</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992786145997365</v>
+        <v>1.000469429775992</v>
       </c>
       <c r="D13">
-        <v>1.001827912097495</v>
+        <v>0.9987770128157629</v>
       </c>
       <c r="E13">
-        <v>0.9980650584177511</v>
+        <v>1.001251329850855</v>
       </c>
       <c r="F13">
-        <v>0.9980650584177511</v>
+        <v>1.001251329850855</v>
       </c>
       <c r="G13">
-        <v>0.9989642143494265</v>
+        <v>1.000698511898581</v>
       </c>
       <c r="H13">
-        <v>1.000604184714418</v>
+        <v>0.9995958422945539</v>
       </c>
       <c r="I13">
-        <v>1.002801176900511</v>
+        <v>0.9981186434550885</v>
       </c>
       <c r="J13">
-        <v>0.9993376701442581</v>
+        <v>1.000471977689605</v>
       </c>
       <c r="K13">
-        <v>0.9980650584177511</v>
+        <v>1.001251329850855</v>
       </c>
       <c r="L13">
-        <v>1.000584531810621</v>
+        <v>0.9996247729739824</v>
       </c>
       <c r="M13">
-        <v>1.002801176900511</v>
+        <v>0.9981186434550885</v>
       </c>
       <c r="N13">
-        <v>0.9980650584177511</v>
+        <v>1.001251329850855</v>
       </c>
       <c r="O13">
-        <v>0.9993376701442581</v>
+        <v>1.000471977689605</v>
       </c>
       <c r="P13">
-        <v>1.001069423522384</v>
+        <v>0.9992953105723468</v>
       </c>
       <c r="Q13">
-        <v>0.999970927429338</v>
+        <v>1.00003390999208</v>
       </c>
       <c r="R13">
-        <v>1.000067968487507</v>
+        <v>0.9999473169985164</v>
       </c>
       <c r="S13">
-        <v>1.000914343919729</v>
+        <v>0.9993954878130825</v>
       </c>
       <c r="T13">
-        <v>1.000067968487507</v>
+        <v>0.9999473169985164</v>
       </c>
       <c r="U13">
-        <v>1.000202022544235</v>
+        <v>0.9998594483225257</v>
       </c>
       <c r="V13">
-        <v>0.9997746297189378</v>
+        <v>1.000137824628192</v>
       </c>
       <c r="W13">
-        <v>1.000182920379277</v>
+        <v>0.9998759400943027</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9998881334792086</v>
+        <v>1.000532327593133</v>
       </c>
       <c r="D14">
-        <v>0.999947871075815</v>
+        <v>0.9986174380545451</v>
       </c>
       <c r="E14">
-        <v>0.9996217743911039</v>
+        <v>1.001420000459234</v>
       </c>
       <c r="F14">
-        <v>0.9996217743911039</v>
+        <v>1.001420000459234</v>
       </c>
       <c r="G14">
-        <v>1.000084735305746</v>
+        <v>1.000788967428227</v>
       </c>
       <c r="H14">
-        <v>0.9999835556674523</v>
+        <v>0.9995430923638665</v>
       </c>
       <c r="I14">
-        <v>0.9998480095447992</v>
+        <v>0.9978740687581147</v>
       </c>
       <c r="J14">
-        <v>1.00030775561002</v>
+        <v>1.000529954519407</v>
       </c>
       <c r="K14">
-        <v>0.9996217743911039</v>
+        <v>1.001420000459234</v>
       </c>
       <c r="L14">
-        <v>1.000142239604065</v>
+        <v>0.9995738330885864</v>
       </c>
       <c r="M14">
-        <v>0.9998480095447992</v>
+        <v>0.9978740687581147</v>
       </c>
       <c r="N14">
-        <v>0.9996217743911039</v>
+        <v>1.001420000459234</v>
       </c>
       <c r="O14">
-        <v>1.00030775561002</v>
+        <v>1.000529954519407</v>
       </c>
       <c r="P14">
-        <v>1.00007788257741</v>
+        <v>0.9992020116387608</v>
       </c>
       <c r="Q14">
-        <v>1.000145655638736</v>
+        <v>1.000036523441637</v>
       </c>
       <c r="R14">
-        <v>0.9999258465153078</v>
+        <v>0.999941341245585</v>
       </c>
       <c r="S14">
-        <v>1.000046440274091</v>
+        <v>0.999315705213796</v>
       </c>
       <c r="T14">
-        <v>0.9999258465153078</v>
+        <v>0.999941341245585</v>
       </c>
       <c r="U14">
-        <v>0.9999402738033439</v>
+        <v>0.9998417790251554</v>
       </c>
       <c r="V14">
-        <v>0.9998765739208959</v>
+        <v>1.000157423311971</v>
       </c>
       <c r="W14">
-        <v>0.9999780093347763</v>
+        <v>0.9998599602831391</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000044389827413</v>
+        <v>1.000190164046541</v>
       </c>
       <c r="D15">
-        <v>1.00002577130476</v>
+        <v>0.9995062117198541</v>
       </c>
       <c r="E15">
-        <v>1.000151296071821</v>
+        <v>1.000507294373556</v>
       </c>
       <c r="F15">
-        <v>1.000151296071821</v>
+        <v>1.000507294373556</v>
       </c>
       <c r="G15">
-        <v>0.9999626540115703</v>
+        <v>1.000281766724171</v>
       </c>
       <c r="H15">
-        <v>1.000008197021452</v>
+        <v>0.9998368147826828</v>
       </c>
       <c r="I15">
-        <v>1.000069220677154</v>
+        <v>0.9992407345992009</v>
       </c>
       <c r="J15">
-        <v>0.9998716417450872</v>
+        <v>1.000189189473774</v>
       </c>
       <c r="K15">
-        <v>1.000151296071821</v>
+        <v>1.000507294373556</v>
       </c>
       <c r="L15">
-        <v>0.9999427651000732</v>
+        <v>0.9998477433652503</v>
       </c>
       <c r="M15">
-        <v>1.000069220677154</v>
+        <v>0.9992407345992009</v>
       </c>
       <c r="N15">
-        <v>1.000151296071821</v>
+        <v>1.000507294373556</v>
       </c>
       <c r="O15">
-        <v>0.9998716417450872</v>
+        <v>1.000189189473774</v>
       </c>
       <c r="P15">
-        <v>0.9999704312111205</v>
+        <v>0.9997149620364874</v>
       </c>
       <c r="Q15">
-        <v>0.9999399193832699</v>
+        <v>1.000013002128228</v>
       </c>
       <c r="R15">
-        <v>1.000030719498021</v>
+        <v>0.9999790728155104</v>
       </c>
       <c r="S15">
-        <v>0.9999830198145645</v>
+        <v>0.9997555796185525</v>
       </c>
       <c r="T15">
-        <v>1.000030719498021</v>
+        <v>0.9999790728155104</v>
       </c>
       <c r="U15">
-        <v>1.000025088878879</v>
+        <v>0.9999435083073035</v>
       </c>
       <c r="V15">
-        <v>1.000050330317467</v>
+        <v>1.000056265520554</v>
       </c>
       <c r="W15">
-        <v>1.000009491969916</v>
+        <v>0.9999499898856288</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003710178974809</v>
+        <v>1.000367064769578</v>
       </c>
       <c r="D16">
-        <v>0.9903649279932639</v>
+        <v>0.9990467108982723</v>
       </c>
       <c r="E16">
-        <v>1.00989719179721</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="F16">
-        <v>1.00989719179721</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="G16">
-        <v>1.005498173641016</v>
+        <v>1.000543993459376</v>
       </c>
       <c r="H16">
-        <v>0.9968158254843673</v>
+        <v>0.9996849614694614</v>
       </c>
       <c r="I16">
-        <v>0.9851845262739937</v>
+        <v>0.9985341548215636</v>
       </c>
       <c r="J16">
-        <v>1.003692501842284</v>
+        <v>1.000365376137603</v>
       </c>
       <c r="K16">
-        <v>1.00989719179721</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="L16">
-        <v>0.9970296262266747</v>
+        <v>0.9997061332537691</v>
       </c>
       <c r="M16">
-        <v>0.9851845262739937</v>
+        <v>0.9985341548215636</v>
       </c>
       <c r="N16">
-        <v>1.00989719179721</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="O16">
-        <v>1.003692501842284</v>
+        <v>1.000365376137603</v>
       </c>
       <c r="P16">
-        <v>0.9944385140581389</v>
+        <v>0.9994497654795833</v>
       </c>
       <c r="Q16">
-        <v>1.000254163663326</v>
+        <v>1.000025168803532</v>
       </c>
       <c r="R16">
-        <v>0.9995914066378292</v>
+        <v>0.9999595648753141</v>
       </c>
       <c r="S16">
-        <v>0.995230951200215</v>
+        <v>0.9995281641428759</v>
       </c>
       <c r="T16">
-        <v>0.9995914066378292</v>
+        <v>0.9999595648753141</v>
       </c>
       <c r="U16">
-        <v>0.9988975113494637</v>
+        <v>0.999890914023851</v>
       </c>
       <c r="V16">
-        <v>1.001097447439013</v>
+        <v>1.000108563952436</v>
       </c>
       <c r="W16">
-        <v>0.9990241190292022</v>
+        <v>0.9999034448095498</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0030391141202</v>
+        <v>1.00070349552123</v>
       </c>
       <c r="D17">
-        <v>0.9921033113097633</v>
+        <v>0.9981731908385509</v>
       </c>
       <c r="E17">
-        <v>1.008106063596377</v>
+        <v>1.001876652508524</v>
       </c>
       <c r="F17">
-        <v>1.008106063596377</v>
+        <v>1.001876652508524</v>
       </c>
       <c r="G17">
-        <v>1.00450687514542</v>
+        <v>1.001042438174013</v>
       </c>
       <c r="H17">
-        <v>0.9973903325633703</v>
+        <v>0.9993962789006329</v>
       </c>
       <c r="I17">
-        <v>0.987856664581819</v>
+        <v>0.9971910065046162</v>
       </c>
       <c r="J17">
-        <v>1.00302992512924</v>
+        <v>1.000700007438577</v>
       </c>
       <c r="K17">
-        <v>1.008106063596377</v>
+        <v>1.001876652508524</v>
       </c>
       <c r="L17">
-        <v>0.9975675475325023</v>
+        <v>0.999436759891572</v>
       </c>
       <c r="M17">
-        <v>0.987856664581819</v>
+        <v>0.9971910065046162</v>
       </c>
       <c r="N17">
-        <v>1.008106063596377</v>
+        <v>1.001876652508524</v>
       </c>
       <c r="O17">
-        <v>1.00302992512924</v>
+        <v>1.000700007438577</v>
       </c>
       <c r="P17">
-        <v>0.9954432948555296</v>
+        <v>0.9989455069715969</v>
       </c>
       <c r="Q17">
-        <v>1.000210128846305</v>
+        <v>1.000048143169605</v>
       </c>
       <c r="R17">
-        <v>0.9996642177691454</v>
+        <v>0.9999225554839059</v>
       </c>
       <c r="S17">
-        <v>0.9960923074248099</v>
+        <v>0.9990957642812756</v>
       </c>
       <c r="T17">
-        <v>0.9996642177691454</v>
+        <v>0.9999225554839059</v>
       </c>
       <c r="U17">
-        <v>0.9990957464677016</v>
+        <v>0.9997909863380876</v>
       </c>
       <c r="V17">
-        <v>1.000897809893437</v>
+        <v>1.000208119572175</v>
       </c>
       <c r="W17">
-        <v>0.9991999792473365</v>
+        <v>0.9998149787222145</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001698151487739</v>
+        <v>1.001031817470992</v>
       </c>
       <c r="D18">
-        <v>0.9955774261267732</v>
+        <v>0.9973206583617984</v>
       </c>
       <c r="E18">
-        <v>1.004527001295115</v>
+        <v>1.002752501011043</v>
       </c>
       <c r="F18">
-        <v>1.004527001295115</v>
+        <v>1.002752501011043</v>
       </c>
       <c r="G18">
-        <v>1.002525733253667</v>
+        <v>1.00152890726893</v>
       </c>
       <c r="H18">
-        <v>0.9985384703114856</v>
+        <v>0.9991145363226115</v>
       </c>
       <c r="I18">
-        <v>0.9931969419456941</v>
+        <v>0.9958801280345555</v>
       </c>
       <c r="J18">
-        <v>1.001705476547318</v>
+        <v>1.001026643152907</v>
       </c>
       <c r="K18">
-        <v>1.004527001295115</v>
+        <v>1.002752501011043</v>
       </c>
       <c r="L18">
-        <v>0.998642399166884</v>
+        <v>0.9991738940188201</v>
       </c>
       <c r="M18">
-        <v>0.9931969419456941</v>
+        <v>0.9958801280345555</v>
       </c>
       <c r="N18">
-        <v>1.004527001295115</v>
+        <v>1.002752501011043</v>
       </c>
       <c r="O18">
-        <v>1.001705476547318</v>
+        <v>1.001026643152907</v>
       </c>
       <c r="P18">
-        <v>0.9974512092465062</v>
+        <v>0.9984533855937314</v>
       </c>
       <c r="Q18">
-        <v>1.000121973429402</v>
+        <v>1.00007058973776</v>
       </c>
       <c r="R18">
-        <v>0.9998098065960425</v>
+        <v>0.9998864240661686</v>
       </c>
       <c r="S18">
-        <v>0.9978136296014993</v>
+        <v>0.9986737691700247</v>
       </c>
       <c r="T18">
-        <v>0.9998098065960425</v>
+        <v>0.9998864240661686</v>
       </c>
       <c r="U18">
-        <v>0.9994919725249033</v>
+        <v>0.9996934521302794</v>
       </c>
       <c r="V18">
-        <v>1.000498978278946</v>
+        <v>1.000305261906432</v>
       </c>
       <c r="W18">
-        <v>0.9995514500168345</v>
+        <v>0.9997286357052072</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001855455242453</v>
+        <v>1.000015705630565</v>
       </c>
       <c r="D19">
-        <v>0.99516242092624</v>
+        <v>0.9999591506801707</v>
       </c>
       <c r="E19">
-        <v>1.004945114949504</v>
+        <v>1.000041886099422</v>
       </c>
       <c r="F19">
-        <v>1.004945114949504</v>
+        <v>1.000041886099422</v>
       </c>
       <c r="G19">
-        <v>1.002763590972535</v>
+        <v>1.000023319476913</v>
       </c>
       <c r="H19">
-        <v>0.9984013344614192</v>
+        <v>0.9999865013255136</v>
       </c>
       <c r="I19">
-        <v>0.9925574407594068</v>
+        <v>0.9999371767471266</v>
       </c>
       <c r="J19">
-        <v>1.001869975697526</v>
+        <v>1.000015705090777</v>
       </c>
       <c r="K19">
-        <v>1.004945114949504</v>
+        <v>1.000041886099422</v>
       </c>
       <c r="L19">
-        <v>0.9985174609092377</v>
+        <v>0.9999874326492888</v>
       </c>
       <c r="M19">
-        <v>0.9925574407594068</v>
+        <v>0.9999371767471266</v>
       </c>
       <c r="N19">
-        <v>1.004945114949504</v>
+        <v>1.000041886099422</v>
       </c>
       <c r="O19">
-        <v>1.001869975697526</v>
+        <v>1.000015705090777</v>
       </c>
       <c r="P19">
-        <v>0.9972137082284662</v>
+        <v>0.9999764409189518</v>
       </c>
       <c r="Q19">
-        <v>1.000135655079472</v>
+        <v>1.000001103208145</v>
       </c>
       <c r="R19">
-        <v>0.9997908438021456</v>
+        <v>0.9999982559791084</v>
       </c>
       <c r="S19">
-        <v>0.9976095836394506</v>
+        <v>0.9999797943878056</v>
       </c>
       <c r="T19">
-        <v>0.9997908438021456</v>
+        <v>0.9999982559791084</v>
       </c>
       <c r="U19">
-        <v>0.999443466466964</v>
+        <v>0.9999953173157097</v>
       </c>
       <c r="V19">
-        <v>1.000543796163472</v>
+        <v>1.000004631072452</v>
       </c>
       <c r="W19">
-        <v>0.9995090992397903</v>
+        <v>0.9999958597124721</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000001007966133</v>
+        <v>1.000045419157403</v>
       </c>
       <c r="D20">
-        <v>0.9999981399092654</v>
+        <v>0.9998819774282477</v>
       </c>
       <c r="E20">
-        <v>1.000002869360695</v>
+        <v>1.000121147105605</v>
       </c>
       <c r="F20">
-        <v>1.000002869360695</v>
+        <v>1.000121147105605</v>
       </c>
       <c r="G20">
-        <v>1.000000938855194</v>
+        <v>1.000067359448469</v>
       </c>
       <c r="H20">
-        <v>0.9999993845155015</v>
+        <v>0.9999609974202935</v>
       </c>
       <c r="I20">
-        <v>0.9999973009300651</v>
+        <v>0.9998185082829002</v>
       </c>
       <c r="J20">
-        <v>1.000000074520581</v>
+        <v>1.000045288693385</v>
       </c>
       <c r="K20">
-        <v>1.000002869360695</v>
+        <v>1.000121147105605</v>
       </c>
       <c r="L20">
-        <v>0.9999990737380077</v>
+        <v>0.9999636454828502</v>
       </c>
       <c r="M20">
-        <v>0.9999973009300651</v>
+        <v>0.9998185082829002</v>
       </c>
       <c r="N20">
-        <v>1.000002869360695</v>
+        <v>1.000121147105605</v>
       </c>
       <c r="O20">
-        <v>1.000000074520581</v>
+        <v>1.000045288693385</v>
       </c>
       <c r="P20">
-        <v>0.9999986877253229</v>
+        <v>0.9999318984881427</v>
       </c>
       <c r="Q20">
-        <v>0.9999997295180411</v>
+        <v>1.000003143056839</v>
       </c>
       <c r="R20">
-        <v>1.00000008160378</v>
+        <v>0.9999949813606301</v>
       </c>
       <c r="S20">
-        <v>0.9999989199887157</v>
+        <v>0.999941598132193</v>
       </c>
       <c r="T20">
-        <v>1.00000008160378</v>
+        <v>0.9999949813606301</v>
       </c>
       <c r="U20">
-        <v>0.9999999073317106</v>
+        <v>0.999986485375546</v>
       </c>
       <c r="V20">
-        <v>1.000000499737508</v>
+        <v>1.000013417721558</v>
       </c>
       <c r="W20">
-        <v>0.9999998487244303</v>
+        <v>0.9999880428773943</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000016230722798</v>
+        <v>1.000067655310338</v>
       </c>
       <c r="D21">
-        <v>0.9999564974004589</v>
+        <v>0.999824376877037</v>
       </c>
       <c r="E21">
-        <v>1.000042985670611</v>
+        <v>1.000180496734476</v>
       </c>
       <c r="F21">
-        <v>1.000042985670611</v>
+        <v>1.000180496734476</v>
       </c>
       <c r="G21">
-        <v>1.000025040584003</v>
+        <v>1.000100205572139</v>
       </c>
       <c r="H21">
-        <v>0.9999856273246446</v>
+        <v>0.9999419615957172</v>
       </c>
       <c r="I21">
-        <v>0.9999328260297407</v>
+        <v>0.9997299680572654</v>
       </c>
       <c r="J21">
-        <v>1.00001780607479</v>
+        <v>1.000067241545266</v>
       </c>
       <c r="K21">
-        <v>1.000042985670611</v>
+        <v>1.000180496734476</v>
       </c>
       <c r="L21">
-        <v>0.9999872107644048</v>
+        <v>0.9999458210236845</v>
       </c>
       <c r="M21">
-        <v>0.9999328260297407</v>
+        <v>0.9997299680572654</v>
       </c>
       <c r="N21">
-        <v>1.000042985670611</v>
+        <v>1.000180496734476</v>
       </c>
       <c r="O21">
-        <v>1.00001780607479</v>
+        <v>1.000067241545266</v>
       </c>
       <c r="P21">
-        <v>0.9999753160522651</v>
+        <v>0.9998986048012659</v>
       </c>
       <c r="Q21">
-        <v>1.000001716699717</v>
+        <v>1.000004601570492</v>
       </c>
       <c r="R21">
-        <v>0.9999978725917137</v>
+        <v>0.9999925687790027</v>
       </c>
       <c r="S21">
-        <v>0.9999787531430583</v>
+        <v>0.9999130570660831</v>
       </c>
       <c r="T21">
-        <v>0.9999978725917137</v>
+        <v>0.9999925687790027</v>
       </c>
       <c r="U21">
-        <v>0.9999948112749464</v>
+        <v>0.9999799169831813</v>
       </c>
       <c r="V21">
-        <v>1.000004446154079</v>
+        <v>1.00002003293344</v>
       </c>
       <c r="W21">
-        <v>0.9999955280714313</v>
+        <v>0.9999822158394904</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000059259411459</v>
+        <v>1.000141934929933</v>
       </c>
       <c r="D22">
-        <v>0.9998485389896533</v>
+        <v>0.9996314254754954</v>
       </c>
       <c r="E22">
-        <v>1.000158648305115</v>
+        <v>1.000378628943166</v>
       </c>
       <c r="F22">
-        <v>1.000158648305115</v>
+        <v>1.000378628943166</v>
       </c>
       <c r="G22">
-        <v>1.000086041507136</v>
+        <v>1.000210320941566</v>
       </c>
       <c r="H22">
-        <v>0.9999499374974489</v>
+        <v>0.9998781959514252</v>
       </c>
       <c r="I22">
-        <v>0.9997676116160201</v>
+        <v>0.9994332640114657</v>
       </c>
       <c r="J22">
-        <v>1.00005600736579</v>
+        <v>1.00014123233177</v>
       </c>
       <c r="K22">
-        <v>1.000158648305115</v>
+        <v>1.000378628943166</v>
       </c>
       <c r="L22">
-        <v>0.9999521810756146</v>
+        <v>0.9998863612997447</v>
       </c>
       <c r="M22">
-        <v>0.9997676116160201</v>
+        <v>0.9994332640114657</v>
       </c>
       <c r="N22">
-        <v>1.000158648305115</v>
+        <v>1.000378628943166</v>
       </c>
       <c r="O22">
-        <v>1.00005600736579</v>
+        <v>1.00014123233177</v>
       </c>
       <c r="P22">
-        <v>0.9999118094909051</v>
+        <v>0.9997872481716181</v>
       </c>
       <c r="Q22">
-        <v>1.00000297243162</v>
+        <v>1.000009714141598</v>
       </c>
       <c r="R22">
-        <v>0.9999940890956417</v>
+        <v>0.9999843750954676</v>
       </c>
       <c r="S22">
-        <v>0.9999245188264196</v>
+        <v>0.9998175640982204</v>
       </c>
       <c r="T22">
-        <v>0.9999940890956417</v>
+        <v>0.9999843750954676</v>
       </c>
       <c r="U22">
-        <v>0.9999830511960935</v>
+        <v>0.999957830309457</v>
       </c>
       <c r="V22">
-        <v>1.000018170617898</v>
+        <v>1.000041990036199</v>
       </c>
       <c r="W22">
-        <v>0.9999847782210296</v>
+        <v>0.9999626704855709</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000247061694684</v>
+      </c>
+      <c r="D23">
+        <v>0.9993592412874727</v>
+      </c>
+      <c r="E23">
+        <v>1.000659259918545</v>
+      </c>
+      <c r="F23">
+        <v>1.000659259918545</v>
+      </c>
+      <c r="G23">
+        <v>1.000365504263768</v>
+      </c>
+      <c r="H23">
+        <v>0.9997882445481432</v>
+      </c>
+      <c r="I23">
+        <v>0.9990149099437322</v>
+      </c>
+      <c r="J23">
+        <v>1.000244848110354</v>
+      </c>
+      <c r="K23">
+        <v>1.000659259918545</v>
+      </c>
+      <c r="L23">
+        <v>0.9998020664008396</v>
+      </c>
+      <c r="M23">
+        <v>0.9990149099437322</v>
+      </c>
+      <c r="N23">
+        <v>1.000659259918545</v>
+      </c>
+      <c r="O23">
+        <v>1.000244848110354</v>
+      </c>
+      <c r="P23">
+        <v>0.9996298790270429</v>
+      </c>
+      <c r="Q23">
+        <v>1.000016546329249</v>
+      </c>
+      <c r="R23">
+        <v>0.9999730059908769</v>
+      </c>
+      <c r="S23">
+        <v>0.9996826675340763</v>
+      </c>
+      <c r="T23">
+        <v>0.9999730059908769</v>
+      </c>
+      <c r="U23">
+        <v>0.9999268156301935</v>
+      </c>
+      <c r="V23">
+        <v>1.000073304487864</v>
+      </c>
+      <c r="W23">
+        <v>0.9999351420209424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9973054280763327</v>
+      </c>
+      <c r="D24">
+        <v>1.007123267942297</v>
+      </c>
+      <c r="E24">
+        <v>0.9928413187873748</v>
+      </c>
+      <c r="F24">
+        <v>0.9928413187873748</v>
+      </c>
+      <c r="G24">
+        <v>0.9959149913235962</v>
+      </c>
+      <c r="H24">
+        <v>1.00235379528043</v>
+      </c>
+      <c r="I24">
+        <v>1.010979529425347</v>
+      </c>
+      <c r="J24">
+        <v>0.9971645612932503</v>
+      </c>
+      <c r="K24">
+        <v>0.9928413187873748</v>
+      </c>
+      <c r="L24">
+        <v>1.002137952542266</v>
+      </c>
+      <c r="M24">
+        <v>1.010979529425347</v>
+      </c>
+      <c r="N24">
+        <v>0.9928413187873748</v>
+      </c>
+      <c r="O24">
+        <v>0.9971645612932503</v>
+      </c>
+      <c r="P24">
+        <v>1.004072045359299</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997591782868402</v>
+      </c>
+      <c r="R24">
+        <v>1.000328469835324</v>
+      </c>
+      <c r="S24">
+        <v>1.003499295333009</v>
+      </c>
+      <c r="T24">
+        <v>1.000328469835324</v>
+      </c>
+      <c r="U24">
+        <v>1.000834801196601</v>
+      </c>
+      <c r="V24">
+        <v>0.9992361047147554</v>
+      </c>
+      <c r="W24">
+        <v>1.000727605583862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9992786145997365</v>
+      </c>
+      <c r="D25">
+        <v>1.001827912097495</v>
+      </c>
+      <c r="E25">
+        <v>0.9980650584177511</v>
+      </c>
+      <c r="F25">
+        <v>0.9980650584177511</v>
+      </c>
+      <c r="G25">
+        <v>0.9989642143494265</v>
+      </c>
+      <c r="H25">
+        <v>1.000604184714418</v>
+      </c>
+      <c r="I25">
+        <v>1.002801176900511</v>
+      </c>
+      <c r="J25">
+        <v>0.9993376701442581</v>
+      </c>
+      <c r="K25">
+        <v>0.9980650584177511</v>
+      </c>
+      <c r="L25">
+        <v>1.000584531810621</v>
+      </c>
+      <c r="M25">
+        <v>1.002801176900511</v>
+      </c>
+      <c r="N25">
+        <v>0.9980650584177511</v>
+      </c>
+      <c r="O25">
+        <v>0.9993376701442581</v>
+      </c>
+      <c r="P25">
+        <v>1.001069423522384</v>
+      </c>
+      <c r="Q25">
+        <v>0.999970927429338</v>
+      </c>
+      <c r="R25">
+        <v>1.000067968487507</v>
+      </c>
+      <c r="S25">
+        <v>1.000914343919729</v>
+      </c>
+      <c r="T25">
+        <v>1.000067968487507</v>
+      </c>
+      <c r="U25">
+        <v>1.000202022544235</v>
+      </c>
+      <c r="V25">
+        <v>0.9997746297189378</v>
+      </c>
+      <c r="W25">
+        <v>1.000182920379277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9998881334792086</v>
+      </c>
+      <c r="D26">
+        <v>0.999947871075815</v>
+      </c>
+      <c r="E26">
+        <v>0.9996217743911039</v>
+      </c>
+      <c r="F26">
+        <v>0.9996217743911039</v>
+      </c>
+      <c r="G26">
+        <v>1.000084735305746</v>
+      </c>
+      <c r="H26">
+        <v>0.9999835556674523</v>
+      </c>
+      <c r="I26">
+        <v>0.9998480095447992</v>
+      </c>
+      <c r="J26">
+        <v>1.00030775561002</v>
+      </c>
+      <c r="K26">
+        <v>0.9996217743911039</v>
+      </c>
+      <c r="L26">
+        <v>1.000142239604065</v>
+      </c>
+      <c r="M26">
+        <v>0.9998480095447992</v>
+      </c>
+      <c r="N26">
+        <v>0.9996217743911039</v>
+      </c>
+      <c r="O26">
+        <v>1.00030775561002</v>
+      </c>
+      <c r="P26">
+        <v>1.00007788257741</v>
+      </c>
+      <c r="Q26">
+        <v>1.000145655638736</v>
+      </c>
+      <c r="R26">
+        <v>0.9999258465153078</v>
+      </c>
+      <c r="S26">
+        <v>1.000046440274091</v>
+      </c>
+      <c r="T26">
+        <v>0.9999258465153078</v>
+      </c>
+      <c r="U26">
+        <v>0.9999402738033439</v>
+      </c>
+      <c r="V26">
+        <v>0.9998765739208959</v>
+      </c>
+      <c r="W26">
+        <v>0.9999780093347763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000044389827413</v>
+      </c>
+      <c r="D27">
+        <v>1.00002577130476</v>
+      </c>
+      <c r="E27">
+        <v>1.000151296071821</v>
+      </c>
+      <c r="F27">
+        <v>1.000151296071821</v>
+      </c>
+      <c r="G27">
+        <v>0.9999626540115703</v>
+      </c>
+      <c r="H27">
+        <v>1.000008197021452</v>
+      </c>
+      <c r="I27">
+        <v>1.000069220677154</v>
+      </c>
+      <c r="J27">
+        <v>0.9998716417450872</v>
+      </c>
+      <c r="K27">
+        <v>1.000151296071821</v>
+      </c>
+      <c r="L27">
+        <v>0.9999427651000732</v>
+      </c>
+      <c r="M27">
+        <v>1.000069220677154</v>
+      </c>
+      <c r="N27">
+        <v>1.000151296071821</v>
+      </c>
+      <c r="O27">
+        <v>0.9998716417450872</v>
+      </c>
+      <c r="P27">
+        <v>0.9999704312111205</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999399193832699</v>
+      </c>
+      <c r="R27">
+        <v>1.000030719498021</v>
+      </c>
+      <c r="S27">
+        <v>0.9999830198145645</v>
+      </c>
+      <c r="T27">
+        <v>1.000030719498021</v>
+      </c>
+      <c r="U27">
+        <v>1.000025088878879</v>
+      </c>
+      <c r="V27">
+        <v>1.000050330317467</v>
+      </c>
+      <c r="W27">
+        <v>1.000009491969916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003710178974809</v>
+      </c>
+      <c r="D28">
+        <v>0.9903649279932639</v>
+      </c>
+      <c r="E28">
+        <v>1.00989719179721</v>
+      </c>
+      <c r="F28">
+        <v>1.00989719179721</v>
+      </c>
+      <c r="G28">
+        <v>1.005498173641016</v>
+      </c>
+      <c r="H28">
+        <v>0.9968158254843673</v>
+      </c>
+      <c r="I28">
+        <v>0.9851845262739937</v>
+      </c>
+      <c r="J28">
+        <v>1.003692501842284</v>
+      </c>
+      <c r="K28">
+        <v>1.00989719179721</v>
+      </c>
+      <c r="L28">
+        <v>0.9970296262266747</v>
+      </c>
+      <c r="M28">
+        <v>0.9851845262739937</v>
+      </c>
+      <c r="N28">
+        <v>1.00989719179721</v>
+      </c>
+      <c r="O28">
+        <v>1.003692501842284</v>
+      </c>
+      <c r="P28">
+        <v>0.9944385140581389</v>
+      </c>
+      <c r="Q28">
+        <v>1.000254163663326</v>
+      </c>
+      <c r="R28">
+        <v>0.9995914066378292</v>
+      </c>
+      <c r="S28">
+        <v>0.995230951200215</v>
+      </c>
+      <c r="T28">
+        <v>0.9995914066378292</v>
+      </c>
+      <c r="U28">
+        <v>0.9988975113494637</v>
+      </c>
+      <c r="V28">
+        <v>1.001097447439013</v>
+      </c>
+      <c r="W28">
+        <v>0.9990241190292022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.0030391141202</v>
+      </c>
+      <c r="D29">
+        <v>0.9921033113097633</v>
+      </c>
+      <c r="E29">
+        <v>1.008106063596377</v>
+      </c>
+      <c r="F29">
+        <v>1.008106063596377</v>
+      </c>
+      <c r="G29">
+        <v>1.00450687514542</v>
+      </c>
+      <c r="H29">
+        <v>0.9973903325633703</v>
+      </c>
+      <c r="I29">
+        <v>0.987856664581819</v>
+      </c>
+      <c r="J29">
+        <v>1.00302992512924</v>
+      </c>
+      <c r="K29">
+        <v>1.008106063596377</v>
+      </c>
+      <c r="L29">
+        <v>0.9975675475325023</v>
+      </c>
+      <c r="M29">
+        <v>0.987856664581819</v>
+      </c>
+      <c r="N29">
+        <v>1.008106063596377</v>
+      </c>
+      <c r="O29">
+        <v>1.00302992512924</v>
+      </c>
+      <c r="P29">
+        <v>0.9954432948555296</v>
+      </c>
+      <c r="Q29">
+        <v>1.000210128846305</v>
+      </c>
+      <c r="R29">
+        <v>0.9996642177691454</v>
+      </c>
+      <c r="S29">
+        <v>0.9960923074248099</v>
+      </c>
+      <c r="T29">
+        <v>0.9996642177691454</v>
+      </c>
+      <c r="U29">
+        <v>0.9990957464677016</v>
+      </c>
+      <c r="V29">
+        <v>1.000897809893437</v>
+      </c>
+      <c r="W29">
+        <v>0.9991999792473365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001698151487739</v>
+      </c>
+      <c r="D30">
+        <v>0.9955774261267732</v>
+      </c>
+      <c r="E30">
+        <v>1.004527001295115</v>
+      </c>
+      <c r="F30">
+        <v>1.004527001295115</v>
+      </c>
+      <c r="G30">
+        <v>1.002525733253667</v>
+      </c>
+      <c r="H30">
+        <v>0.9985384703114856</v>
+      </c>
+      <c r="I30">
+        <v>0.9931969419456941</v>
+      </c>
+      <c r="J30">
+        <v>1.001705476547318</v>
+      </c>
+      <c r="K30">
+        <v>1.004527001295115</v>
+      </c>
+      <c r="L30">
+        <v>0.998642399166884</v>
+      </c>
+      <c r="M30">
+        <v>0.9931969419456941</v>
+      </c>
+      <c r="N30">
+        <v>1.004527001295115</v>
+      </c>
+      <c r="O30">
+        <v>1.001705476547318</v>
+      </c>
+      <c r="P30">
+        <v>0.9974512092465062</v>
+      </c>
+      <c r="Q30">
+        <v>1.000121973429402</v>
+      </c>
+      <c r="R30">
+        <v>0.9998098065960425</v>
+      </c>
+      <c r="S30">
+        <v>0.9978136296014993</v>
+      </c>
+      <c r="T30">
+        <v>0.9998098065960425</v>
+      </c>
+      <c r="U30">
+        <v>0.9994919725249033</v>
+      </c>
+      <c r="V30">
+        <v>1.000498978278946</v>
+      </c>
+      <c r="W30">
+        <v>0.9995514500168345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001855455242453</v>
+      </c>
+      <c r="D31">
+        <v>0.99516242092624</v>
+      </c>
+      <c r="E31">
+        <v>1.004945114949504</v>
+      </c>
+      <c r="F31">
+        <v>1.004945114949504</v>
+      </c>
+      <c r="G31">
+        <v>1.002763590972535</v>
+      </c>
+      <c r="H31">
+        <v>0.9984013344614192</v>
+      </c>
+      <c r="I31">
+        <v>0.9925574407594068</v>
+      </c>
+      <c r="J31">
+        <v>1.001869975697526</v>
+      </c>
+      <c r="K31">
+        <v>1.004945114949504</v>
+      </c>
+      <c r="L31">
+        <v>0.9985174609092377</v>
+      </c>
+      <c r="M31">
+        <v>0.9925574407594068</v>
+      </c>
+      <c r="N31">
+        <v>1.004945114949504</v>
+      </c>
+      <c r="O31">
+        <v>1.001869975697526</v>
+      </c>
+      <c r="P31">
+        <v>0.9972137082284662</v>
+      </c>
+      <c r="Q31">
+        <v>1.000135655079472</v>
+      </c>
+      <c r="R31">
+        <v>0.9997908438021456</v>
+      </c>
+      <c r="S31">
+        <v>0.9976095836394506</v>
+      </c>
+      <c r="T31">
+        <v>0.9997908438021456</v>
+      </c>
+      <c r="U31">
+        <v>0.999443466466964</v>
+      </c>
+      <c r="V31">
+        <v>1.000543796163472</v>
+      </c>
+      <c r="W31">
+        <v>0.9995090992397903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.004589475342466</v>
+      </c>
+      <c r="D32">
+        <v>0.9880906476712333</v>
+      </c>
+      <c r="E32">
+        <v>1.012244927123288</v>
+      </c>
+      <c r="F32">
+        <v>1.012244927123288</v>
+      </c>
+      <c r="G32">
+        <v>1.006794496712329</v>
+      </c>
+      <c r="H32">
+        <v>0.9960642056164385</v>
+      </c>
+      <c r="I32">
+        <v>0.9816893805479455</v>
+      </c>
+      <c r="J32">
+        <v>1.004556366849315</v>
+      </c>
+      <c r="K32">
+        <v>1.012244927123288</v>
+      </c>
+      <c r="L32">
+        <v>0.9963242468493152</v>
+      </c>
+      <c r="M32">
+        <v>0.9816893805479455</v>
+      </c>
+      <c r="N32">
+        <v>1.012244927123288</v>
+      </c>
+      <c r="O32">
+        <v>1.004556366849315</v>
+      </c>
+      <c r="P32">
+        <v>0.9931228736986302</v>
+      </c>
+      <c r="Q32">
+        <v>1.000310286232877</v>
+      </c>
+      <c r="R32">
+        <v>0.9994968915068494</v>
+      </c>
+      <c r="S32">
+        <v>0.9941033176712329</v>
+      </c>
+      <c r="T32">
+        <v>0.9994968915068494</v>
+      </c>
+      <c r="U32">
+        <v>0.9986387200342467</v>
+      </c>
+      <c r="V32">
+        <v>1.001359961452055</v>
+      </c>
+      <c r="W32">
+        <v>0.9987942183390413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.007440113157895</v>
+      </c>
+      <c r="D33">
+        <v>0.9805227394736841</v>
+      </c>
+      <c r="E33">
+        <v>1.019810768421053</v>
+      </c>
+      <c r="F33">
+        <v>1.019810768421053</v>
+      </c>
+      <c r="G33">
+        <v>1.011139557894737</v>
+      </c>
+      <c r="H33">
+        <v>0.9935635610526315</v>
+      </c>
+      <c r="I33">
+        <v>0.9700179063157895</v>
+      </c>
+      <c r="J33">
+        <v>1.00759526</v>
+      </c>
+      <c r="K33">
+        <v>1.019810768421053</v>
+      </c>
+      <c r="L33">
+        <v>0.994067410526316</v>
+      </c>
+      <c r="M33">
+        <v>0.9700179063157895</v>
+      </c>
+      <c r="N33">
+        <v>1.019810768421053</v>
+      </c>
+      <c r="O33">
+        <v>1.00759526</v>
+      </c>
+      <c r="P33">
+        <v>0.9888065831578949</v>
+      </c>
+      <c r="Q33">
+        <v>1.000579410526316</v>
+      </c>
+      <c r="R33">
+        <v>0.9991413115789475</v>
+      </c>
+      <c r="S33">
+        <v>0.9903922424561404</v>
+      </c>
+      <c r="T33">
+        <v>0.9991413115789474</v>
+      </c>
+      <c r="U33">
+        <v>0.9977468739473684</v>
+      </c>
+      <c r="V33">
+        <v>1.002159652842105</v>
+      </c>
+      <c r="W33">
+        <v>0.9980196646052631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.007244911578947</v>
+      </c>
+      <c r="D34">
+        <v>0.9811324836842106</v>
+      </c>
+      <c r="E34">
+        <v>1.019313940526316</v>
+      </c>
+      <c r="F34">
+        <v>1.019313940526316</v>
+      </c>
+      <c r="G34">
+        <v>1.010775116315789</v>
+      </c>
+      <c r="H34">
+        <v>0.9937648336842106</v>
+      </c>
+      <c r="I34">
+        <v>0.9709770500000001</v>
+      </c>
+      <c r="J34">
+        <v>1.007275254210526</v>
+      </c>
+      <c r="K34">
+        <v>1.019313940526316</v>
+      </c>
+      <c r="L34">
+        <v>0.9942078978947371</v>
+      </c>
+      <c r="M34">
+        <v>0.9709770500000001</v>
+      </c>
+      <c r="N34">
+        <v>1.019313940526316</v>
+      </c>
+      <c r="O34">
+        <v>1.007275254210526</v>
+      </c>
+      <c r="P34">
+        <v>0.9891261521052632</v>
+      </c>
+      <c r="Q34">
+        <v>1.000520043947368</v>
+      </c>
+      <c r="R34">
+        <v>0.9991887482456141</v>
+      </c>
+      <c r="S34">
+        <v>0.9906723792982457</v>
+      </c>
+      <c r="T34">
+        <v>0.9991887482456141</v>
+      </c>
+      <c r="U34">
+        <v>0.9978327696052632</v>
+      </c>
+      <c r="V34">
+        <v>1.002129003789474</v>
+      </c>
+      <c r="W34">
+        <v>0.9980864359868422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.006655744782937</v>
+      </c>
+      <c r="D35">
+        <v>0.9826519822969032</v>
+      </c>
+      <c r="E35">
+        <v>1.017739802986282</v>
+      </c>
+      <c r="F35">
+        <v>1.017739802986282</v>
+      </c>
+      <c r="G35">
+        <v>1.009909736704397</v>
+      </c>
+      <c r="H35">
+        <v>0.9942670199179228</v>
+      </c>
+      <c r="I35">
+        <v>0.9733113085317054</v>
+      </c>
+      <c r="J35">
+        <v>1.006701799968948</v>
+      </c>
+      <c r="K35">
+        <v>1.017739802986282</v>
+      </c>
+      <c r="L35">
+        <v>0.9946812100218083</v>
+      </c>
+      <c r="M35">
+        <v>0.9733113085317054</v>
+      </c>
+      <c r="N35">
+        <v>1.017739802986282</v>
+      </c>
+      <c r="O35">
+        <v>1.006701799968948</v>
+      </c>
+      <c r="P35">
+        <v>0.9900065542503267</v>
+      </c>
+      <c r="Q35">
+        <v>1.000484409943435</v>
+      </c>
+      <c r="R35">
+        <v>0.9992509704956453</v>
+      </c>
+      <c r="S35">
+        <v>0.9914267094728587</v>
+      </c>
+      <c r="T35">
+        <v>0.9992509704956453</v>
+      </c>
+      <c r="U35">
+        <v>0.9980049828512146</v>
+      </c>
+      <c r="V35">
+        <v>1.001951946878228</v>
+      </c>
+      <c r="W35">
+        <v>0.998239825651363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000001007966133</v>
+      </c>
+      <c r="D36">
+        <v>0.9999981399092654</v>
+      </c>
+      <c r="E36">
+        <v>1.000002869360695</v>
+      </c>
+      <c r="F36">
+        <v>1.000002869360695</v>
+      </c>
+      <c r="G36">
+        <v>1.000000938855194</v>
+      </c>
+      <c r="H36">
+        <v>0.9999993845155015</v>
+      </c>
+      <c r="I36">
+        <v>0.9999973009300651</v>
+      </c>
+      <c r="J36">
+        <v>1.000000074520581</v>
+      </c>
+      <c r="K36">
+        <v>1.000002869360695</v>
+      </c>
+      <c r="L36">
+        <v>0.9999990737380077</v>
+      </c>
+      <c r="M36">
+        <v>0.9999973009300651</v>
+      </c>
+      <c r="N36">
+        <v>1.000002869360695</v>
+      </c>
+      <c r="O36">
+        <v>1.000000074520581</v>
+      </c>
+      <c r="P36">
+        <v>0.9999986877253229</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999997295180411</v>
+      </c>
+      <c r="R36">
+        <v>1.00000008160378</v>
+      </c>
+      <c r="S36">
+        <v>0.9999989199887157</v>
+      </c>
+      <c r="T36">
+        <v>1.00000008160378</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999073317106</v>
+      </c>
+      <c r="V36">
+        <v>1.000000499737508</v>
+      </c>
+      <c r="W36">
+        <v>0.9999998487244303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000016230722798</v>
+      </c>
+      <c r="D37">
+        <v>0.9999564974004589</v>
+      </c>
+      <c r="E37">
+        <v>1.000042985670611</v>
+      </c>
+      <c r="F37">
+        <v>1.000042985670611</v>
+      </c>
+      <c r="G37">
+        <v>1.000025040584003</v>
+      </c>
+      <c r="H37">
+        <v>0.9999856273246446</v>
+      </c>
+      <c r="I37">
+        <v>0.9999328260297407</v>
+      </c>
+      <c r="J37">
+        <v>1.00001780607479</v>
+      </c>
+      <c r="K37">
+        <v>1.000042985670611</v>
+      </c>
+      <c r="L37">
+        <v>0.9999872107644048</v>
+      </c>
+      <c r="M37">
+        <v>0.9999328260297407</v>
+      </c>
+      <c r="N37">
+        <v>1.000042985670611</v>
+      </c>
+      <c r="O37">
+        <v>1.00001780607479</v>
+      </c>
+      <c r="P37">
+        <v>0.9999753160522651</v>
+      </c>
+      <c r="Q37">
+        <v>1.000001716699717</v>
+      </c>
+      <c r="R37">
+        <v>0.9999978725917137</v>
+      </c>
+      <c r="S37">
+        <v>0.9999787531430583</v>
+      </c>
+      <c r="T37">
+        <v>0.9999978725917137</v>
+      </c>
+      <c r="U37">
+        <v>0.9999948112749464</v>
+      </c>
+      <c r="V37">
+        <v>1.000004446154079</v>
+      </c>
+      <c r="W37">
+        <v>0.9999955280714313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000059259411459</v>
+      </c>
+      <c r="D38">
+        <v>0.9998485389896533</v>
+      </c>
+      <c r="E38">
+        <v>1.000158648305115</v>
+      </c>
+      <c r="F38">
+        <v>1.000158648305115</v>
+      </c>
+      <c r="G38">
+        <v>1.000086041507136</v>
+      </c>
+      <c r="H38">
+        <v>0.9999499374974489</v>
+      </c>
+      <c r="I38">
+        <v>0.9997676116160201</v>
+      </c>
+      <c r="J38">
+        <v>1.00005600736579</v>
+      </c>
+      <c r="K38">
+        <v>1.000158648305115</v>
+      </c>
+      <c r="L38">
+        <v>0.9999521810756146</v>
+      </c>
+      <c r="M38">
+        <v>0.9997676116160201</v>
+      </c>
+      <c r="N38">
+        <v>1.000158648305115</v>
+      </c>
+      <c r="O38">
+        <v>1.00005600736579</v>
+      </c>
+      <c r="P38">
+        <v>0.9999118094909051</v>
+      </c>
+      <c r="Q38">
+        <v>1.00000297243162</v>
+      </c>
+      <c r="R38">
+        <v>0.9999940890956417</v>
+      </c>
+      <c r="S38">
+        <v>0.9999245188264196</v>
+      </c>
+      <c r="T38">
+        <v>0.9999940890956417</v>
+      </c>
+      <c r="U38">
+        <v>0.9999830511960935</v>
+      </c>
+      <c r="V38">
+        <v>1.000018170617898</v>
+      </c>
+      <c r="W38">
+        <v>0.9999847782210296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000140120010094</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9996462051330958</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000376132086991</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000376132086991</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000200269611722</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9998830549075081</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9994580956503684</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000127119264194</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000376132086991</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9998862652832301</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9994580956503684</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000376132086991</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000127119264194</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9997926074572809</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000005087085851</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999871156671842</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998227566073566</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999871156671843</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999611004772653</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000044106799211</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999646577434003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.002584759823797</v>
+      </c>
+      <c r="D40">
+        <v>0.99328404991593</v>
+      </c>
+      <c r="E40">
+        <v>1.006894225533908</v>
+      </c>
+      <c r="F40">
+        <v>1.006894225533908</v>
+      </c>
+      <c r="G40">
+        <v>1.003832966221609</v>
+      </c>
+      <c r="H40">
+        <v>0.9977805395852399</v>
+      </c>
+      <c r="I40">
+        <v>0.9896724124848837</v>
+      </c>
+      <c r="J40">
+        <v>1.002576741445897</v>
+      </c>
+      <c r="K40">
+        <v>1.006894225533908</v>
+      </c>
+      <c r="L40">
+        <v>0.9979311810266277</v>
+      </c>
+      <c r="M40">
+        <v>0.9896724124848837</v>
+      </c>
+      <c r="N40">
+        <v>1.006894225533908</v>
+      </c>
+      <c r="O40">
+        <v>1.002576741445897</v>
+      </c>
+      <c r="P40">
+        <v>0.9961245769653901</v>
+      </c>
+      <c r="Q40">
+        <v>1.000178640515568</v>
+      </c>
+      <c r="R40">
+        <v>0.9997144598215627</v>
+      </c>
+      <c r="S40">
+        <v>0.9966765645053401</v>
+      </c>
+      <c r="T40">
+        <v>0.9997144598215627</v>
+      </c>
+      <c r="U40">
+        <v>0.9992309797624821</v>
+      </c>
+      <c r="V40">
+        <v>1.000763628916767</v>
+      </c>
+      <c r="W40">
+        <v>0.9993196095047365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9986882126421641</v>
+      </c>
+      <c r="D41">
+        <v>1.003420316379313</v>
+      </c>
+      <c r="E41">
+        <v>0.9965039075108126</v>
+      </c>
+      <c r="F41">
+        <v>0.9965039075108126</v>
+      </c>
+      <c r="G41">
+        <v>0.9980460236626232</v>
+      </c>
+      <c r="H41">
+        <v>1.001130306597775</v>
+      </c>
+      <c r="I41">
+        <v>1.005262158588023</v>
+      </c>
+      <c r="J41">
+        <v>0.9986777033896026</v>
+      </c>
+      <c r="K41">
+        <v>0.9965039075108126</v>
+      </c>
+      <c r="L41">
+        <v>1.001048106672761</v>
+      </c>
+      <c r="M41">
+        <v>1.005262158588023</v>
+      </c>
+      <c r="N41">
+        <v>0.9965039075108126</v>
+      </c>
+      <c r="O41">
+        <v>0.9986777033896026</v>
+      </c>
+      <c r="P41">
+        <v>1.001969930988813</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999040049936887</v>
+      </c>
+      <c r="R41">
+        <v>1.000147923162813</v>
+      </c>
+      <c r="S41">
+        <v>1.0016900561918</v>
+      </c>
+      <c r="T41">
+        <v>1.000147923162813</v>
+      </c>
+      <c r="U41">
+        <v>1.000393519021553</v>
+      </c>
+      <c r="V41">
+        <v>0.9996155967194051</v>
+      </c>
+      <c r="W41">
+        <v>1.000347091930384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.002440894002631</v>
+      </c>
+      <c r="D42">
+        <v>0.9935726992844038</v>
+      </c>
+      <c r="E42">
+        <v>1.006490662388682</v>
+      </c>
+      <c r="F42">
+        <v>1.006490662388682</v>
+      </c>
+      <c r="G42">
+        <v>1.003681885938232</v>
+      </c>
+      <c r="H42">
+        <v>0.9978761247821364</v>
+      </c>
+      <c r="I42">
+        <v>0.9900984370918391</v>
+      </c>
+      <c r="J42">
+        <v>1.002537479623787</v>
+      </c>
+      <c r="K42">
+        <v>1.006490662388682</v>
+      </c>
+      <c r="L42">
+        <v>0.9980594212091989</v>
+      </c>
+      <c r="M42">
+        <v>0.9900984370918391</v>
+      </c>
+      <c r="N42">
+        <v>1.006490662388682</v>
+      </c>
+      <c r="O42">
+        <v>1.002537479623787</v>
+      </c>
+      <c r="P42">
+        <v>0.996317958357813</v>
+      </c>
+      <c r="Q42">
+        <v>1.000206802202962</v>
+      </c>
+      <c r="R42">
+        <v>0.9997088597014359</v>
+      </c>
+      <c r="S42">
+        <v>0.9968373471659208</v>
+      </c>
+      <c r="T42">
+        <v>0.9997088597014359</v>
+      </c>
+      <c r="U42">
+        <v>0.999250675971611</v>
+      </c>
+      <c r="V42">
+        <v>1.000698673255025</v>
+      </c>
+      <c r="W42">
+        <v>0.9993447005401137</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000507294373556</v>
+        <v>1.000045419157403</v>
       </c>
       <c r="D3">
-        <v>0.9992407345992009</v>
+        <v>0.9998819774282477</v>
       </c>
       <c r="E3">
-        <v>1.000189189473774</v>
+        <v>1.000121147105605</v>
       </c>
       <c r="F3">
-        <v>1.000507294373556</v>
+        <v>1.000121147105605</v>
       </c>
       <c r="G3">
-        <v>0.9998368147826828</v>
+        <v>1.000067359448469</v>
       </c>
       <c r="H3">
-        <v>1.000281766724171</v>
+        <v>0.9999609974202935</v>
       </c>
       <c r="I3">
-        <v>1.000507294373556</v>
+        <v>0.9998185082829002</v>
       </c>
       <c r="J3">
-        <v>0.9992407345992009</v>
+        <v>1.000045288693385</v>
       </c>
       <c r="K3">
-        <v>0.9998477433652503</v>
+        <v>1.000121147105605</v>
       </c>
       <c r="L3">
-        <v>1.000190164046541</v>
+        <v>0.9999636454828502</v>
       </c>
       <c r="M3">
-        <v>0.9995062117198541</v>
+        <v>0.9998185082829002</v>
       </c>
       <c r="N3">
-        <v>1.000507294373556</v>
+        <v>1.000121147105605</v>
       </c>
       <c r="O3">
-        <v>1.000189189473774</v>
+        <v>1.000045288693385</v>
       </c>
       <c r="P3">
-        <v>0.9997149620364874</v>
+        <v>0.9999318984881427</v>
       </c>
       <c r="Q3">
-        <v>1.000013002128228</v>
+        <v>1.000003143056839</v>
       </c>
       <c r="R3">
-        <v>0.9999790728155104</v>
+        <v>0.9999949813606301</v>
       </c>
       <c r="S3">
-        <v>0.9997555796185525</v>
+        <v>0.999941598132193</v>
       </c>
       <c r="T3">
-        <v>0.9999790728155104</v>
+        <v>0.9999949813606301</v>
       </c>
       <c r="U3">
-        <v>0.9999435083073035</v>
+        <v>0.999986485375546</v>
       </c>
       <c r="V3">
-        <v>1.000056265520554</v>
+        <v>1.000013417721558</v>
       </c>
       <c r="W3">
-        <v>0.9999499898856288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999880428773943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000979163666776</v>
+        <v>1.002584759823797</v>
       </c>
       <c r="D4">
-        <v>0.9985341548215636</v>
+        <v>0.99328404991593</v>
       </c>
       <c r="E4">
-        <v>1.000365376137603</v>
+        <v>1.006894225533908</v>
       </c>
       <c r="F4">
-        <v>1.000979163666776</v>
+        <v>1.006894225533908</v>
       </c>
       <c r="G4">
-        <v>0.9996849614694614</v>
+        <v>1.003832966221609</v>
       </c>
       <c r="H4">
-        <v>1.000543993459376</v>
+        <v>0.9977805395852399</v>
       </c>
       <c r="I4">
-        <v>1.000979163666776</v>
+        <v>0.9896724124848837</v>
       </c>
       <c r="J4">
-        <v>0.9985341548215636</v>
+        <v>1.002576741445897</v>
       </c>
       <c r="K4">
-        <v>0.9997061332537691</v>
+        <v>1.006894225533908</v>
       </c>
       <c r="L4">
-        <v>1.000367064769578</v>
+        <v>0.9979311810266277</v>
       </c>
       <c r="M4">
-        <v>0.9990467108982723</v>
+        <v>0.9896724124848837</v>
       </c>
       <c r="N4">
-        <v>1.000979163666776</v>
+        <v>1.006894225533908</v>
       </c>
       <c r="O4">
-        <v>1.000365376137603</v>
+        <v>1.002576741445897</v>
       </c>
       <c r="P4">
-        <v>0.9994497654795833</v>
+        <v>0.9961245769653901</v>
       </c>
       <c r="Q4">
-        <v>1.000025168803532</v>
+        <v>1.000178640515568</v>
       </c>
       <c r="R4">
-        <v>0.9999595648753141</v>
+        <v>0.9997144598215627</v>
       </c>
       <c r="S4">
-        <v>0.9995281641428759</v>
+        <v>0.9966765645053401</v>
       </c>
       <c r="T4">
-        <v>0.9999595648753141</v>
+        <v>0.9997144598215627</v>
       </c>
       <c r="U4">
-        <v>0.999890914023851</v>
+        <v>0.9992309797624821</v>
       </c>
       <c r="V4">
-        <v>1.000108563952436</v>
+        <v>1.000763628916767</v>
       </c>
       <c r="W4">
-        <v>0.9999034448095498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9993196095047365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001876652508524</v>
+        <v>1.002057130230545</v>
       </c>
       <c r="D5">
-        <v>0.9971910065046162</v>
+        <v>0.9946419040273796</v>
       </c>
       <c r="E5">
-        <v>1.000700007438577</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="F5">
-        <v>1.001876652508524</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="G5">
-        <v>0.9993962789006329</v>
+        <v>1.003060106635445</v>
       </c>
       <c r="H5">
-        <v>1.001042438174013</v>
+        <v>0.99822930803314</v>
       </c>
       <c r="I5">
-        <v>1.001876652508524</v>
+        <v>0.9917577392147009</v>
       </c>
       <c r="J5">
-        <v>0.9971910065046162</v>
+        <v>1.00206675329251</v>
       </c>
       <c r="K5">
-        <v>0.9994367598915721</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="L5">
-        <v>1.00070349552123</v>
+        <v>0.9983555050720483</v>
       </c>
       <c r="M5">
-        <v>0.9981731908385509</v>
+        <v>0.9917577392147009</v>
       </c>
       <c r="N5">
-        <v>1.001876652508524</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="O5">
-        <v>1.000700007438577</v>
+        <v>1.00206675329251</v>
       </c>
       <c r="P5">
-        <v>0.9989455069715969</v>
+        <v>0.9969122462536055</v>
       </c>
       <c r="Q5">
-        <v>1.000048143169605</v>
+        <v>1.000148030662825</v>
       </c>
       <c r="R5">
-        <v>0.9999225554839059</v>
+        <v>0.999769445026418</v>
       </c>
       <c r="S5">
-        <v>0.9990957642812756</v>
+        <v>0.9973512668467838</v>
       </c>
       <c r="T5">
-        <v>0.9999225554839059</v>
+        <v>0.999769445026418</v>
       </c>
       <c r="U5">
-        <v>0.9997909863380876</v>
+        <v>0.9993844107780985</v>
       </c>
       <c r="V5">
-        <v>1.000208119572175</v>
+        <v>1.000604297136887</v>
       </c>
       <c r="W5">
-        <v>0.9998149787222145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9994565361347265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002752501011043</v>
+        <v>1.006655744782937</v>
       </c>
       <c r="D6">
-        <v>0.9958801280345555</v>
+        <v>0.9826519822969032</v>
       </c>
       <c r="E6">
-        <v>1.001026643152907</v>
+        <v>1.017739802986282</v>
       </c>
       <c r="F6">
-        <v>1.002752501011043</v>
+        <v>1.017739802986282</v>
       </c>
       <c r="G6">
-        <v>0.9991145363226115</v>
+        <v>1.009909736704397</v>
       </c>
       <c r="H6">
-        <v>1.00152890726893</v>
+        <v>0.9942670199179228</v>
       </c>
       <c r="I6">
-        <v>1.002752501011043</v>
+        <v>0.9733113085317054</v>
       </c>
       <c r="J6">
-        <v>0.9958801280345555</v>
+        <v>1.006701799968948</v>
       </c>
       <c r="K6">
-        <v>0.9991738940188201</v>
+        <v>1.017739802986282</v>
       </c>
       <c r="L6">
-        <v>1.001031817470992</v>
+        <v>0.9946812100218083</v>
       </c>
       <c r="M6">
-        <v>0.9973206583617983</v>
+        <v>0.9733113085317054</v>
       </c>
       <c r="N6">
-        <v>1.002752501011043</v>
+        <v>1.017739802986282</v>
       </c>
       <c r="O6">
-        <v>1.001026643152907</v>
+        <v>1.006701799968948</v>
       </c>
       <c r="P6">
-        <v>0.9984533855937314</v>
+        <v>0.9900065542503267</v>
       </c>
       <c r="Q6">
-        <v>1.00007058973776</v>
+        <v>1.000484409943435</v>
       </c>
       <c r="R6">
-        <v>0.9998864240661686</v>
+        <v>0.9992509704956453</v>
       </c>
       <c r="S6">
-        <v>0.9986737691700247</v>
+        <v>0.9914267094728587</v>
       </c>
       <c r="T6">
-        <v>0.9998864240661686</v>
+        <v>0.9992509704956453</v>
       </c>
       <c r="U6">
-        <v>0.9996934521302794</v>
+        <v>0.9980049828512146</v>
       </c>
       <c r="V6">
-        <v>1.000305261906432</v>
+        <v>1.001951946878228</v>
       </c>
       <c r="W6">
-        <v>0.9997286357052071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.998239825651363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000041886099422</v>
+        <v>1.000229047966455</v>
       </c>
       <c r="D7">
-        <v>0.9999371767471266</v>
+        <v>0.9994064973825414</v>
       </c>
       <c r="E7">
-        <v>1.000015705090777</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="F7">
-        <v>1.000041886099422</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="G7">
-        <v>0.9999865013255136</v>
+        <v>1.000338465389755</v>
       </c>
       <c r="H7">
-        <v>1.000023319476913</v>
+        <v>0.9998038587445589</v>
       </c>
       <c r="I7">
-        <v>1.000041886099422</v>
+        <v>0.9990876723903394</v>
       </c>
       <c r="J7">
-        <v>0.9999371767471266</v>
+        <v>1.000226343475984</v>
       </c>
       <c r="K7">
-        <v>0.9999874326492886</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="L7">
-        <v>1.000015705630565</v>
+        <v>0.9998164192298304</v>
       </c>
       <c r="M7">
-        <v>0.9999591506801705</v>
+        <v>0.9990876723903394</v>
       </c>
       <c r="N7">
-        <v>1.000041886099422</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="O7">
-        <v>1.000015705090777</v>
+        <v>1.000226343475984</v>
       </c>
       <c r="P7">
-        <v>0.9999764409189518</v>
+        <v>0.9996570079331619</v>
       </c>
       <c r="Q7">
-        <v>1.000001103208145</v>
+        <v>1.000015101110272</v>
       </c>
       <c r="R7">
-        <v>0.9999982559791084</v>
+        <v>0.9999751093445672</v>
       </c>
       <c r="S7">
-        <v>0.9999797943878056</v>
+        <v>0.9997059582036276</v>
       </c>
       <c r="T7">
-        <v>0.9999982559791084</v>
+        <v>0.9999751093445672</v>
       </c>
       <c r="U7">
-        <v>0.9999953173157097</v>
+        <v>0.9999322966945652</v>
       </c>
       <c r="V7">
-        <v>1.000004631072452</v>
+        <v>1.000068099789128</v>
       </c>
       <c r="W7">
-        <v>0.9999958597124721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999399520933554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000121147105605</v>
+        <v>1.000016230722798</v>
       </c>
       <c r="D8">
-        <v>0.9998185082829001</v>
+        <v>0.9999564974004589</v>
       </c>
       <c r="E8">
-        <v>1.000045288693385</v>
+        <v>1.000042985670611</v>
       </c>
       <c r="F8">
-        <v>1.000121147105605</v>
+        <v>1.000042985670611</v>
       </c>
       <c r="G8">
-        <v>0.9999609974202935</v>
+        <v>1.000025040584003</v>
       </c>
       <c r="H8">
-        <v>1.000067359448469</v>
+        <v>0.9999856273246446</v>
       </c>
       <c r="I8">
-        <v>1.000121147105605</v>
+        <v>0.9999328260297407</v>
       </c>
       <c r="J8">
-        <v>0.9998185082829001</v>
+        <v>1.00001780607479</v>
       </c>
       <c r="K8">
-        <v>0.9999636454828502</v>
+        <v>1.000042985670611</v>
       </c>
       <c r="L8">
-        <v>1.000045419157403</v>
+        <v>0.9999872107644048</v>
       </c>
       <c r="M8">
-        <v>0.9998819774282477</v>
+        <v>0.9999328260297407</v>
       </c>
       <c r="N8">
-        <v>1.000121147105605</v>
+        <v>1.000042985670611</v>
       </c>
       <c r="O8">
-        <v>1.000045288693385</v>
+        <v>1.00001780607479</v>
       </c>
       <c r="P8">
-        <v>0.9999318984881425</v>
+        <v>0.9999753160522651</v>
       </c>
       <c r="Q8">
-        <v>1.000003143056839</v>
+        <v>1.000001716699717</v>
       </c>
       <c r="R8">
-        <v>0.99999498136063</v>
+        <v>0.9999978725917137</v>
       </c>
       <c r="S8">
-        <v>0.9999415981321929</v>
+        <v>0.9999787531430583</v>
       </c>
       <c r="T8">
-        <v>0.99999498136063</v>
+        <v>0.9999978725917137</v>
       </c>
       <c r="U8">
-        <v>0.9999864853755459</v>
+        <v>0.9999948112749464</v>
       </c>
       <c r="V8">
-        <v>1.000013417721558</v>
+        <v>1.000004446154079</v>
       </c>
       <c r="W8">
-        <v>0.9999880428773942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999955280714313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000180496734476</v>
+        <v>1.000367064769578</v>
       </c>
       <c r="D9">
-        <v>0.9997299680572654</v>
+        <v>0.9990467108982723</v>
       </c>
       <c r="E9">
-        <v>1.000067241545266</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="F9">
-        <v>1.000180496734476</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="G9">
-        <v>0.9999419615957175</v>
+        <v>1.000543993459376</v>
       </c>
       <c r="H9">
-        <v>1.000100205572139</v>
+        <v>0.9996849614694614</v>
       </c>
       <c r="I9">
-        <v>1.000180496734476</v>
+        <v>0.9985341548215636</v>
       </c>
       <c r="J9">
-        <v>0.9997299680572654</v>
+        <v>1.000365376137603</v>
       </c>
       <c r="K9">
-        <v>0.9999458210236845</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="L9">
-        <v>1.000067655310338</v>
+        <v>0.9997061332537691</v>
       </c>
       <c r="M9">
-        <v>0.999824376877037</v>
+        <v>0.9985341548215636</v>
       </c>
       <c r="N9">
-        <v>1.000180496734476</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="O9">
-        <v>1.000067241545266</v>
+        <v>1.000365376137603</v>
       </c>
       <c r="P9">
-        <v>0.9998986048012659</v>
+        <v>0.9994497654795833</v>
       </c>
       <c r="Q9">
-        <v>1.000004601570492</v>
+        <v>1.000025168803532</v>
       </c>
       <c r="R9">
-        <v>0.9999925687790027</v>
+        <v>0.9999595648753141</v>
       </c>
       <c r="S9">
-        <v>0.9999130570660831</v>
+        <v>0.9995281641428759</v>
       </c>
       <c r="T9">
-        <v>0.9999925687790027</v>
+        <v>0.9999595648753141</v>
       </c>
       <c r="U9">
-        <v>0.9999799169831813</v>
+        <v>0.999890914023851</v>
       </c>
       <c r="V9">
-        <v>1.00002003293344</v>
+        <v>1.000108563952436</v>
       </c>
       <c r="W9">
-        <v>0.9999822158394904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999034448095498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000378628943166</v>
+        <v>1.006754439577171</v>
       </c>
       <c r="D10">
-        <v>0.9994332640114657</v>
+        <v>0.9823941186689751</v>
       </c>
       <c r="E10">
-        <v>1.00014123233177</v>
+        <v>1.018002713619436</v>
       </c>
       <c r="F10">
-        <v>1.000378628943166</v>
+        <v>1.018002713619436</v>
       </c>
       <c r="G10">
-        <v>0.9998781959514252</v>
+        <v>1.010057135529753</v>
       </c>
       <c r="H10">
-        <v>1.000210320941566</v>
+        <v>0.9941818054586878</v>
       </c>
       <c r="I10">
-        <v>1.000378628943166</v>
+        <v>0.9729144756947995</v>
       </c>
       <c r="J10">
-        <v>0.9994332640114657</v>
+        <v>1.006801933704801</v>
       </c>
       <c r="K10">
-        <v>0.9998863612997447</v>
+        <v>1.018002713619436</v>
       </c>
       <c r="L10">
-        <v>1.000141934929933</v>
+        <v>0.9946024351374854</v>
       </c>
       <c r="M10">
-        <v>0.9996314254754955</v>
+        <v>0.9729144756947995</v>
       </c>
       <c r="N10">
-        <v>1.000378628943166</v>
+        <v>1.018002713619436</v>
       </c>
       <c r="O10">
-        <v>1.00014123233177</v>
+        <v>1.006801933704801</v>
       </c>
       <c r="P10">
-        <v>0.9997872481716181</v>
+        <v>0.9898582046998003</v>
       </c>
       <c r="Q10">
-        <v>1.000009714141598</v>
+        <v>1.000491869581744</v>
       </c>
       <c r="R10">
-        <v>0.9999843750954676</v>
+        <v>0.9992397076730123</v>
       </c>
       <c r="S10">
-        <v>0.9998175640982204</v>
+        <v>0.9912994049527629</v>
       </c>
       <c r="T10">
-        <v>0.9999843750954676</v>
+        <v>0.9992397076730123</v>
       </c>
       <c r="U10">
-        <v>0.999957830309457</v>
+        <v>0.9979752321194312</v>
       </c>
       <c r="V10">
-        <v>1.000041990036199</v>
+        <v>1.001980728419432</v>
       </c>
       <c r="W10">
-        <v>0.9999626704855709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9982136321738886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000659259918545</v>
+        <v>1.001314577908246</v>
       </c>
       <c r="D11">
-        <v>0.9990149099437322</v>
+        <v>0.9965843422808356</v>
       </c>
       <c r="E11">
-        <v>1.000244848110354</v>
+        <v>1.003506326017709</v>
       </c>
       <c r="F11">
-        <v>1.000659259918545</v>
+        <v>1.003506326017709</v>
       </c>
       <c r="G11">
-        <v>0.9997882445481432</v>
+        <v>1.001949402968682</v>
       </c>
       <c r="H11">
-        <v>1.000365504263768</v>
+        <v>0.9988712075681885</v>
       </c>
       <c r="I11">
-        <v>1.000659259918545</v>
+        <v>0.9947475018601871</v>
       </c>
       <c r="J11">
-        <v>0.9990149099437322</v>
+        <v>1.001310503518693</v>
       </c>
       <c r="K11">
-        <v>0.9998020664008396</v>
+        <v>1.003506326017709</v>
       </c>
       <c r="L11">
-        <v>1.000247061694684</v>
+        <v>0.9989478219566383</v>
       </c>
       <c r="M11">
-        <v>0.9993592412874727</v>
+        <v>0.9947475018601871</v>
       </c>
       <c r="N11">
-        <v>1.000659259918545</v>
+        <v>1.003506326017709</v>
       </c>
       <c r="O11">
-        <v>1.000244848110354</v>
+        <v>1.001310503518693</v>
       </c>
       <c r="P11">
-        <v>0.9996298790270429</v>
+        <v>0.9980290026894398</v>
       </c>
       <c r="Q11">
-        <v>1.000016546329249</v>
+        <v>1.000090855543441</v>
       </c>
       <c r="R11">
-        <v>0.9999730059908769</v>
+        <v>0.9998547771321963</v>
       </c>
       <c r="S11">
-        <v>0.9996826675340763</v>
+        <v>0.9983097376490226</v>
       </c>
       <c r="T11">
-        <v>0.9999730059908769</v>
+        <v>0.9998547771321963</v>
       </c>
       <c r="U11">
-        <v>0.9999268156301935</v>
+        <v>0.9996088847411944</v>
       </c>
       <c r="V11">
-        <v>1.000073304487864</v>
+        <v>1.000388372996497</v>
       </c>
       <c r="W11">
-        <v>0.9999351420209424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9996539605098973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9928413187873748</v>
+        <v>1.002053157705264</v>
       </c>
       <c r="D12">
-        <v>1.010979529425347</v>
+        <v>0.9946481847684218</v>
       </c>
       <c r="E12">
-        <v>0.9971645612932503</v>
+        <v>1.005472298031577</v>
       </c>
       <c r="F12">
-        <v>0.9928413187873748</v>
+        <v>1.005472298031577</v>
       </c>
       <c r="G12">
-        <v>1.00235379528043</v>
+        <v>1.003057172789472</v>
       </c>
       <c r="H12">
-        <v>0.9959149913235965</v>
+        <v>0.9982313928736847</v>
       </c>
       <c r="I12">
-        <v>0.9928413187873748</v>
+        <v>0.9917665521157946</v>
       </c>
       <c r="J12">
-        <v>1.010979529425347</v>
+        <v>1.002067739968423</v>
       </c>
       <c r="K12">
-        <v>1.002137952542266</v>
+        <v>1.005472298031577</v>
       </c>
       <c r="L12">
-        <v>0.9973054280763327</v>
+        <v>0.9983593085894764</v>
       </c>
       <c r="M12">
-        <v>1.007123267942297</v>
+        <v>0.9917665521157946</v>
       </c>
       <c r="N12">
-        <v>0.9928413187873748</v>
+        <v>1.005472298031577</v>
       </c>
       <c r="O12">
-        <v>0.9971645612932503</v>
+        <v>1.002067739968423</v>
       </c>
       <c r="P12">
-        <v>1.004072045359299</v>
+        <v>0.9969171460421087</v>
       </c>
       <c r="Q12">
-        <v>0.9997591782868402</v>
+        <v>1.000149566421054</v>
       </c>
       <c r="R12">
-        <v>1.000328469835324</v>
+        <v>0.9997688633719316</v>
       </c>
       <c r="S12">
-        <v>1.003499295333009</v>
+        <v>0.9973552283193007</v>
       </c>
       <c r="T12">
-        <v>1.000328469835324</v>
+        <v>0.9997688633719316</v>
       </c>
       <c r="U12">
-        <v>1.000834801196601</v>
+        <v>0.9993844957473699</v>
       </c>
       <c r="V12">
-        <v>0.9992361047147554</v>
+        <v>1.000602056204211</v>
       </c>
       <c r="W12">
-        <v>1.000727605583862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9994569758552642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9980650584177511</v>
+        <v>0.9986701740270565</v>
       </c>
       <c r="D13">
-        <v>1.002801176900511</v>
+        <v>1.003461497373194</v>
       </c>
       <c r="E13">
-        <v>0.9993376701442581</v>
+        <v>0.9964544613453235</v>
       </c>
       <c r="F13">
-        <v>0.9980650584177511</v>
+        <v>0.9964544613453235</v>
       </c>
       <c r="G13">
-        <v>1.000604184714418</v>
+        <v>0.9980234336384411</v>
       </c>
       <c r="H13">
-        <v>0.9989642143494265</v>
+        <v>1.001143928554572</v>
       </c>
       <c r="I13">
-        <v>0.9980650584177511</v>
+        <v>1.005324298375725</v>
       </c>
       <c r="J13">
-        <v>1.002801176900511</v>
+        <v>0.9986666837779716</v>
       </c>
       <c r="K13">
-        <v>1.000584531810621</v>
+        <v>0.9964544613453235</v>
       </c>
       <c r="L13">
-        <v>0.9992786145997365</v>
+        <v>1.001063420846789</v>
       </c>
       <c r="M13">
-        <v>1.001827912097495</v>
+        <v>1.005324298375725</v>
       </c>
       <c r="N13">
-        <v>0.9980650584177511</v>
+        <v>0.9964544613453235</v>
       </c>
       <c r="O13">
-        <v>0.9993376701442581</v>
+        <v>0.9986666837779716</v>
       </c>
       <c r="P13">
-        <v>1.001069423522384</v>
+        <v>1.001995491076848</v>
       </c>
       <c r="Q13">
-        <v>0.9999709274293382</v>
+        <v>0.9999053061662716</v>
       </c>
       <c r="R13">
-        <v>1.000067968487507</v>
+        <v>1.00014848116634</v>
       </c>
       <c r="S13">
-        <v>1.000914343919729</v>
+        <v>1.001711636902756</v>
       </c>
       <c r="T13">
-        <v>1.000067968487507</v>
+        <v>1.00014848116634</v>
       </c>
       <c r="U13">
-        <v>1.000202022544235</v>
+        <v>1.000397343013398</v>
       </c>
       <c r="V13">
-        <v>0.9997746297189378</v>
+        <v>0.999608766679783</v>
       </c>
       <c r="W13">
-        <v>1.000182920379277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000350987242384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9996217743911039</v>
+        <v>1.0116693</v>
       </c>
       <c r="D14">
-        <v>0.9998480095447992</v>
+        <v>0.9695817200000002</v>
       </c>
       <c r="E14">
-        <v>1.00030775561002</v>
+        <v>1.031102</v>
       </c>
       <c r="F14">
-        <v>0.9996217743911039</v>
+        <v>1.031102</v>
       </c>
       <c r="G14">
-        <v>0.9999835556674525</v>
+        <v>1.0173763</v>
       </c>
       <c r="H14">
-        <v>1.000084735305746</v>
+        <v>0.9899477100000005</v>
       </c>
       <c r="I14">
-        <v>0.9996217743911039</v>
+        <v>0.9532031000000012</v>
       </c>
       <c r="J14">
-        <v>0.9998480095447992</v>
+        <v>1.011753200000001</v>
       </c>
       <c r="K14">
-        <v>1.000142239604065</v>
+        <v>1.031102</v>
       </c>
       <c r="L14">
-        <v>0.9998881334792086</v>
+        <v>0.9906751399999998</v>
       </c>
       <c r="M14">
-        <v>0.999947871075815</v>
+        <v>0.9532031000000012</v>
       </c>
       <c r="N14">
-        <v>0.9996217743911039</v>
+        <v>1.031102</v>
       </c>
       <c r="O14">
-        <v>1.00030775561002</v>
+        <v>1.011753200000001</v>
       </c>
       <c r="P14">
-        <v>1.00007788257741</v>
+        <v>0.9824781500000009</v>
       </c>
       <c r="Q14">
-        <v>1.000145655638736</v>
+        <v>1.000850455000001</v>
       </c>
       <c r="R14">
-        <v>0.9999258465153078</v>
+        <v>0.9986861000000005</v>
       </c>
       <c r="S14">
-        <v>1.000046440274091</v>
+        <v>0.9849680033333342</v>
       </c>
       <c r="T14">
-        <v>0.9999258465153078</v>
+        <v>0.9986861000000005</v>
       </c>
       <c r="U14">
-        <v>0.9999402738033439</v>
+        <v>0.9965015025000005</v>
       </c>
       <c r="V14">
-        <v>0.9998765739208959</v>
+        <v>1.003421602</v>
       </c>
       <c r="W14">
-        <v>0.9999780093347763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9969135587500002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000151296071821</v>
+        <v>1.0189641</v>
       </c>
       <c r="D15">
-        <v>1.000069220677154</v>
+        <v>0.9511103599999999</v>
       </c>
       <c r="E15">
-        <v>0.9998716417450872</v>
+        <v>1.0506718</v>
       </c>
       <c r="F15">
-        <v>1.000151296071821</v>
+        <v>1.0506718</v>
       </c>
       <c r="G15">
-        <v>1.000008197021452</v>
+        <v>1.0278409</v>
       </c>
       <c r="H15">
-        <v>0.9999626540115703</v>
+        <v>0.9838422699999999</v>
       </c>
       <c r="I15">
-        <v>1.000151296071821</v>
+        <v>0.92489956</v>
       </c>
       <c r="J15">
-        <v>1.000069220677154</v>
+        <v>1.0184349</v>
       </c>
       <c r="K15">
-        <v>0.9999427651000732</v>
+        <v>1.0506718</v>
       </c>
       <c r="L15">
-        <v>1.000044389827413</v>
+        <v>0.98476218</v>
       </c>
       <c r="M15">
-        <v>1.00002577130476</v>
+        <v>0.92489956</v>
       </c>
       <c r="N15">
-        <v>1.000151296071821</v>
+        <v>1.0506718</v>
       </c>
       <c r="O15">
-        <v>0.9998716417450872</v>
+        <v>1.0184349</v>
       </c>
       <c r="P15">
-        <v>0.9999704312111205</v>
+        <v>0.97166723</v>
       </c>
       <c r="Q15">
-        <v>0.9999399193832699</v>
+        <v>1.001138585</v>
       </c>
       <c r="R15">
-        <v>1.000030719498021</v>
+        <v>0.9980020866666667</v>
       </c>
       <c r="S15">
-        <v>0.9999830198145645</v>
+        <v>0.9757255766666666</v>
       </c>
       <c r="T15">
-        <v>1.000030719498021</v>
+        <v>0.9980020866666667</v>
       </c>
       <c r="U15">
-        <v>1.000025088878879</v>
+        <v>0.9944621324999999</v>
       </c>
       <c r="V15">
-        <v>1.000050330317467</v>
+        <v>1.005704066</v>
       </c>
       <c r="W15">
-        <v>1.000009491969916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.99506575875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000002869360695</v>
+        <v>1.0181865</v>
       </c>
       <c r="D16">
-        <v>0.9999973009300651</v>
+        <v>0.9528162999999999</v>
       </c>
       <c r="E16">
-        <v>1.000000074520581</v>
+        <v>1.0485244</v>
       </c>
       <c r="F16">
-        <v>1.000002869360695</v>
+        <v>1.0485244</v>
       </c>
       <c r="G16">
-        <v>0.9999993845155015</v>
+        <v>1.0269177</v>
       </c>
       <c r="H16">
-        <v>1.000000938855194</v>
+        <v>0.9844067600000002</v>
       </c>
       <c r="I16">
-        <v>1.000002869360695</v>
+        <v>0.92745699</v>
       </c>
       <c r="J16">
-        <v>0.9999973009300651</v>
+        <v>1.0180444</v>
       </c>
       <c r="K16">
-        <v>0.9999990737380077</v>
+        <v>1.0485244</v>
       </c>
       <c r="L16">
-        <v>1.000001007966133</v>
+        <v>0.98543294</v>
       </c>
       <c r="M16">
-        <v>0.9999981399092654</v>
+        <v>0.92745699</v>
       </c>
       <c r="N16">
-        <v>1.000002869360695</v>
+        <v>1.0485244</v>
       </c>
       <c r="O16">
-        <v>1.000000074520581</v>
+        <v>1.0180444</v>
       </c>
       <c r="P16">
-        <v>0.9999986877253229</v>
+        <v>0.972750695</v>
       </c>
       <c r="Q16">
-        <v>0.9999997295180411</v>
+        <v>1.00122558</v>
       </c>
       <c r="R16">
-        <v>1.00000008160378</v>
+        <v>0.9980085966666667</v>
       </c>
       <c r="S16">
-        <v>0.9999989199887157</v>
+        <v>0.9766360500000001</v>
       </c>
       <c r="T16">
-        <v>1.00000008160378</v>
+        <v>0.9980085966666667</v>
       </c>
       <c r="U16">
-        <v>0.9999999073317104</v>
+        <v>0.9946081375000001</v>
       </c>
       <c r="V16">
-        <v>1.000000499737507</v>
+        <v>1.00539139</v>
       </c>
       <c r="W16">
-        <v>0.9999998487244303</v>
+        <v>0.99522324875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000042985670611</v>
+        <v>1.0048163</v>
       </c>
       <c r="D17">
-        <v>0.9999328260297407</v>
+        <v>0.98769555</v>
       </c>
       <c r="E17">
-        <v>1.00001780607479</v>
+        <v>1.0128951</v>
       </c>
       <c r="F17">
-        <v>1.000042985670611</v>
+        <v>1.0128951</v>
       </c>
       <c r="G17">
-        <v>0.9999856273246448</v>
+        <v>1.0069888</v>
       </c>
       <c r="H17">
-        <v>1.000025040584003</v>
+        <v>0.9959332</v>
       </c>
       <c r="I17">
-        <v>1.000042985670611</v>
+        <v>0.98112252</v>
       </c>
       <c r="J17">
-        <v>0.9999328260297407</v>
+        <v>1.0045449</v>
       </c>
       <c r="K17">
-        <v>0.9999872107644049</v>
+        <v>1.0128951</v>
       </c>
       <c r="L17">
-        <v>1.000016230722798</v>
+        <v>0.99611287</v>
       </c>
       <c r="M17">
-        <v>0.999956497400459</v>
+        <v>0.98112252</v>
       </c>
       <c r="N17">
-        <v>1.000042985670611</v>
+        <v>1.0128951</v>
       </c>
       <c r="O17">
-        <v>1.00001780607479</v>
+        <v>1.0045449</v>
       </c>
       <c r="P17">
-        <v>0.9999753160522651</v>
+        <v>0.99283371</v>
       </c>
       <c r="Q17">
-        <v>1.000001716699717</v>
+        <v>1.00023905</v>
       </c>
       <c r="R17">
-        <v>0.9999978725917137</v>
+        <v>0.9995208400000001</v>
       </c>
       <c r="S17">
-        <v>0.9999787531430583</v>
+        <v>0.9938668733333333</v>
       </c>
       <c r="T17">
-        <v>0.9999978725917137</v>
+        <v>0.9995208400000001</v>
       </c>
       <c r="U17">
-        <v>0.9999948112749465</v>
+        <v>0.99862393</v>
       </c>
       <c r="V17">
-        <v>1.000004446154079</v>
+        <v>1.001478164</v>
       </c>
       <c r="W17">
-        <v>0.9999955280714314</v>
+        <v>0.998763655</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000158648305115</v>
+        <v>1.004589475342466</v>
       </c>
       <c r="D18">
-        <v>0.9997676116160201</v>
+        <v>0.9880906476712333</v>
       </c>
       <c r="E18">
-        <v>1.00005600736579</v>
+        <v>1.012244927123288</v>
       </c>
       <c r="F18">
-        <v>1.000158648305115</v>
+        <v>1.012244927123288</v>
       </c>
       <c r="G18">
-        <v>0.9999499374974489</v>
+        <v>1.006794496712329</v>
       </c>
       <c r="H18">
-        <v>1.000086041507136</v>
+        <v>0.9960642056164385</v>
       </c>
       <c r="I18">
-        <v>1.000158648305115</v>
+        <v>0.9816893805479455</v>
       </c>
       <c r="J18">
-        <v>0.9997676116160201</v>
+        <v>1.004556366849315</v>
       </c>
       <c r="K18">
-        <v>0.9999521810756146</v>
+        <v>1.012244927123288</v>
       </c>
       <c r="L18">
-        <v>1.000059259411459</v>
+        <v>0.9963242468493152</v>
       </c>
       <c r="M18">
-        <v>0.9998485389896534</v>
+        <v>0.9816893805479455</v>
       </c>
       <c r="N18">
-        <v>1.000158648305115</v>
+        <v>1.012244927123288</v>
       </c>
       <c r="O18">
-        <v>1.00005600736579</v>
+        <v>1.004556366849315</v>
       </c>
       <c r="P18">
-        <v>0.9999118094909051</v>
+        <v>0.9931228736986302</v>
       </c>
       <c r="Q18">
-        <v>1.00000297243162</v>
+        <v>1.000310286232877</v>
       </c>
       <c r="R18">
-        <v>0.9999940890956417</v>
+        <v>0.9994968915068494</v>
       </c>
       <c r="S18">
-        <v>0.9999245188264196</v>
+        <v>0.9941033176712329</v>
       </c>
       <c r="T18">
-        <v>0.9999940890956417</v>
+        <v>0.9994968915068494</v>
       </c>
       <c r="U18">
-        <v>0.9999830511960935</v>
+        <v>0.9986387200342467</v>
       </c>
       <c r="V18">
-        <v>1.000018170617898</v>
+        <v>1.001359961452055</v>
       </c>
       <c r="W18">
-        <v>0.9999847782210296</v>
+        <v>0.9987942183390413</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000376132086991</v>
+        <v>1.007440113157895</v>
       </c>
       <c r="D19">
-        <v>0.9994580956503684</v>
+        <v>0.9805227394736841</v>
       </c>
       <c r="E19">
-        <v>1.000127119264194</v>
+        <v>1.019810768421053</v>
       </c>
       <c r="F19">
-        <v>1.000376132086991</v>
+        <v>1.019810768421053</v>
       </c>
       <c r="G19">
-        <v>0.9998830549075085</v>
+        <v>1.011139557894737</v>
       </c>
       <c r="H19">
-        <v>1.000200269611722</v>
+        <v>0.9935635610526315</v>
       </c>
       <c r="I19">
-        <v>1.000376132086991</v>
+        <v>0.9700179063157895</v>
       </c>
       <c r="J19">
-        <v>0.9994580956503684</v>
+        <v>1.00759526</v>
       </c>
       <c r="K19">
-        <v>0.9998862652832301</v>
+        <v>1.019810768421053</v>
       </c>
       <c r="L19">
-        <v>1.000140120010094</v>
+        <v>0.994067410526316</v>
       </c>
       <c r="M19">
-        <v>0.9996462051330958</v>
+        <v>0.9700179063157895</v>
       </c>
       <c r="N19">
-        <v>1.000376132086991</v>
+        <v>1.019810768421053</v>
       </c>
       <c r="O19">
-        <v>1.000127119264194</v>
+        <v>1.00759526</v>
       </c>
       <c r="P19">
-        <v>0.9997926074572809</v>
+        <v>0.9888065831578949</v>
       </c>
       <c r="Q19">
-        <v>1.000005087085851</v>
+        <v>1.000579410526316</v>
       </c>
       <c r="R19">
-        <v>0.9999871156671842</v>
+        <v>0.9991413115789475</v>
       </c>
       <c r="S19">
-        <v>0.9998227566073568</v>
+        <v>0.9903922424561404</v>
       </c>
       <c r="T19">
-        <v>0.9999871156671843</v>
+        <v>0.9991413115789474</v>
       </c>
       <c r="U19">
-        <v>0.9999611004772654</v>
+        <v>0.9977468739473684</v>
       </c>
       <c r="V19">
-        <v>1.000044106799211</v>
+        <v>1.002159652842105</v>
       </c>
       <c r="W19">
-        <v>0.9999646577434004</v>
+        <v>0.9980196646052631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.007244911578947</v>
+      </c>
+      <c r="D20">
+        <v>0.9811324836842106</v>
+      </c>
+      <c r="E20">
+        <v>1.019313940526316</v>
+      </c>
+      <c r="F20">
+        <v>1.019313940526316</v>
+      </c>
+      <c r="G20">
+        <v>1.010775116315789</v>
+      </c>
+      <c r="H20">
+        <v>0.9937648336842106</v>
+      </c>
+      <c r="I20">
+        <v>0.9709770500000001</v>
+      </c>
+      <c r="J20">
+        <v>1.007275254210526</v>
+      </c>
+      <c r="K20">
+        <v>1.019313940526316</v>
+      </c>
+      <c r="L20">
+        <v>0.9942078978947371</v>
+      </c>
+      <c r="M20">
+        <v>0.9709770500000001</v>
+      </c>
+      <c r="N20">
+        <v>1.019313940526316</v>
+      </c>
+      <c r="O20">
+        <v>1.007275254210526</v>
+      </c>
+      <c r="P20">
+        <v>0.9891261521052632</v>
+      </c>
+      <c r="Q20">
+        <v>1.000520043947368</v>
+      </c>
+      <c r="R20">
+        <v>0.9991887482456141</v>
+      </c>
+      <c r="S20">
+        <v>0.9906723792982457</v>
+      </c>
+      <c r="T20">
+        <v>0.9991887482456141</v>
+      </c>
+      <c r="U20">
+        <v>0.9978327696052632</v>
+      </c>
+      <c r="V20">
+        <v>1.002129003789474</v>
+      </c>
+      <c r="W20">
+        <v>0.9980864359868422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998881334792086</v>
+      </c>
+      <c r="D21">
+        <v>0.999947871075815</v>
+      </c>
+      <c r="E21">
+        <v>0.9996217743911039</v>
+      </c>
+      <c r="F21">
+        <v>0.9996217743911039</v>
+      </c>
+      <c r="G21">
+        <v>1.000084735305746</v>
+      </c>
+      <c r="H21">
+        <v>0.9999835556674523</v>
+      </c>
+      <c r="I21">
+        <v>0.9998480095447992</v>
+      </c>
+      <c r="J21">
+        <v>1.00030775561002</v>
+      </c>
+      <c r="K21">
+        <v>0.9996217743911039</v>
+      </c>
+      <c r="L21">
+        <v>1.000142239604065</v>
+      </c>
+      <c r="M21">
+        <v>0.9998480095447992</v>
+      </c>
+      <c r="N21">
+        <v>0.9996217743911039</v>
+      </c>
+      <c r="O21">
+        <v>1.00030775561002</v>
+      </c>
+      <c r="P21">
+        <v>1.00007788257741</v>
+      </c>
+      <c r="Q21">
+        <v>1.000145655638736</v>
+      </c>
+      <c r="R21">
+        <v>0.9999258465153078</v>
+      </c>
+      <c r="S21">
+        <v>1.000046440274091</v>
+      </c>
+      <c r="T21">
+        <v>0.9999258465153078</v>
+      </c>
+      <c r="U21">
+        <v>0.9999402738033439</v>
+      </c>
+      <c r="V21">
+        <v>0.9998765739208959</v>
+      </c>
+      <c r="W21">
+        <v>0.9999780093347763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000044389827413</v>
+      </c>
+      <c r="D22">
+        <v>1.00002577130476</v>
+      </c>
+      <c r="E22">
+        <v>1.000151296071821</v>
+      </c>
+      <c r="F22">
+        <v>1.000151296071821</v>
+      </c>
+      <c r="G22">
+        <v>0.9999626540115703</v>
+      </c>
+      <c r="H22">
+        <v>1.000008197021452</v>
+      </c>
+      <c r="I22">
+        <v>1.000069220677154</v>
+      </c>
+      <c r="J22">
+        <v>0.9998716417450872</v>
+      </c>
+      <c r="K22">
+        <v>1.000151296071821</v>
+      </c>
+      <c r="L22">
+        <v>0.9999427651000732</v>
+      </c>
+      <c r="M22">
+        <v>1.000069220677154</v>
+      </c>
+      <c r="N22">
+        <v>1.000151296071821</v>
+      </c>
+      <c r="O22">
+        <v>0.9998716417450872</v>
+      </c>
+      <c r="P22">
+        <v>0.9999704312111205</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999399193832699</v>
+      </c>
+      <c r="R22">
+        <v>1.000030719498021</v>
+      </c>
+      <c r="S22">
+        <v>0.9999830198145645</v>
+      </c>
+      <c r="T22">
+        <v>1.000030719498021</v>
+      </c>
+      <c r="U22">
+        <v>1.000025088878879</v>
+      </c>
+      <c r="V22">
+        <v>1.000050330317467</v>
+      </c>
+      <c r="W22">
+        <v>1.000009491969916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9973054280763327</v>
+      </c>
+      <c r="D23">
+        <v>1.007123267942297</v>
+      </c>
+      <c r="E23">
+        <v>0.9928413187873748</v>
+      </c>
+      <c r="F23">
+        <v>0.9928413187873748</v>
+      </c>
+      <c r="G23">
+        <v>0.9959149913235962</v>
+      </c>
+      <c r="H23">
+        <v>1.00235379528043</v>
+      </c>
+      <c r="I23">
+        <v>1.010979529425347</v>
+      </c>
+      <c r="J23">
+        <v>0.9971645612932503</v>
+      </c>
+      <c r="K23">
+        <v>0.9928413187873748</v>
+      </c>
+      <c r="L23">
+        <v>1.002137952542266</v>
+      </c>
+      <c r="M23">
+        <v>1.010979529425347</v>
+      </c>
+      <c r="N23">
+        <v>0.9928413187873748</v>
+      </c>
+      <c r="O23">
+        <v>0.9971645612932503</v>
+      </c>
+      <c r="P23">
+        <v>1.004072045359299</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997591782868402</v>
+      </c>
+      <c r="R23">
+        <v>1.000328469835324</v>
+      </c>
+      <c r="S23">
+        <v>1.003499295333009</v>
+      </c>
+      <c r="T23">
+        <v>1.000328469835324</v>
+      </c>
+      <c r="U23">
+        <v>1.000834801196601</v>
+      </c>
+      <c r="V23">
+        <v>0.9992361047147554</v>
+      </c>
+      <c r="W23">
+        <v>1.000727605583862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9992786145997365</v>
+      </c>
+      <c r="D24">
+        <v>1.001827912097495</v>
+      </c>
+      <c r="E24">
+        <v>0.9980650584177511</v>
+      </c>
+      <c r="F24">
+        <v>0.9980650584177511</v>
+      </c>
+      <c r="G24">
+        <v>0.9989642143494265</v>
+      </c>
+      <c r="H24">
+        <v>1.000604184714418</v>
+      </c>
+      <c r="I24">
+        <v>1.002801176900511</v>
+      </c>
+      <c r="J24">
+        <v>0.9993376701442581</v>
+      </c>
+      <c r="K24">
+        <v>0.9980650584177511</v>
+      </c>
+      <c r="L24">
+        <v>1.000584531810621</v>
+      </c>
+      <c r="M24">
+        <v>1.002801176900511</v>
+      </c>
+      <c r="N24">
+        <v>0.9980650584177511</v>
+      </c>
+      <c r="O24">
+        <v>0.9993376701442581</v>
+      </c>
+      <c r="P24">
+        <v>1.001069423522384</v>
+      </c>
+      <c r="Q24">
+        <v>0.999970927429338</v>
+      </c>
+      <c r="R24">
+        <v>1.000067968487507</v>
+      </c>
+      <c r="S24">
+        <v>1.000914343919729</v>
+      </c>
+      <c r="T24">
+        <v>1.000067968487507</v>
+      </c>
+      <c r="U24">
+        <v>1.000202022544235</v>
+      </c>
+      <c r="V24">
+        <v>0.9997746297189378</v>
+      </c>
+      <c r="W24">
+        <v>1.000182920379277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9993921189469729</v>
+      </c>
+      <c r="D25">
+        <v>1.001756993567527</v>
+      </c>
+      <c r="E25">
+        <v>0.9984200012213073</v>
+      </c>
+      <c r="F25">
+        <v>0.9984200012213073</v>
+      </c>
+      <c r="G25">
+        <v>0.9989687573363888</v>
+      </c>
+      <c r="H25">
+        <v>1.000580235309992</v>
+      </c>
+      <c r="I25">
+        <v>1.002739065488634</v>
+      </c>
+      <c r="J25">
+        <v>0.9991768412280146</v>
+      </c>
+      <c r="K25">
+        <v>0.9984200012213073</v>
+      </c>
+      <c r="L25">
+        <v>1.000459246258202</v>
+      </c>
+      <c r="M25">
+        <v>1.002739065488634</v>
+      </c>
+      <c r="N25">
+        <v>0.9984200012213073</v>
+      </c>
+      <c r="O25">
+        <v>0.9991768412280146</v>
+      </c>
+      <c r="P25">
+        <v>1.000957953358324</v>
+      </c>
+      <c r="Q25">
+        <v>0.9998785382690033</v>
+      </c>
+      <c r="R25">
+        <v>1.000111969312652</v>
+      </c>
+      <c r="S25">
+        <v>1.000832047342214</v>
+      </c>
+      <c r="T25">
+        <v>1.000111969312652</v>
+      </c>
+      <c r="U25">
+        <v>1.000229035811987</v>
+      </c>
+      <c r="V25">
+        <v>0.9998672288938509</v>
+      </c>
+      <c r="W25">
+        <v>1.00018665741963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.999808386620393</v>
+      </c>
+      <c r="D26">
+        <v>1.00042664292747</v>
+      </c>
+      <c r="E26">
+        <v>0.999472331610477</v>
+      </c>
+      <c r="F26">
+        <v>0.999472331610477</v>
+      </c>
+      <c r="G26">
+        <v>0.9997679390092505</v>
+      </c>
+      <c r="H26">
+        <v>1.000141159922125</v>
+      </c>
+      <c r="I26">
+        <v>1.000641144278716</v>
+      </c>
+      <c r="J26">
+        <v>0.9998960974445166</v>
+      </c>
+      <c r="K26">
+        <v>0.999472331610477</v>
+      </c>
+      <c r="L26">
+        <v>1.000164313367634</v>
+      </c>
+      <c r="M26">
+        <v>1.000641144278716</v>
+      </c>
+      <c r="N26">
+        <v>0.999472331610477</v>
+      </c>
+      <c r="O26">
+        <v>0.9998960974445166</v>
+      </c>
+      <c r="P26">
+        <v>1.000268620861616</v>
+      </c>
+      <c r="Q26">
+        <v>1.000018628683321</v>
+      </c>
+      <c r="R26">
+        <v>1.000003191111236</v>
+      </c>
+      <c r="S26">
+        <v>1.000226133881786</v>
+      </c>
+      <c r="T26">
+        <v>1.000003191111236</v>
+      </c>
+      <c r="U26">
+        <v>1.000037683313959</v>
+      </c>
+      <c r="V26">
+        <v>0.9999246129732622</v>
+      </c>
+      <c r="W26">
+        <v>1.000039751897573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000697148699702</v>
+      </c>
+      <c r="D27">
+        <v>0.9981883917773804</v>
+      </c>
+      <c r="E27">
+        <v>1.001859422110158</v>
+      </c>
+      <c r="F27">
+        <v>1.001859422110158</v>
+      </c>
+      <c r="G27">
+        <v>1.001033969013659</v>
+      </c>
+      <c r="H27">
+        <v>0.9994013238566808</v>
+      </c>
+      <c r="I27">
+        <v>0.9972141218440032</v>
+      </c>
+      <c r="J27">
+        <v>1.000695238307848</v>
+      </c>
+      <c r="K27">
+        <v>1.001859422110158</v>
+      </c>
+      <c r="L27">
+        <v>0.9994420352818592</v>
+      </c>
+      <c r="M27">
+        <v>0.9972141218440032</v>
+      </c>
+      <c r="N27">
+        <v>1.001859422110158</v>
+      </c>
+      <c r="O27">
+        <v>1.000695238307848</v>
+      </c>
+      <c r="P27">
+        <v>0.9989546800759255</v>
+      </c>
+      <c r="Q27">
+        <v>1.000048281082264</v>
+      </c>
+      <c r="R27">
+        <v>0.9999229274206695</v>
+      </c>
+      <c r="S27">
+        <v>0.9991035613361773</v>
+      </c>
+      <c r="T27">
+        <v>0.9999229274206695</v>
+      </c>
+      <c r="U27">
+        <v>0.9997925265296723</v>
+      </c>
+      <c r="V27">
+        <v>1.000205905645769</v>
+      </c>
+      <c r="W27">
+        <v>0.9998164563614113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000757445331257</v>
+      </c>
+      <c r="D28">
+        <v>0.9980451451139798</v>
+      </c>
+      <c r="E28">
+        <v>1.002023385585849</v>
+      </c>
+      <c r="F28">
+        <v>1.002023385585849</v>
+      </c>
+      <c r="G28">
+        <v>1.0011135601981</v>
+      </c>
+      <c r="H28">
+        <v>0.9993539313689073</v>
+      </c>
+      <c r="I28">
+        <v>0.9969966400172606</v>
+      </c>
+      <c r="J28">
+        <v>1.000738944623696</v>
+      </c>
+      <c r="K28">
+        <v>1.002023385585849</v>
+      </c>
+      <c r="L28">
+        <v>0.9993917075890113</v>
+      </c>
+      <c r="M28">
+        <v>0.9969966400172606</v>
+      </c>
+      <c r="N28">
+        <v>1.002023385585849</v>
+      </c>
+      <c r="O28">
+        <v>1.000738944623696</v>
+      </c>
+      <c r="P28">
+        <v>0.9988677923204783</v>
+      </c>
+      <c r="Q28">
+        <v>1.000046437996302</v>
+      </c>
+      <c r="R28">
+        <v>0.9999196567422687</v>
+      </c>
+      <c r="S28">
+        <v>0.9990298386699547</v>
+      </c>
+      <c r="T28">
+        <v>0.9999196567422687</v>
+      </c>
+      <c r="U28">
+        <v>0.9997782253989282</v>
+      </c>
+      <c r="V28">
+        <v>1.000227257436312</v>
+      </c>
+      <c r="W28">
+        <v>0.9998025949785079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9986424369404031</v>
+      </c>
+      <c r="D29">
+        <v>1.003620736091288</v>
+      </c>
+      <c r="E29">
+        <v>0.9964007941581731</v>
+      </c>
+      <c r="F29">
+        <v>0.9964007941581731</v>
+      </c>
+      <c r="G29">
+        <v>0.9979185556835284</v>
+      </c>
+      <c r="H29">
+        <v>1.001196350357278</v>
+      </c>
+      <c r="I29">
+        <v>1.005587414114271</v>
+      </c>
+      <c r="J29">
+        <v>0.9985324219930105</v>
+      </c>
+      <c r="K29">
+        <v>0.9964007941581731</v>
+      </c>
+      <c r="L29">
+        <v>1.001072200595564</v>
+      </c>
+      <c r="M29">
+        <v>1.005587414114271</v>
+      </c>
+      <c r="N29">
+        <v>0.9964007941581731</v>
+      </c>
+      <c r="O29">
+        <v>0.9985324219930105</v>
+      </c>
+      <c r="P29">
+        <v>1.002059918053641</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998643861751445</v>
+      </c>
+      <c r="R29">
+        <v>1.000173543421818</v>
+      </c>
+      <c r="S29">
+        <v>1.001772062154853</v>
+      </c>
+      <c r="T29">
+        <v>1.000173543421818</v>
+      </c>
+      <c r="U29">
+        <v>1.000429245155683</v>
+      </c>
+      <c r="V29">
+        <v>0.9996235549561814</v>
+      </c>
+      <c r="W29">
+        <v>1.00037136374169</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002584759823797</v>
+        <v>1.001603039826658</v>
       </c>
       <c r="D4">
-        <v>0.99328404991593</v>
+        <v>0.9958215804954693</v>
       </c>
       <c r="E4">
-        <v>1.006894225533908</v>
+        <v>1.004272628836066</v>
       </c>
       <c r="F4">
-        <v>1.006894225533908</v>
+        <v>1.004272628836066</v>
       </c>
       <c r="G4">
-        <v>1.003832966221609</v>
+        <v>1.002386862227174</v>
       </c>
       <c r="H4">
-        <v>0.9977805395852399</v>
+        <v>0.9986191634322821</v>
       </c>
       <c r="I4">
-        <v>0.9896724124848837</v>
+        <v>0.9935717733393228</v>
       </c>
       <c r="J4">
-        <v>1.002576741445897</v>
+        <v>1.001614289470208</v>
       </c>
       <c r="K4">
-        <v>1.006894225533908</v>
+        <v>1.004272628836066</v>
       </c>
       <c r="L4">
-        <v>0.9979311810266277</v>
+        <v>0.998718981001839</v>
       </c>
       <c r="M4">
-        <v>0.9896724124848837</v>
+        <v>0.9935717733393228</v>
       </c>
       <c r="N4">
-        <v>1.006894225533908</v>
+        <v>1.004272628836066</v>
       </c>
       <c r="O4">
-        <v>1.002576741445897</v>
+        <v>1.001614289470208</v>
       </c>
       <c r="P4">
-        <v>0.9961245769653901</v>
+        <v>0.9975930314047656</v>
       </c>
       <c r="Q4">
-        <v>1.000178640515568</v>
+        <v>1.000116726451245</v>
       </c>
       <c r="R4">
-        <v>0.9997144598215627</v>
+        <v>0.9998195638818658</v>
       </c>
       <c r="S4">
-        <v>0.9966765645053401</v>
+        <v>0.9979350754139378</v>
       </c>
       <c r="T4">
-        <v>0.9997144598215627</v>
+        <v>0.9998195638818658</v>
       </c>
       <c r="U4">
-        <v>0.9992309797624821</v>
+        <v>0.9995194637694699</v>
       </c>
       <c r="V4">
-        <v>1.000763628916767</v>
+        <v>1.000470096782789</v>
       </c>
       <c r="W4">
-        <v>0.9993196095047365</v>
+        <v>0.9995760398286275</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.002057130230545</v>
+        <v>1.006615573883606</v>
       </c>
       <c r="D5">
-        <v>0.9946419040273796</v>
+        <v>0.9827595679155985</v>
       </c>
       <c r="E5">
-        <v>1.005483842572043</v>
+        <v>1.017633450664078</v>
       </c>
       <c r="F5">
-        <v>1.005483842572043</v>
+        <v>1.017633450664078</v>
       </c>
       <c r="G5">
-        <v>1.003060106635445</v>
+        <v>1.009847795806792</v>
       </c>
       <c r="H5">
-        <v>0.99822930803314</v>
+        <v>0.9943025642519978</v>
       </c>
       <c r="I5">
-        <v>0.9917577392147009</v>
+        <v>0.9734774325401313</v>
       </c>
       <c r="J5">
-        <v>1.00206675329251</v>
+        <v>1.006657791091178</v>
       </c>
       <c r="K5">
-        <v>1.005483842572043</v>
+        <v>1.017633450664078</v>
       </c>
       <c r="L5">
-        <v>0.9983555050720483</v>
+        <v>0.9947128595708778</v>
       </c>
       <c r="M5">
-        <v>0.9917577392147009</v>
+        <v>0.9734774325401313</v>
       </c>
       <c r="N5">
-        <v>1.005483842572043</v>
+        <v>1.017633450664078</v>
       </c>
       <c r="O5">
-        <v>1.00206675329251</v>
+        <v>1.006657791091178</v>
       </c>
       <c r="P5">
-        <v>0.9969122462536055</v>
+        <v>0.9900676118156548</v>
       </c>
       <c r="Q5">
-        <v>1.000148030662825</v>
+        <v>1.000480177671588</v>
       </c>
       <c r="R5">
-        <v>0.999769445026418</v>
+        <v>0.9992562247651294</v>
       </c>
       <c r="S5">
-        <v>0.9973512668467838</v>
+        <v>0.9914792626277692</v>
       </c>
       <c r="T5">
-        <v>0.999769445026418</v>
+        <v>0.9992562247651294</v>
       </c>
       <c r="U5">
-        <v>0.9993844107780985</v>
+        <v>0.9980178096368465</v>
       </c>
       <c r="V5">
-        <v>1.000604297136887</v>
+        <v>1.001940937842293</v>
       </c>
       <c r="W5">
-        <v>0.9994565361347265</v>
+        <v>0.9982508794655325</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006655744782937</v>
+        <v>1.002584759823797</v>
       </c>
       <c r="D6">
-        <v>0.9826519822969032</v>
+        <v>0.99328404991593</v>
       </c>
       <c r="E6">
-        <v>1.017739802986282</v>
+        <v>1.006894225533908</v>
       </c>
       <c r="F6">
-        <v>1.017739802986282</v>
+        <v>1.006894225533908</v>
       </c>
       <c r="G6">
-        <v>1.009909736704397</v>
+        <v>1.003832966221609</v>
       </c>
       <c r="H6">
-        <v>0.9942670199179228</v>
+        <v>0.9977805395852399</v>
       </c>
       <c r="I6">
-        <v>0.9733113085317054</v>
+        <v>0.9896724124848837</v>
       </c>
       <c r="J6">
-        <v>1.006701799968948</v>
+        <v>1.002576741445897</v>
       </c>
       <c r="K6">
-        <v>1.017739802986282</v>
+        <v>1.006894225533908</v>
       </c>
       <c r="L6">
-        <v>0.9946812100218083</v>
+        <v>0.9979311810266277</v>
       </c>
       <c r="M6">
-        <v>0.9733113085317054</v>
+        <v>0.9896724124848837</v>
       </c>
       <c r="N6">
-        <v>1.017739802986282</v>
+        <v>1.006894225533908</v>
       </c>
       <c r="O6">
-        <v>1.006701799968948</v>
+        <v>1.002576741445897</v>
       </c>
       <c r="P6">
-        <v>0.9900065542503267</v>
+        <v>0.9961245769653901</v>
       </c>
       <c r="Q6">
-        <v>1.000484409943435</v>
+        <v>1.000178640515568</v>
       </c>
       <c r="R6">
-        <v>0.9992509704956453</v>
+        <v>0.9997144598215627</v>
       </c>
       <c r="S6">
-        <v>0.9914267094728587</v>
+        <v>0.9966765645053401</v>
       </c>
       <c r="T6">
-        <v>0.9992509704956453</v>
+        <v>0.9997144598215627</v>
       </c>
       <c r="U6">
-        <v>0.9980049828512146</v>
+        <v>0.9992309797624821</v>
       </c>
       <c r="V6">
-        <v>1.001951946878228</v>
+        <v>1.000763628916767</v>
       </c>
       <c r="W6">
-        <v>0.998239825651363</v>
+        <v>0.9993196095047365</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000229047966455</v>
+        <v>1.002057130230545</v>
       </c>
       <c r="D7">
-        <v>0.9994064973825414</v>
+        <v>0.9946419040273796</v>
       </c>
       <c r="E7">
-        <v>1.000611312167378</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="F7">
-        <v>1.000611312167378</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="G7">
-        <v>1.000338465389755</v>
+        <v>1.003060106635445</v>
       </c>
       <c r="H7">
-        <v>0.9998038587445589</v>
+        <v>0.99822930803314</v>
       </c>
       <c r="I7">
-        <v>0.9990876723903394</v>
+        <v>0.9917577392147009</v>
       </c>
       <c r="J7">
-        <v>1.000226343475984</v>
+        <v>1.00206675329251</v>
       </c>
       <c r="K7">
-        <v>1.000611312167378</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="L7">
-        <v>0.9998164192298304</v>
+        <v>0.9983555050720483</v>
       </c>
       <c r="M7">
-        <v>0.9990876723903394</v>
+        <v>0.9917577392147009</v>
       </c>
       <c r="N7">
-        <v>1.000611312167378</v>
+        <v>1.005483842572043</v>
       </c>
       <c r="O7">
-        <v>1.000226343475984</v>
+        <v>1.00206675329251</v>
       </c>
       <c r="P7">
-        <v>0.9996570079331619</v>
+        <v>0.9969122462536055</v>
       </c>
       <c r="Q7">
-        <v>1.000015101110272</v>
+        <v>1.000148030662825</v>
       </c>
       <c r="R7">
-        <v>0.9999751093445672</v>
+        <v>0.999769445026418</v>
       </c>
       <c r="S7">
-        <v>0.9997059582036276</v>
+        <v>0.9973512668467838</v>
       </c>
       <c r="T7">
-        <v>0.9999751093445672</v>
+        <v>0.999769445026418</v>
       </c>
       <c r="U7">
-        <v>0.9999322966945652</v>
+        <v>0.9993844107780985</v>
       </c>
       <c r="V7">
-        <v>1.000068099789128</v>
+        <v>1.000604297136887</v>
       </c>
       <c r="W7">
-        <v>0.9999399520933554</v>
+        <v>0.9994565361347265</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000016230722798</v>
+        <v>1.006655744782937</v>
       </c>
       <c r="D8">
-        <v>0.9999564974004589</v>
+        <v>0.9826519822969032</v>
       </c>
       <c r="E8">
-        <v>1.000042985670611</v>
+        <v>1.017739802986282</v>
       </c>
       <c r="F8">
-        <v>1.000042985670611</v>
+        <v>1.017739802986282</v>
       </c>
       <c r="G8">
-        <v>1.000025040584003</v>
+        <v>1.009909736704397</v>
       </c>
       <c r="H8">
-        <v>0.9999856273246446</v>
+        <v>0.9942670199179228</v>
       </c>
       <c r="I8">
-        <v>0.9999328260297407</v>
+        <v>0.9733113085317054</v>
       </c>
       <c r="J8">
-        <v>1.00001780607479</v>
+        <v>1.006701799968948</v>
       </c>
       <c r="K8">
-        <v>1.000042985670611</v>
+        <v>1.017739802986282</v>
       </c>
       <c r="L8">
-        <v>0.9999872107644048</v>
+        <v>0.9946812100218083</v>
       </c>
       <c r="M8">
-        <v>0.9999328260297407</v>
+        <v>0.9733113085317054</v>
       </c>
       <c r="N8">
-        <v>1.000042985670611</v>
+        <v>1.017739802986282</v>
       </c>
       <c r="O8">
-        <v>1.00001780607479</v>
+        <v>1.006701799968948</v>
       </c>
       <c r="P8">
-        <v>0.9999753160522651</v>
+        <v>0.9900065542503267</v>
       </c>
       <c r="Q8">
-        <v>1.000001716699717</v>
+        <v>1.000484409943435</v>
       </c>
       <c r="R8">
-        <v>0.9999978725917137</v>
+        <v>0.9992509704956453</v>
       </c>
       <c r="S8">
-        <v>0.9999787531430583</v>
+        <v>0.9914267094728587</v>
       </c>
       <c r="T8">
-        <v>0.9999978725917137</v>
+        <v>0.9992509704956453</v>
       </c>
       <c r="U8">
-        <v>0.9999948112749464</v>
+        <v>0.9980049828512146</v>
       </c>
       <c r="V8">
-        <v>1.000004446154079</v>
+        <v>1.001951946878228</v>
       </c>
       <c r="W8">
-        <v>0.9999955280714313</v>
+        <v>0.998239825651363</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000367064769578</v>
+        <v>1.000229047966455</v>
       </c>
       <c r="D9">
-        <v>0.9990467108982723</v>
+        <v>0.9994064973825414</v>
       </c>
       <c r="E9">
-        <v>1.000979163666776</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="F9">
-        <v>1.000979163666776</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="G9">
-        <v>1.000543993459376</v>
+        <v>1.000338465389755</v>
       </c>
       <c r="H9">
-        <v>0.9996849614694614</v>
+        <v>0.9998038587445589</v>
       </c>
       <c r="I9">
-        <v>0.9985341548215636</v>
+        <v>0.9990876723903394</v>
       </c>
       <c r="J9">
-        <v>1.000365376137603</v>
+        <v>1.000226343475984</v>
       </c>
       <c r="K9">
-        <v>1.000979163666776</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="L9">
-        <v>0.9997061332537691</v>
+        <v>0.9998164192298304</v>
       </c>
       <c r="M9">
-        <v>0.9985341548215636</v>
+        <v>0.9990876723903394</v>
       </c>
       <c r="N9">
-        <v>1.000979163666776</v>
+        <v>1.000611312167378</v>
       </c>
       <c r="O9">
-        <v>1.000365376137603</v>
+        <v>1.000226343475984</v>
       </c>
       <c r="P9">
-        <v>0.9994497654795833</v>
+        <v>0.9996570079331619</v>
       </c>
       <c r="Q9">
-        <v>1.000025168803532</v>
+        <v>1.000015101110272</v>
       </c>
       <c r="R9">
-        <v>0.9999595648753141</v>
+        <v>0.9999751093445672</v>
       </c>
       <c r="S9">
-        <v>0.9995281641428759</v>
+        <v>0.9997059582036276</v>
       </c>
       <c r="T9">
-        <v>0.9999595648753141</v>
+        <v>0.9999751093445672</v>
       </c>
       <c r="U9">
-        <v>0.999890914023851</v>
+        <v>0.9999322966945652</v>
       </c>
       <c r="V9">
-        <v>1.000108563952436</v>
+        <v>1.000068099789128</v>
       </c>
       <c r="W9">
-        <v>0.9999034448095498</v>
+        <v>0.9999399520933554</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.006754439577171</v>
+        <v>1.000016230722798</v>
       </c>
       <c r="D10">
-        <v>0.9823941186689751</v>
+        <v>0.9999564974004589</v>
       </c>
       <c r="E10">
-        <v>1.018002713619436</v>
+        <v>1.000042985670611</v>
       </c>
       <c r="F10">
-        <v>1.018002713619436</v>
+        <v>1.000042985670611</v>
       </c>
       <c r="G10">
-        <v>1.010057135529753</v>
+        <v>1.000025040584003</v>
       </c>
       <c r="H10">
-        <v>0.9941818054586878</v>
+        <v>0.9999856273246446</v>
       </c>
       <c r="I10">
-        <v>0.9729144756947995</v>
+        <v>0.9999328260297407</v>
       </c>
       <c r="J10">
-        <v>1.006801933704801</v>
+        <v>1.00001780607479</v>
       </c>
       <c r="K10">
-        <v>1.018002713619436</v>
+        <v>1.000042985670611</v>
       </c>
       <c r="L10">
-        <v>0.9946024351374854</v>
+        <v>0.9999872107644048</v>
       </c>
       <c r="M10">
-        <v>0.9729144756947995</v>
+        <v>0.9999328260297407</v>
       </c>
       <c r="N10">
-        <v>1.018002713619436</v>
+        <v>1.000042985670611</v>
       </c>
       <c r="O10">
-        <v>1.006801933704801</v>
+        <v>1.00001780607479</v>
       </c>
       <c r="P10">
-        <v>0.9898582046998003</v>
+        <v>0.9999753160522651</v>
       </c>
       <c r="Q10">
-        <v>1.000491869581744</v>
+        <v>1.000001716699717</v>
       </c>
       <c r="R10">
-        <v>0.9992397076730123</v>
+        <v>0.9999978725917137</v>
       </c>
       <c r="S10">
-        <v>0.9912994049527629</v>
+        <v>0.9999787531430583</v>
       </c>
       <c r="T10">
-        <v>0.9992397076730123</v>
+        <v>0.9999978725917137</v>
       </c>
       <c r="U10">
-        <v>0.9979752321194312</v>
+        <v>0.9999948112749464</v>
       </c>
       <c r="V10">
-        <v>1.001980728419432</v>
+        <v>1.000004446154079</v>
       </c>
       <c r="W10">
-        <v>0.9982136321738886</v>
+        <v>0.9999955280714313</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001314577908246</v>
+        <v>1.000367064769578</v>
       </c>
       <c r="D11">
-        <v>0.9965843422808356</v>
+        <v>0.9990467108982723</v>
       </c>
       <c r="E11">
-        <v>1.003506326017709</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="F11">
-        <v>1.003506326017709</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="G11">
-        <v>1.001949402968682</v>
+        <v>1.000543993459376</v>
       </c>
       <c r="H11">
-        <v>0.9988712075681885</v>
+        <v>0.9996849614694614</v>
       </c>
       <c r="I11">
-        <v>0.9947475018601871</v>
+        <v>0.9985341548215636</v>
       </c>
       <c r="J11">
-        <v>1.001310503518693</v>
+        <v>1.000365376137603</v>
       </c>
       <c r="K11">
-        <v>1.003506326017709</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="L11">
-        <v>0.9989478219566383</v>
+        <v>0.9997061332537691</v>
       </c>
       <c r="M11">
-        <v>0.9947475018601871</v>
+        <v>0.9985341548215636</v>
       </c>
       <c r="N11">
-        <v>1.003506326017709</v>
+        <v>1.000979163666776</v>
       </c>
       <c r="O11">
-        <v>1.001310503518693</v>
+        <v>1.000365376137603</v>
       </c>
       <c r="P11">
-        <v>0.9980290026894398</v>
+        <v>0.9994497654795833</v>
       </c>
       <c r="Q11">
-        <v>1.000090855543441</v>
+        <v>1.000025168803532</v>
       </c>
       <c r="R11">
-        <v>0.9998547771321963</v>
+        <v>0.9999595648753141</v>
       </c>
       <c r="S11">
-        <v>0.9983097376490226</v>
+        <v>0.9995281641428759</v>
       </c>
       <c r="T11">
-        <v>0.9998547771321963</v>
+        <v>0.9999595648753141</v>
       </c>
       <c r="U11">
-        <v>0.9996088847411944</v>
+        <v>0.999890914023851</v>
       </c>
       <c r="V11">
-        <v>1.000388372996497</v>
+        <v>1.000108563952436</v>
       </c>
       <c r="W11">
-        <v>0.9996539605098973</v>
+        <v>0.9999034448095498</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002053157705264</v>
+        <v>1.006754439577171</v>
       </c>
       <c r="D12">
-        <v>0.9946481847684218</v>
+        <v>0.9823941186689751</v>
       </c>
       <c r="E12">
-        <v>1.005472298031577</v>
+        <v>1.018002713619436</v>
       </c>
       <c r="F12">
-        <v>1.005472298031577</v>
+        <v>1.018002713619436</v>
       </c>
       <c r="G12">
-        <v>1.003057172789472</v>
+        <v>1.010057135529753</v>
       </c>
       <c r="H12">
-        <v>0.9982313928736847</v>
+        <v>0.9941818054586878</v>
       </c>
       <c r="I12">
-        <v>0.9917665521157946</v>
+        <v>0.9729144756947995</v>
       </c>
       <c r="J12">
-        <v>1.002067739968423</v>
+        <v>1.006801933704801</v>
       </c>
       <c r="K12">
-        <v>1.005472298031577</v>
+        <v>1.018002713619436</v>
       </c>
       <c r="L12">
-        <v>0.9983593085894764</v>
+        <v>0.9946024351374854</v>
       </c>
       <c r="M12">
-        <v>0.9917665521157946</v>
+        <v>0.9729144756947995</v>
       </c>
       <c r="N12">
-        <v>1.005472298031577</v>
+        <v>1.018002713619436</v>
       </c>
       <c r="O12">
-        <v>1.002067739968423</v>
+        <v>1.006801933704801</v>
       </c>
       <c r="P12">
-        <v>0.9969171460421087</v>
+        <v>0.9898582046998003</v>
       </c>
       <c r="Q12">
-        <v>1.000149566421054</v>
+        <v>1.000491869581744</v>
       </c>
       <c r="R12">
-        <v>0.9997688633719316</v>
+        <v>0.9992397076730123</v>
       </c>
       <c r="S12">
-        <v>0.9973552283193007</v>
+        <v>0.9912994049527629</v>
       </c>
       <c r="T12">
-        <v>0.9997688633719316</v>
+        <v>0.9992397076730123</v>
       </c>
       <c r="U12">
-        <v>0.9993844957473699</v>
+        <v>0.9979752321194312</v>
       </c>
       <c r="V12">
-        <v>1.000602056204211</v>
+        <v>1.001980728419432</v>
       </c>
       <c r="W12">
-        <v>0.9994569758552642</v>
+        <v>0.9982136321738886</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9986701740270565</v>
+        <v>1.001314577908246</v>
       </c>
       <c r="D13">
-        <v>1.003461497373194</v>
+        <v>0.9965843422808356</v>
       </c>
       <c r="E13">
-        <v>0.9964544613453235</v>
+        <v>1.003506326017709</v>
       </c>
       <c r="F13">
-        <v>0.9964544613453235</v>
+        <v>1.003506326017709</v>
       </c>
       <c r="G13">
-        <v>0.9980234336384411</v>
+        <v>1.001949402968682</v>
       </c>
       <c r="H13">
-        <v>1.001143928554572</v>
+        <v>0.9988712075681885</v>
       </c>
       <c r="I13">
-        <v>1.005324298375725</v>
+        <v>0.9947475018601871</v>
       </c>
       <c r="J13">
-        <v>0.9986666837779716</v>
+        <v>1.001310503518693</v>
       </c>
       <c r="K13">
-        <v>0.9964544613453235</v>
+        <v>1.003506326017709</v>
       </c>
       <c r="L13">
-        <v>1.001063420846789</v>
+        <v>0.9989478219566383</v>
       </c>
       <c r="M13">
-        <v>1.005324298375725</v>
+        <v>0.9947475018601871</v>
       </c>
       <c r="N13">
-        <v>0.9964544613453235</v>
+        <v>1.003506326017709</v>
       </c>
       <c r="O13">
-        <v>0.9986666837779716</v>
+        <v>1.001310503518693</v>
       </c>
       <c r="P13">
-        <v>1.001995491076848</v>
+        <v>0.9980290026894398</v>
       </c>
       <c r="Q13">
-        <v>0.9999053061662716</v>
+        <v>1.000090855543441</v>
       </c>
       <c r="R13">
-        <v>1.00014848116634</v>
+        <v>0.9998547771321963</v>
       </c>
       <c r="S13">
-        <v>1.001711636902756</v>
+        <v>0.9983097376490226</v>
       </c>
       <c r="T13">
-        <v>1.00014848116634</v>
+        <v>0.9998547771321963</v>
       </c>
       <c r="U13">
-        <v>1.000397343013398</v>
+        <v>0.9996088847411944</v>
       </c>
       <c r="V13">
-        <v>0.999608766679783</v>
+        <v>1.000388372996497</v>
       </c>
       <c r="W13">
-        <v>1.000350987242384</v>
+        <v>0.9996539605098973</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0116693</v>
+        <v>1.002053157705264</v>
       </c>
       <c r="D14">
-        <v>0.9695817200000002</v>
+        <v>0.9946481847684218</v>
       </c>
       <c r="E14">
-        <v>1.031102</v>
+        <v>1.005472298031577</v>
       </c>
       <c r="F14">
-        <v>1.031102</v>
+        <v>1.005472298031577</v>
       </c>
       <c r="G14">
-        <v>1.0173763</v>
+        <v>1.003057172789472</v>
       </c>
       <c r="H14">
-        <v>0.9899477100000005</v>
+        <v>0.9982313928736847</v>
       </c>
       <c r="I14">
-        <v>0.9532031000000012</v>
+        <v>0.9917665521157946</v>
       </c>
       <c r="J14">
-        <v>1.011753200000001</v>
+        <v>1.002067739968423</v>
       </c>
       <c r="K14">
-        <v>1.031102</v>
+        <v>1.005472298031577</v>
       </c>
       <c r="L14">
-        <v>0.9906751399999998</v>
+        <v>0.9983593085894764</v>
       </c>
       <c r="M14">
-        <v>0.9532031000000012</v>
+        <v>0.9917665521157946</v>
       </c>
       <c r="N14">
-        <v>1.031102</v>
+        <v>1.005472298031577</v>
       </c>
       <c r="O14">
-        <v>1.011753200000001</v>
+        <v>1.002067739968423</v>
       </c>
       <c r="P14">
-        <v>0.9824781500000009</v>
+        <v>0.9969171460421087</v>
       </c>
       <c r="Q14">
-        <v>1.000850455000001</v>
+        <v>1.000149566421054</v>
       </c>
       <c r="R14">
-        <v>0.9986861000000005</v>
+        <v>0.9997688633719316</v>
       </c>
       <c r="S14">
-        <v>0.9849680033333342</v>
+        <v>0.9973552283193007</v>
       </c>
       <c r="T14">
-        <v>0.9986861000000005</v>
+        <v>0.9997688633719316</v>
       </c>
       <c r="U14">
-        <v>0.9965015025000005</v>
+        <v>0.9993844957473699</v>
       </c>
       <c r="V14">
-        <v>1.003421602</v>
+        <v>1.000602056204211</v>
       </c>
       <c r="W14">
-        <v>0.9969135587500002</v>
+        <v>0.9994569758552642</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0189641</v>
+        <v>0.9986701740270565</v>
       </c>
       <c r="D15">
-        <v>0.9511103599999999</v>
+        <v>1.003461497373194</v>
       </c>
       <c r="E15">
-        <v>1.0506718</v>
+        <v>0.9964544613453235</v>
       </c>
       <c r="F15">
-        <v>1.0506718</v>
+        <v>0.9964544613453235</v>
       </c>
       <c r="G15">
-        <v>1.0278409</v>
+        <v>0.9980234336384411</v>
       </c>
       <c r="H15">
-        <v>0.9838422699999999</v>
+        <v>1.001143928554572</v>
       </c>
       <c r="I15">
-        <v>0.92489956</v>
+        <v>1.005324298375725</v>
       </c>
       <c r="J15">
-        <v>1.0184349</v>
+        <v>0.9986666837779716</v>
       </c>
       <c r="K15">
-        <v>1.0506718</v>
+        <v>0.9964544613453235</v>
       </c>
       <c r="L15">
-        <v>0.98476218</v>
+        <v>1.001063420846789</v>
       </c>
       <c r="M15">
-        <v>0.92489956</v>
+        <v>1.005324298375725</v>
       </c>
       <c r="N15">
-        <v>1.0506718</v>
+        <v>0.9964544613453235</v>
       </c>
       <c r="O15">
-        <v>1.0184349</v>
+        <v>0.9986666837779716</v>
       </c>
       <c r="P15">
-        <v>0.97166723</v>
+        <v>1.001995491076848</v>
       </c>
       <c r="Q15">
-        <v>1.001138585</v>
+        <v>0.9999053061662716</v>
       </c>
       <c r="R15">
-        <v>0.9980020866666667</v>
+        <v>1.00014848116634</v>
       </c>
       <c r="S15">
-        <v>0.9757255766666666</v>
+        <v>1.001711636902756</v>
       </c>
       <c r="T15">
-        <v>0.9980020866666667</v>
+        <v>1.00014848116634</v>
       </c>
       <c r="U15">
-        <v>0.9944621324999999</v>
+        <v>1.000397343013398</v>
       </c>
       <c r="V15">
-        <v>1.005704066</v>
+        <v>0.999608766679783</v>
       </c>
       <c r="W15">
-        <v>0.99506575875</v>
+        <v>1.000350987242384</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0181865</v>
+        <v>1.0116693</v>
       </c>
       <c r="D16">
-        <v>0.9528162999999999</v>
+        <v>0.9695817200000002</v>
       </c>
       <c r="E16">
-        <v>1.0485244</v>
+        <v>1.031102</v>
       </c>
       <c r="F16">
-        <v>1.0485244</v>
+        <v>1.031102</v>
       </c>
       <c r="G16">
-        <v>1.0269177</v>
+        <v>1.0173763</v>
       </c>
       <c r="H16">
-        <v>0.9844067600000002</v>
+        <v>0.9899477100000005</v>
       </c>
       <c r="I16">
-        <v>0.92745699</v>
+        <v>0.9532031000000012</v>
       </c>
       <c r="J16">
-        <v>1.0180444</v>
+        <v>1.011753200000001</v>
       </c>
       <c r="K16">
-        <v>1.0485244</v>
+        <v>1.031102</v>
       </c>
       <c r="L16">
-        <v>0.98543294</v>
+        <v>0.9906751399999998</v>
       </c>
       <c r="M16">
-        <v>0.92745699</v>
+        <v>0.9532031000000012</v>
       </c>
       <c r="N16">
-        <v>1.0485244</v>
+        <v>1.031102</v>
       </c>
       <c r="O16">
-        <v>1.0180444</v>
+        <v>1.011753200000001</v>
       </c>
       <c r="P16">
-        <v>0.972750695</v>
+        <v>0.9824781500000009</v>
       </c>
       <c r="Q16">
-        <v>1.00122558</v>
+        <v>1.000850455000001</v>
       </c>
       <c r="R16">
-        <v>0.9980085966666667</v>
+        <v>0.9986861000000005</v>
       </c>
       <c r="S16">
-        <v>0.9766360500000001</v>
+        <v>0.9849680033333342</v>
       </c>
       <c r="T16">
-        <v>0.9980085966666667</v>
+        <v>0.9986861000000005</v>
       </c>
       <c r="U16">
-        <v>0.9946081375000001</v>
+        <v>0.9965015025000005</v>
       </c>
       <c r="V16">
-        <v>1.00539139</v>
+        <v>1.003421602</v>
       </c>
       <c r="W16">
-        <v>0.99522324875</v>
+        <v>0.9969135587500002</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0048163</v>
+        <v>1.0189641</v>
       </c>
       <c r="D17">
-        <v>0.98769555</v>
+        <v>0.9511103599999999</v>
       </c>
       <c r="E17">
-        <v>1.0128951</v>
+        <v>1.0506718</v>
       </c>
       <c r="F17">
-        <v>1.0128951</v>
+        <v>1.0506718</v>
       </c>
       <c r="G17">
-        <v>1.0069888</v>
+        <v>1.0278409</v>
       </c>
       <c r="H17">
-        <v>0.9959332</v>
+        <v>0.9838422699999999</v>
       </c>
       <c r="I17">
-        <v>0.98112252</v>
+        <v>0.92489956</v>
       </c>
       <c r="J17">
-        <v>1.0045449</v>
+        <v>1.0184349</v>
       </c>
       <c r="K17">
-        <v>1.0128951</v>
+        <v>1.0506718</v>
       </c>
       <c r="L17">
-        <v>0.99611287</v>
+        <v>0.98476218</v>
       </c>
       <c r="M17">
-        <v>0.98112252</v>
+        <v>0.92489956</v>
       </c>
       <c r="N17">
-        <v>1.0128951</v>
+        <v>1.0506718</v>
       </c>
       <c r="O17">
-        <v>1.0045449</v>
+        <v>1.0184349</v>
       </c>
       <c r="P17">
-        <v>0.99283371</v>
+        <v>0.97166723</v>
       </c>
       <c r="Q17">
-        <v>1.00023905</v>
+        <v>1.001138585</v>
       </c>
       <c r="R17">
-        <v>0.9995208400000001</v>
+        <v>0.9980020866666667</v>
       </c>
       <c r="S17">
-        <v>0.9938668733333333</v>
+        <v>0.9757255766666666</v>
       </c>
       <c r="T17">
-        <v>0.9995208400000001</v>
+        <v>0.9980020866666667</v>
       </c>
       <c r="U17">
-        <v>0.99862393</v>
+        <v>0.9944621324999999</v>
       </c>
       <c r="V17">
-        <v>1.001478164</v>
+        <v>1.005704066</v>
       </c>
       <c r="W17">
-        <v>0.998763655</v>
+        <v>0.99506575875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004589475342466</v>
+        <v>1.0181865</v>
       </c>
       <c r="D18">
-        <v>0.9880906476712333</v>
+        <v>0.9528162999999999</v>
       </c>
       <c r="E18">
-        <v>1.012244927123288</v>
+        <v>1.0485244</v>
       </c>
       <c r="F18">
-        <v>1.012244927123288</v>
+        <v>1.0485244</v>
       </c>
       <c r="G18">
-        <v>1.006794496712329</v>
+        <v>1.0269177</v>
       </c>
       <c r="H18">
-        <v>0.9960642056164385</v>
+        <v>0.9844067600000002</v>
       </c>
       <c r="I18">
-        <v>0.9816893805479455</v>
+        <v>0.92745699</v>
       </c>
       <c r="J18">
-        <v>1.004556366849315</v>
+        <v>1.0180444</v>
       </c>
       <c r="K18">
-        <v>1.012244927123288</v>
+        <v>1.0485244</v>
       </c>
       <c r="L18">
-        <v>0.9963242468493152</v>
+        <v>0.98543294</v>
       </c>
       <c r="M18">
-        <v>0.9816893805479455</v>
+        <v>0.92745699</v>
       </c>
       <c r="N18">
-        <v>1.012244927123288</v>
+        <v>1.0485244</v>
       </c>
       <c r="O18">
-        <v>1.004556366849315</v>
+        <v>1.0180444</v>
       </c>
       <c r="P18">
-        <v>0.9931228736986302</v>
+        <v>0.972750695</v>
       </c>
       <c r="Q18">
-        <v>1.000310286232877</v>
+        <v>1.00122558</v>
       </c>
       <c r="R18">
-        <v>0.9994968915068494</v>
+        <v>0.9980085966666667</v>
       </c>
       <c r="S18">
-        <v>0.9941033176712329</v>
+        <v>0.9766360500000001</v>
       </c>
       <c r="T18">
-        <v>0.9994968915068494</v>
+        <v>0.9980085966666667</v>
       </c>
       <c r="U18">
-        <v>0.9986387200342467</v>
+        <v>0.9946081375000001</v>
       </c>
       <c r="V18">
-        <v>1.001359961452055</v>
+        <v>1.00539139</v>
       </c>
       <c r="W18">
-        <v>0.9987942183390413</v>
+        <v>0.99522324875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.007440113157895</v>
+        <v>1.0048163</v>
       </c>
       <c r="D19">
-        <v>0.9805227394736841</v>
+        <v>0.98769555</v>
       </c>
       <c r="E19">
-        <v>1.019810768421053</v>
+        <v>1.0128951</v>
       </c>
       <c r="F19">
-        <v>1.019810768421053</v>
+        <v>1.0128951</v>
       </c>
       <c r="G19">
-        <v>1.011139557894737</v>
+        <v>1.0069888</v>
       </c>
       <c r="H19">
-        <v>0.9935635610526315</v>
+        <v>0.9959332</v>
       </c>
       <c r="I19">
-        <v>0.9700179063157895</v>
+        <v>0.98112252</v>
       </c>
       <c r="J19">
-        <v>1.00759526</v>
+        <v>1.0045449</v>
       </c>
       <c r="K19">
-        <v>1.019810768421053</v>
+        <v>1.0128951</v>
       </c>
       <c r="L19">
-        <v>0.994067410526316</v>
+        <v>0.99611287</v>
       </c>
       <c r="M19">
-        <v>0.9700179063157895</v>
+        <v>0.98112252</v>
       </c>
       <c r="N19">
-        <v>1.019810768421053</v>
+        <v>1.0128951</v>
       </c>
       <c r="O19">
-        <v>1.00759526</v>
+        <v>1.0045449</v>
       </c>
       <c r="P19">
-        <v>0.9888065831578949</v>
+        <v>0.99283371</v>
       </c>
       <c r="Q19">
-        <v>1.000579410526316</v>
+        <v>1.00023905</v>
       </c>
       <c r="R19">
-        <v>0.9991413115789475</v>
+        <v>0.9995208400000001</v>
       </c>
       <c r="S19">
-        <v>0.9903922424561404</v>
+        <v>0.9938668733333333</v>
       </c>
       <c r="T19">
-        <v>0.9991413115789474</v>
+        <v>0.9995208400000001</v>
       </c>
       <c r="U19">
-        <v>0.9977468739473684</v>
+        <v>0.99862393</v>
       </c>
       <c r="V19">
-        <v>1.002159652842105</v>
+        <v>1.001478164</v>
       </c>
       <c r="W19">
-        <v>0.9980196646052631</v>
+        <v>0.998763655</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.007244911578947</v>
+        <v>1.004589475342466</v>
       </c>
       <c r="D20">
-        <v>0.9811324836842106</v>
+        <v>0.9880906476712333</v>
       </c>
       <c r="E20">
-        <v>1.019313940526316</v>
+        <v>1.012244927123288</v>
       </c>
       <c r="F20">
-        <v>1.019313940526316</v>
+        <v>1.012244927123288</v>
       </c>
       <c r="G20">
-        <v>1.010775116315789</v>
+        <v>1.006794496712329</v>
       </c>
       <c r="H20">
-        <v>0.9937648336842106</v>
+        <v>0.9960642056164385</v>
       </c>
       <c r="I20">
-        <v>0.9709770500000001</v>
+        <v>0.9816893805479455</v>
       </c>
       <c r="J20">
-        <v>1.007275254210526</v>
+        <v>1.004556366849315</v>
       </c>
       <c r="K20">
-        <v>1.019313940526316</v>
+        <v>1.012244927123288</v>
       </c>
       <c r="L20">
-        <v>0.9942078978947371</v>
+        <v>0.9963242468493152</v>
       </c>
       <c r="M20">
-        <v>0.9709770500000001</v>
+        <v>0.9816893805479455</v>
       </c>
       <c r="N20">
-        <v>1.019313940526316</v>
+        <v>1.012244927123288</v>
       </c>
       <c r="O20">
-        <v>1.007275254210526</v>
+        <v>1.004556366849315</v>
       </c>
       <c r="P20">
-        <v>0.9891261521052632</v>
+        <v>0.9931228736986302</v>
       </c>
       <c r="Q20">
-        <v>1.000520043947368</v>
+        <v>1.000310286232877</v>
       </c>
       <c r="R20">
-        <v>0.9991887482456141</v>
+        <v>0.9994968915068494</v>
       </c>
       <c r="S20">
-        <v>0.9906723792982457</v>
+        <v>0.9941033176712329</v>
       </c>
       <c r="T20">
-        <v>0.9991887482456141</v>
+        <v>0.9994968915068494</v>
       </c>
       <c r="U20">
-        <v>0.9978327696052632</v>
+        <v>0.9986387200342467</v>
       </c>
       <c r="V20">
-        <v>1.002129003789474</v>
+        <v>1.001359961452055</v>
       </c>
       <c r="W20">
-        <v>0.9980864359868422</v>
+        <v>0.9987942183390413</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998881334792086</v>
+        <v>1.007440113157895</v>
       </c>
       <c r="D21">
-        <v>0.999947871075815</v>
+        <v>0.9805227394736841</v>
       </c>
       <c r="E21">
-        <v>0.9996217743911039</v>
+        <v>1.019810768421053</v>
       </c>
       <c r="F21">
-        <v>0.9996217743911039</v>
+        <v>1.019810768421053</v>
       </c>
       <c r="G21">
-        <v>1.000084735305746</v>
+        <v>1.011139557894737</v>
       </c>
       <c r="H21">
-        <v>0.9999835556674523</v>
+        <v>0.9935635610526315</v>
       </c>
       <c r="I21">
-        <v>0.9998480095447992</v>
+        <v>0.9700179063157895</v>
       </c>
       <c r="J21">
-        <v>1.00030775561002</v>
+        <v>1.00759526</v>
       </c>
       <c r="K21">
-        <v>0.9996217743911039</v>
+        <v>1.019810768421053</v>
       </c>
       <c r="L21">
-        <v>1.000142239604065</v>
+        <v>0.994067410526316</v>
       </c>
       <c r="M21">
-        <v>0.9998480095447992</v>
+        <v>0.9700179063157895</v>
       </c>
       <c r="N21">
-        <v>0.9996217743911039</v>
+        <v>1.019810768421053</v>
       </c>
       <c r="O21">
-        <v>1.00030775561002</v>
+        <v>1.00759526</v>
       </c>
       <c r="P21">
-        <v>1.00007788257741</v>
+        <v>0.9888065831578949</v>
       </c>
       <c r="Q21">
-        <v>1.000145655638736</v>
+        <v>1.000579410526316</v>
       </c>
       <c r="R21">
-        <v>0.9999258465153078</v>
+        <v>0.9991413115789475</v>
       </c>
       <c r="S21">
-        <v>1.000046440274091</v>
+        <v>0.9903922424561404</v>
       </c>
       <c r="T21">
-        <v>0.9999258465153078</v>
+        <v>0.9991413115789474</v>
       </c>
       <c r="U21">
-        <v>0.9999402738033439</v>
+        <v>0.9977468739473684</v>
       </c>
       <c r="V21">
-        <v>0.9998765739208959</v>
+        <v>1.002159652842105</v>
       </c>
       <c r="W21">
-        <v>0.9999780093347763</v>
+        <v>0.9980196646052631</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000044389827413</v>
+        <v>1.007244911578947</v>
       </c>
       <c r="D22">
-        <v>1.00002577130476</v>
+        <v>0.9811324836842106</v>
       </c>
       <c r="E22">
-        <v>1.000151296071821</v>
+        <v>1.019313940526316</v>
       </c>
       <c r="F22">
-        <v>1.000151296071821</v>
+        <v>1.019313940526316</v>
       </c>
       <c r="G22">
-        <v>0.9999626540115703</v>
+        <v>1.010775116315789</v>
       </c>
       <c r="H22">
-        <v>1.000008197021452</v>
+        <v>0.9937648336842106</v>
       </c>
       <c r="I22">
-        <v>1.000069220677154</v>
+        <v>0.9709770500000001</v>
       </c>
       <c r="J22">
-        <v>0.9998716417450872</v>
+        <v>1.007275254210526</v>
       </c>
       <c r="K22">
-        <v>1.000151296071821</v>
+        <v>1.019313940526316</v>
       </c>
       <c r="L22">
-        <v>0.9999427651000732</v>
+        <v>0.9942078978947371</v>
       </c>
       <c r="M22">
-        <v>1.000069220677154</v>
+        <v>0.9709770500000001</v>
       </c>
       <c r="N22">
-        <v>1.000151296071821</v>
+        <v>1.019313940526316</v>
       </c>
       <c r="O22">
-        <v>0.9998716417450872</v>
+        <v>1.007275254210526</v>
       </c>
       <c r="P22">
-        <v>0.9999704312111205</v>
+        <v>0.9891261521052632</v>
       </c>
       <c r="Q22">
-        <v>0.9999399193832699</v>
+        <v>1.000520043947368</v>
       </c>
       <c r="R22">
-        <v>1.000030719498021</v>
+        <v>0.9991887482456141</v>
       </c>
       <c r="S22">
-        <v>0.9999830198145645</v>
+        <v>0.9906723792982457</v>
       </c>
       <c r="T22">
-        <v>1.000030719498021</v>
+        <v>0.9991887482456141</v>
       </c>
       <c r="U22">
-        <v>1.000025088878879</v>
+        <v>0.9978327696052632</v>
       </c>
       <c r="V22">
-        <v>1.000050330317467</v>
+        <v>1.002129003789474</v>
       </c>
       <c r="W22">
-        <v>1.000009491969916</v>
+        <v>0.9980864359868422</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9973054280763327</v>
+        <v>0.9998881334792086</v>
       </c>
       <c r="D23">
-        <v>1.007123267942297</v>
+        <v>0.999947871075815</v>
       </c>
       <c r="E23">
-        <v>0.9928413187873748</v>
+        <v>0.9996217743911039</v>
       </c>
       <c r="F23">
-        <v>0.9928413187873748</v>
+        <v>0.9996217743911039</v>
       </c>
       <c r="G23">
-        <v>0.9959149913235962</v>
+        <v>1.000084735305746</v>
       </c>
       <c r="H23">
-        <v>1.00235379528043</v>
+        <v>0.9999835556674523</v>
       </c>
       <c r="I23">
-        <v>1.010979529425347</v>
+        <v>0.9998480095447992</v>
       </c>
       <c r="J23">
-        <v>0.9971645612932503</v>
+        <v>1.00030775561002</v>
       </c>
       <c r="K23">
-        <v>0.9928413187873748</v>
+        <v>0.9996217743911039</v>
       </c>
       <c r="L23">
-        <v>1.002137952542266</v>
+        <v>1.000142239604065</v>
       </c>
       <c r="M23">
-        <v>1.010979529425347</v>
+        <v>0.9998480095447992</v>
       </c>
       <c r="N23">
-        <v>0.9928413187873748</v>
+        <v>0.9996217743911039</v>
       </c>
       <c r="O23">
-        <v>0.9971645612932503</v>
+        <v>1.00030775561002</v>
       </c>
       <c r="P23">
-        <v>1.004072045359299</v>
+        <v>1.00007788257741</v>
       </c>
       <c r="Q23">
-        <v>0.9997591782868402</v>
+        <v>1.000145655638736</v>
       </c>
       <c r="R23">
-        <v>1.000328469835324</v>
+        <v>0.9999258465153078</v>
       </c>
       <c r="S23">
-        <v>1.003499295333009</v>
+        <v>1.000046440274091</v>
       </c>
       <c r="T23">
-        <v>1.000328469835324</v>
+        <v>0.9999258465153078</v>
       </c>
       <c r="U23">
-        <v>1.000834801196601</v>
+        <v>0.9999402738033439</v>
       </c>
       <c r="V23">
-        <v>0.9992361047147554</v>
+        <v>0.9998765739208959</v>
       </c>
       <c r="W23">
-        <v>1.000727605583862</v>
+        <v>0.9999780093347763</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9992786145997365</v>
+        <v>1.000044389827413</v>
       </c>
       <c r="D24">
-        <v>1.001827912097495</v>
+        <v>1.00002577130476</v>
       </c>
       <c r="E24">
-        <v>0.9980650584177511</v>
+        <v>1.000151296071821</v>
       </c>
       <c r="F24">
-        <v>0.9980650584177511</v>
+        <v>1.000151296071821</v>
       </c>
       <c r="G24">
-        <v>0.9989642143494265</v>
+        <v>0.9999626540115703</v>
       </c>
       <c r="H24">
-        <v>1.000604184714418</v>
+        <v>1.000008197021452</v>
       </c>
       <c r="I24">
-        <v>1.002801176900511</v>
+        <v>1.000069220677154</v>
       </c>
       <c r="J24">
-        <v>0.9993376701442581</v>
+        <v>0.9998716417450872</v>
       </c>
       <c r="K24">
-        <v>0.9980650584177511</v>
+        <v>1.000151296071821</v>
       </c>
       <c r="L24">
-        <v>1.000584531810621</v>
+        <v>0.9999427651000732</v>
       </c>
       <c r="M24">
-        <v>1.002801176900511</v>
+        <v>1.000069220677154</v>
       </c>
       <c r="N24">
-        <v>0.9980650584177511</v>
+        <v>1.000151296071821</v>
       </c>
       <c r="O24">
-        <v>0.9993376701442581</v>
+        <v>0.9998716417450872</v>
       </c>
       <c r="P24">
-        <v>1.001069423522384</v>
+        <v>0.9999704312111205</v>
       </c>
       <c r="Q24">
-        <v>0.999970927429338</v>
+        <v>0.9999399193832699</v>
       </c>
       <c r="R24">
-        <v>1.000067968487507</v>
+        <v>1.000030719498021</v>
       </c>
       <c r="S24">
-        <v>1.000914343919729</v>
+        <v>0.9999830198145645</v>
       </c>
       <c r="T24">
-        <v>1.000067968487507</v>
+        <v>1.000030719498021</v>
       </c>
       <c r="U24">
-        <v>1.000202022544235</v>
+        <v>1.000025088878879</v>
       </c>
       <c r="V24">
-        <v>0.9997746297189378</v>
+        <v>1.000050330317467</v>
       </c>
       <c r="W24">
-        <v>1.000182920379277</v>
+        <v>1.000009491969916</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9993921189469729</v>
+        <v>0.9973054280763327</v>
       </c>
       <c r="D25">
-        <v>1.001756993567527</v>
+        <v>1.007123267942297</v>
       </c>
       <c r="E25">
-        <v>0.9984200012213073</v>
+        <v>0.9928413187873748</v>
       </c>
       <c r="F25">
-        <v>0.9984200012213073</v>
+        <v>0.9928413187873748</v>
       </c>
       <c r="G25">
-        <v>0.9989687573363888</v>
+        <v>0.9959149913235962</v>
       </c>
       <c r="H25">
-        <v>1.000580235309992</v>
+        <v>1.00235379528043</v>
       </c>
       <c r="I25">
-        <v>1.002739065488634</v>
+        <v>1.010979529425347</v>
       </c>
       <c r="J25">
-        <v>0.9991768412280146</v>
+        <v>0.9971645612932503</v>
       </c>
       <c r="K25">
-        <v>0.9984200012213073</v>
+        <v>0.9928413187873748</v>
       </c>
       <c r="L25">
-        <v>1.000459246258202</v>
+        <v>1.002137952542266</v>
       </c>
       <c r="M25">
-        <v>1.002739065488634</v>
+        <v>1.010979529425347</v>
       </c>
       <c r="N25">
-        <v>0.9984200012213073</v>
+        <v>0.9928413187873748</v>
       </c>
       <c r="O25">
-        <v>0.9991768412280146</v>
+        <v>0.9971645612932503</v>
       </c>
       <c r="P25">
-        <v>1.000957953358324</v>
+        <v>1.004072045359299</v>
       </c>
       <c r="Q25">
-        <v>0.9998785382690033</v>
+        <v>0.9997591782868402</v>
       </c>
       <c r="R25">
-        <v>1.000111969312652</v>
+        <v>1.000328469835324</v>
       </c>
       <c r="S25">
-        <v>1.000832047342214</v>
+        <v>1.003499295333009</v>
       </c>
       <c r="T25">
-        <v>1.000111969312652</v>
+        <v>1.000328469835324</v>
       </c>
       <c r="U25">
-        <v>1.000229035811987</v>
+        <v>1.000834801196601</v>
       </c>
       <c r="V25">
-        <v>0.9998672288938509</v>
+        <v>0.9992361047147554</v>
       </c>
       <c r="W25">
-        <v>1.00018665741963</v>
+        <v>1.000727605583862</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.999808386620393</v>
+        <v>0.9992786145997365</v>
       </c>
       <c r="D26">
-        <v>1.00042664292747</v>
+        <v>1.001827912097495</v>
       </c>
       <c r="E26">
-        <v>0.999472331610477</v>
+        <v>0.9980650584177511</v>
       </c>
       <c r="F26">
-        <v>0.999472331610477</v>
+        <v>0.9980650584177511</v>
       </c>
       <c r="G26">
-        <v>0.9997679390092505</v>
+        <v>0.9989642143494265</v>
       </c>
       <c r="H26">
-        <v>1.000141159922125</v>
+        <v>1.000604184714418</v>
       </c>
       <c r="I26">
-        <v>1.000641144278716</v>
+        <v>1.002801176900511</v>
       </c>
       <c r="J26">
-        <v>0.9998960974445166</v>
+        <v>0.9993376701442581</v>
       </c>
       <c r="K26">
-        <v>0.999472331610477</v>
+        <v>0.9980650584177511</v>
       </c>
       <c r="L26">
-        <v>1.000164313367634</v>
+        <v>1.000584531810621</v>
       </c>
       <c r="M26">
-        <v>1.000641144278716</v>
+        <v>1.002801176900511</v>
       </c>
       <c r="N26">
-        <v>0.999472331610477</v>
+        <v>0.9980650584177511</v>
       </c>
       <c r="O26">
-        <v>0.9998960974445166</v>
+        <v>0.9993376701442581</v>
       </c>
       <c r="P26">
-        <v>1.000268620861616</v>
+        <v>1.001069423522384</v>
       </c>
       <c r="Q26">
-        <v>1.000018628683321</v>
+        <v>0.999970927429338</v>
       </c>
       <c r="R26">
-        <v>1.000003191111236</v>
+        <v>1.000067968487507</v>
       </c>
       <c r="S26">
-        <v>1.000226133881786</v>
+        <v>1.000914343919729</v>
       </c>
       <c r="T26">
-        <v>1.000003191111236</v>
+        <v>1.000067968487507</v>
       </c>
       <c r="U26">
-        <v>1.000037683313959</v>
+        <v>1.000202022544235</v>
       </c>
       <c r="V26">
-        <v>0.9999246129732622</v>
+        <v>0.9997746297189378</v>
       </c>
       <c r="W26">
-        <v>1.000039751897573</v>
+        <v>1.000182920379277</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000697148699702</v>
+        <v>0.9993921189469729</v>
       </c>
       <c r="D27">
-        <v>0.9981883917773804</v>
+        <v>1.001756993567527</v>
       </c>
       <c r="E27">
-        <v>1.001859422110158</v>
+        <v>0.9984200012213073</v>
       </c>
       <c r="F27">
-        <v>1.001859422110158</v>
+        <v>0.9984200012213073</v>
       </c>
       <c r="G27">
-        <v>1.001033969013659</v>
+        <v>0.9989687573363888</v>
       </c>
       <c r="H27">
-        <v>0.9994013238566808</v>
+        <v>1.000580235309992</v>
       </c>
       <c r="I27">
-        <v>0.9972141218440032</v>
+        <v>1.002739065488634</v>
       </c>
       <c r="J27">
-        <v>1.000695238307848</v>
+        <v>0.9991768412280146</v>
       </c>
       <c r="K27">
-        <v>1.001859422110158</v>
+        <v>0.9984200012213073</v>
       </c>
       <c r="L27">
-        <v>0.9994420352818592</v>
+        <v>1.000459246258202</v>
       </c>
       <c r="M27">
-        <v>0.9972141218440032</v>
+        <v>1.002739065488634</v>
       </c>
       <c r="N27">
-        <v>1.001859422110158</v>
+        <v>0.9984200012213073</v>
       </c>
       <c r="O27">
-        <v>1.000695238307848</v>
+        <v>0.9991768412280146</v>
       </c>
       <c r="P27">
-        <v>0.9989546800759255</v>
+        <v>1.000957953358324</v>
       </c>
       <c r="Q27">
-        <v>1.000048281082264</v>
+        <v>0.9998785382690033</v>
       </c>
       <c r="R27">
-        <v>0.9999229274206695</v>
+        <v>1.000111969312652</v>
       </c>
       <c r="S27">
-        <v>0.9991035613361773</v>
+        <v>1.000832047342214</v>
       </c>
       <c r="T27">
-        <v>0.9999229274206695</v>
+        <v>1.000111969312652</v>
       </c>
       <c r="U27">
-        <v>0.9997925265296723</v>
+        <v>1.000229035811987</v>
       </c>
       <c r="V27">
-        <v>1.000205905645769</v>
+        <v>0.9998672288938509</v>
       </c>
       <c r="W27">
-        <v>0.9998164563614113</v>
+        <v>1.00018665741963</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000757445331257</v>
+        <v>0.999808386620393</v>
       </c>
       <c r="D28">
-        <v>0.9980451451139798</v>
+        <v>1.00042664292747</v>
       </c>
       <c r="E28">
-        <v>1.002023385585849</v>
+        <v>0.999472331610477</v>
       </c>
       <c r="F28">
-        <v>1.002023385585849</v>
+        <v>0.999472331610477</v>
       </c>
       <c r="G28">
-        <v>1.0011135601981</v>
+        <v>0.9997679390092505</v>
       </c>
       <c r="H28">
-        <v>0.9993539313689073</v>
+        <v>1.000141159922125</v>
       </c>
       <c r="I28">
-        <v>0.9969966400172606</v>
+        <v>1.000641144278716</v>
       </c>
       <c r="J28">
-        <v>1.000738944623696</v>
+        <v>0.9998960974445166</v>
       </c>
       <c r="K28">
-        <v>1.002023385585849</v>
+        <v>0.999472331610477</v>
       </c>
       <c r="L28">
-        <v>0.9993917075890113</v>
+        <v>1.000164313367634</v>
       </c>
       <c r="M28">
-        <v>0.9969966400172606</v>
+        <v>1.000641144278716</v>
       </c>
       <c r="N28">
-        <v>1.002023385585849</v>
+        <v>0.999472331610477</v>
       </c>
       <c r="O28">
-        <v>1.000738944623696</v>
+        <v>0.9998960974445166</v>
       </c>
       <c r="P28">
-        <v>0.9988677923204783</v>
+        <v>1.000268620861616</v>
       </c>
       <c r="Q28">
-        <v>1.000046437996302</v>
+        <v>1.000018628683321</v>
       </c>
       <c r="R28">
-        <v>0.9999196567422687</v>
+        <v>1.000003191111236</v>
       </c>
       <c r="S28">
-        <v>0.9990298386699547</v>
+        <v>1.000226133881786</v>
       </c>
       <c r="T28">
-        <v>0.9999196567422687</v>
+        <v>1.000003191111236</v>
       </c>
       <c r="U28">
-        <v>0.9997782253989282</v>
+        <v>1.000037683313959</v>
       </c>
       <c r="V28">
-        <v>1.000227257436312</v>
+        <v>0.9999246129732622</v>
       </c>
       <c r="W28">
-        <v>0.9998025949785079</v>
+        <v>1.000039751897573</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000697148699702</v>
+      </c>
+      <c r="D29">
+        <v>0.9981883917773804</v>
+      </c>
+      <c r="E29">
+        <v>1.001859422110158</v>
+      </c>
+      <c r="F29">
+        <v>1.001859422110158</v>
+      </c>
+      <c r="G29">
+        <v>1.001033969013659</v>
+      </c>
+      <c r="H29">
+        <v>0.9994013238566808</v>
+      </c>
+      <c r="I29">
+        <v>0.9972141218440032</v>
+      </c>
+      <c r="J29">
+        <v>1.000695238307848</v>
+      </c>
+      <c r="K29">
+        <v>1.001859422110158</v>
+      </c>
+      <c r="L29">
+        <v>0.9994420352818592</v>
+      </c>
+      <c r="M29">
+        <v>0.9972141218440032</v>
+      </c>
+      <c r="N29">
+        <v>1.001859422110158</v>
+      </c>
+      <c r="O29">
+        <v>1.000695238307848</v>
+      </c>
+      <c r="P29">
+        <v>0.9989546800759255</v>
+      </c>
+      <c r="Q29">
+        <v>1.000048281082264</v>
+      </c>
+      <c r="R29">
+        <v>0.9999229274206695</v>
+      </c>
+      <c r="S29">
+        <v>0.9991035613361773</v>
+      </c>
+      <c r="T29">
+        <v>0.9999229274206695</v>
+      </c>
+      <c r="U29">
+        <v>0.9997925265296723</v>
+      </c>
+      <c r="V29">
+        <v>1.000205905645769</v>
+      </c>
+      <c r="W29">
+        <v>0.9998164563614113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000757445331257</v>
+      </c>
+      <c r="D30">
+        <v>0.9980451451139798</v>
+      </c>
+      <c r="E30">
+        <v>1.002023385585849</v>
+      </c>
+      <c r="F30">
+        <v>1.002023385585849</v>
+      </c>
+      <c r="G30">
+        <v>1.0011135601981</v>
+      </c>
+      <c r="H30">
+        <v>0.9993539313689073</v>
+      </c>
+      <c r="I30">
+        <v>0.9969966400172606</v>
+      </c>
+      <c r="J30">
+        <v>1.000738944623696</v>
+      </c>
+      <c r="K30">
+        <v>1.002023385585849</v>
+      </c>
+      <c r="L30">
+        <v>0.9993917075890113</v>
+      </c>
+      <c r="M30">
+        <v>0.9969966400172606</v>
+      </c>
+      <c r="N30">
+        <v>1.002023385585849</v>
+      </c>
+      <c r="O30">
+        <v>1.000738944623696</v>
+      </c>
+      <c r="P30">
+        <v>0.9988677923204783</v>
+      </c>
+      <c r="Q30">
+        <v>1.000046437996302</v>
+      </c>
+      <c r="R30">
+        <v>0.9999196567422687</v>
+      </c>
+      <c r="S30">
+        <v>0.9990298386699547</v>
+      </c>
+      <c r="T30">
+        <v>0.9999196567422687</v>
+      </c>
+      <c r="U30">
+        <v>0.9997782253989282</v>
+      </c>
+      <c r="V30">
+        <v>1.000227257436312</v>
+      </c>
+      <c r="W30">
+        <v>0.9998025949785079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9986424369404031</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.003620736091288</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9964007941581731</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9964007941581731</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9979185556835284</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.001196350357278</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.005587414114271</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9985324219930105</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9964007941581731</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.001072200595564</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.005587414114271</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9964007941581731</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9985324219930105</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.002059918053641</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9998643861751445</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000173543421818</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001772062154853</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000173543421818</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000429245155683</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9996235549561814</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.00037136374169</v>
       </c>
     </row>
